--- a/legendre_out/DATA/o17_1/a4/o17_1_a4Fit.xlsx
+++ b/legendre_out/DATA/o17_1/a4/o17_1_a4Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,31 +418,31 @@
         <v>3.996</v>
       </c>
       <c r="B2" t="n">
-        <v>8.016905079108216e-13</v>
+        <v>2.525192696991992e-11</v>
       </c>
       <c r="C2" t="n">
-        <v>1.108272074024404e-12</v>
+        <v>3.129749653470978e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>1.456567892281819e-12</v>
+        <v>-1.041266551910995e-11</v>
       </c>
       <c r="E2" t="n">
-        <v>3.059336258913702e-13</v>
+        <v>1.98083018487394e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>1.031291692967087e-12</v>
+        <v>4.900031167429968e-12</v>
       </c>
       <c r="G2" t="n">
-        <v>1.025471767325257e-12</v>
+        <v>4.832858809877081e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>1.260793565634187</v>
+        <v>18.10602177796119</v>
       </c>
       <c r="I2" t="n">
-        <v>0.867991486473337</v>
+        <v>0.001176585465706867</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3151983914085467</v>
+        <v>4.526505444490296</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         <v>4.001</v>
       </c>
       <c r="B3" t="n">
-        <v>1.406867265985028e-12</v>
+        <v>2.477679406986187e-11</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.910918429873696e-14</v>
+        <v>-5.71655535152453e-12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.450428129427442e-12</v>
+        <v>6.978576440410297e-12</v>
       </c>
       <c r="E3" t="n">
-        <v>5.922131281796801e-13</v>
+        <v>2.53690106916086e-12</v>
       </c>
       <c r="F3" t="n">
-        <v>1.475437636810314e-12</v>
+        <v>6.012263785321222e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>1.306988234275326e-12</v>
+        <v>4.965367285260292e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>1.461127333961702</v>
+        <v>13.93998323167715</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8335042377887393</v>
+        <v>0.007489088570776322</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3652818334904255</v>
+        <v>3.484995807919288</v>
       </c>
     </row>
     <row r="4">
@@ -482,31 +482,31 @@
         <v>4.0029</v>
       </c>
       <c r="B4" t="n">
-        <v>2.317121311280893e-12</v>
+        <v>1.294486603143168e-11</v>
       </c>
       <c r="C4" t="n">
-        <v>1.190638658001845e-12</v>
+        <v>5.824313372547111e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>3.849012138115393e-13</v>
+        <v>2.948706108503849e-12</v>
       </c>
       <c r="E4" t="n">
-        <v>8.744317793948031e-13</v>
+        <v>1.711693302398056e-12</v>
       </c>
       <c r="F4" t="n">
-        <v>1.746229642642138e-12</v>
+        <v>3.860359548567029e-12</v>
       </c>
       <c r="G4" t="n">
-        <v>2.297491244116956e-12</v>
+        <v>4.038593556347684e-12</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2771419768763963</v>
+        <v>6.667589127694678</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9912415494071537</v>
+        <v>0.1545324669102546</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06928549421909908</v>
+        <v>1.66689728192367</v>
       </c>
     </row>
     <row r="5">
@@ -514,31 +514,31 @@
         <v>4.007</v>
       </c>
       <c r="B5" t="n">
-        <v>4.172625236251857e-12</v>
+        <v>1.246219754628089e-11</v>
       </c>
       <c r="C5" t="n">
-        <v>8.583296308001244e-13</v>
+        <v>-5.200593266227439e-12</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.50461078501174e-12</v>
+        <v>1.164209763710274e-11</v>
       </c>
       <c r="E5" t="n">
-        <v>1.634262131690594e-12</v>
+        <v>2.736576578390803e-12</v>
       </c>
       <c r="F5" t="n">
-        <v>2.376813024753574e-12</v>
+        <v>5.856830823396402e-12</v>
       </c>
       <c r="G5" t="n">
-        <v>3.221841733615089e-12</v>
+        <v>5.565181862002933e-12</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1401627489146761</v>
+        <v>36.73842387227599</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9976560733156785</v>
+        <v>2.039222293815907e-07</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03504068722866903</v>
+        <v>9.184605968068997</v>
       </c>
     </row>
     <row r="6">
@@ -546,31 +546,31 @@
         <v>4.0091</v>
       </c>
       <c r="B6" t="n">
-        <v>3.534558413931361e-12</v>
+        <v>1.523568002144078e-11</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.019213934393018e-13</v>
+        <v>1.163888276079259e-11</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.782856052908818e-13</v>
+        <v>-1.554213251317251e-11</v>
       </c>
       <c r="E6" t="n">
-        <v>1.404206242693664e-12</v>
+        <v>2.716077331843508e-12</v>
       </c>
       <c r="F6" t="n">
-        <v>2.620585117907182e-12</v>
+        <v>3.438803463387281e-12</v>
       </c>
       <c r="G6" t="n">
-        <v>3.437589379831493e-12</v>
+        <v>5.644324920846107e-12</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3984926717380934</v>
+        <v>5.114326207560482</v>
       </c>
       <c r="I6" t="n">
-        <v>0.982600127169923</v>
+        <v>0.2757667835638476</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09962316793452335</v>
+        <v>1.27858155189012</v>
       </c>
     </row>
     <row r="7">
@@ -578,31 +578,31 @@
         <v>4.01</v>
       </c>
       <c r="B7" t="n">
-        <v>2.959682672941428e-12</v>
+        <v>1.621437447945091e-11</v>
       </c>
       <c r="C7" t="n">
-        <v>3.554854452308229e-13</v>
+        <v>-7.116723462970899e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>2.000427162021293e-12</v>
+        <v>-3.43787279201172e-12</v>
       </c>
       <c r="E7" t="n">
-        <v>1.162448491673189e-12</v>
+        <v>3.136470441698222e-12</v>
       </c>
       <c r="F7" t="n">
-        <v>2.877970041368948e-12</v>
+        <v>7.352627559134655e-12</v>
       </c>
       <c r="G7" t="n">
-        <v>3.336349812734496e-12</v>
+        <v>7.476217717586815e-12</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9911408829522458</v>
+        <v>1.345442870275081</v>
       </c>
       <c r="I7" t="n">
-        <v>0.911136332709904</v>
+        <v>0.8536196721250638</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2477852207380614</v>
+        <v>0.3363607175687702</v>
       </c>
     </row>
     <row r="8">
@@ -610,31 +610,31 @@
         <v>4.0151</v>
       </c>
       <c r="B8" t="n">
-        <v>4.122381162490391e-12</v>
+        <v>9.20485868140053e-12</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.854591922354661e-12</v>
+        <v>-1.225970918008338e-11</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.465302827943487e-13</v>
+        <v>1.603537341560841e-11</v>
       </c>
       <c r="E8" t="n">
-        <v>1.698027803533543e-12</v>
+        <v>1.621158598772198e-12</v>
       </c>
       <c r="F8" t="n">
-        <v>3.326242617753645e-12</v>
+        <v>2.70821083812016e-12</v>
       </c>
       <c r="G8" t="n">
-        <v>3.056238488681138e-12</v>
+        <v>3.661907632516175e-12</v>
       </c>
       <c r="H8" t="n">
-        <v>1.071367757817606</v>
+        <v>41.42977484879287</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8987880148553116</v>
+        <v>2.189758801139621e-08</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2678419394544015</v>
+        <v>10.35744371219822</v>
       </c>
     </row>
     <row r="9">
@@ -642,31 +642,31 @@
         <v>4.0191</v>
       </c>
       <c r="B9" t="n">
-        <v>4.961403613471724e-12</v>
+        <v>1.567185012259133e-11</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.726025444561767e-13</v>
+        <v>2.609501894146717e-11</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.393752297938981e-12</v>
+        <v>-4.929274773071546e-12</v>
       </c>
       <c r="E9" t="n">
-        <v>2.079083978249215e-12</v>
+        <v>1.70912818428839e-12</v>
       </c>
       <c r="F9" t="n">
-        <v>3.341490259388269e-12</v>
+        <v>1.702021628534603e-12</v>
       </c>
       <c r="G9" t="n">
-        <v>5.057016517247119e-12</v>
+        <v>3.644870227825724e-12</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9621880312025193</v>
+        <v>106.9852803197499</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9154742873528505</v>
+        <v>3.197270687152889e-22</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2405470078006298</v>
+        <v>26.74632007993748</v>
       </c>
     </row>
     <row r="10">
@@ -674,31 +674,31 @@
         <v>4.0199</v>
       </c>
       <c r="B10" t="n">
-        <v>2.745357030556341e-12</v>
+        <v>8.430881744718213e-12</v>
       </c>
       <c r="C10" t="n">
-        <v>3.375917644112547e-12</v>
+        <v>8.709527387805621e-12</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.403154230884343e-12</v>
+        <v>-9.926482963108e-12</v>
       </c>
       <c r="E10" t="n">
-        <v>1.308432562741356e-12</v>
+        <v>1.825802553419509e-12</v>
       </c>
       <c r="F10" t="n">
-        <v>1.559690048164742e-12</v>
+        <v>2.233220052484876e-12</v>
       </c>
       <c r="G10" t="n">
-        <v>2.972692542443662e-12</v>
+        <v>3.92513499481815e-12</v>
       </c>
       <c r="H10" t="n">
-        <v>1.173502984122714</v>
+        <v>1.550611501948821</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8824416136512344</v>
+        <v>0.8176400394424563</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2933757460306785</v>
+        <v>0.3876528754872052</v>
       </c>
     </row>
     <row r="11">
@@ -706,31 +706,31 @@
         <v>4.025</v>
       </c>
       <c r="B11" t="n">
-        <v>3.994373251772236e-12</v>
+        <v>1.122321843881117e-11</v>
       </c>
       <c r="C11" t="n">
-        <v>8.369673603547284e-13</v>
+        <v>9.618877168735535e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.665938140134494e-12</v>
+        <v>-1.41176950914922e-11</v>
       </c>
       <c r="E11" t="n">
-        <v>1.554141550793076e-12</v>
+        <v>1.700407127747528e-12</v>
       </c>
       <c r="F11" t="n">
-        <v>2.439507824989422e-12</v>
+        <v>2.189319917389092e-12</v>
       </c>
       <c r="G11" t="n">
-        <v>3.128155101387877e-12</v>
+        <v>3.567141979531508e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4179627801936237</v>
+        <v>19.40150541924964</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9809799956789812</v>
+        <v>0.0006552860999117415</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1044906950484059</v>
+        <v>4.850376354812409</v>
       </c>
     </row>
     <row r="12">
@@ -738,31 +738,31 @@
         <v>4.03</v>
       </c>
       <c r="B12" t="n">
-        <v>2.705967907969183e-12</v>
+        <v>1.315946546678086e-11</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.313037283295557e-13</v>
+        <v>-6.569198683490162e-12</v>
       </c>
       <c r="D12" t="n">
-        <v>1.281273595798971e-12</v>
+        <v>9.655719816226194e-12</v>
       </c>
       <c r="E12" t="n">
-        <v>1.067989947780977e-12</v>
+        <v>2.995859264299246e-12</v>
       </c>
       <c r="F12" t="n">
-        <v>2.40292072666291e-12</v>
+        <v>5.887806196465274e-12</v>
       </c>
       <c r="G12" t="n">
-        <v>3.091529628516587e-12</v>
+        <v>5.107264936573139e-12</v>
       </c>
       <c r="H12" t="n">
-        <v>0.301564895331525</v>
+        <v>2.66341146309758</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9597338975368239</v>
+        <v>0.6156321467554654</v>
       </c>
       <c r="J12" t="n">
-        <v>0.100521631777175</v>
+        <v>0.665852865774395</v>
       </c>
     </row>
     <row r="13">
@@ -770,31 +770,31 @@
         <v>4.0351</v>
       </c>
       <c r="B13" t="n">
-        <v>2.898510666107354e-12</v>
+        <v>5.520247544126023e-12</v>
       </c>
       <c r="C13" t="n">
-        <v>2.309384382139397e-13</v>
+        <v>-1.687637331718217e-12</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.850229642213124e-13</v>
+        <v>7.729760451463783e-12</v>
       </c>
       <c r="E13" t="n">
-        <v>1.132260320595079e-12</v>
+        <v>1.915183683230539e-12</v>
       </c>
       <c r="F13" t="n">
-        <v>2.11739107484532e-12</v>
+        <v>6.441199097400647e-12</v>
       </c>
       <c r="G13" t="n">
-        <v>2.880096985644898e-12</v>
+        <v>7.069266732295034e-12</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2030531070896986</v>
+        <v>2.712505808994889</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9770949234539466</v>
+        <v>0.4381062449602182</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06768436902989952</v>
+        <v>0.9041686029982964</v>
       </c>
     </row>
     <row r="14">
@@ -802,31 +802,31 @@
         <v>4.27</v>
       </c>
       <c r="B14" t="n">
-        <v>3.366924786022944e-12</v>
+        <v>2.609392501224002e-11</v>
       </c>
       <c r="C14" t="n">
-        <v>2.05188065093768e-12</v>
+        <v>2.260566658301464e-11</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.295452078084925e-13</v>
+        <v>-3.36774537395724e-11</v>
       </c>
       <c r="E14" t="n">
-        <v>1.274086577036282e-12</v>
+        <v>1.665088110223715e-12</v>
       </c>
       <c r="F14" t="n">
-        <v>2.255599177514043e-12</v>
+        <v>3.459792183489945e-12</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88634865734725e-12</v>
+        <v>3.710896913138409e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1663123806419844</v>
+        <v>22.70302943363715</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9967283509010011</v>
+        <v>0.000145150995059403</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04157809516049609</v>
+        <v>5.675757358409287</v>
       </c>
     </row>
     <row r="15">
@@ -834,31 +834,31 @@
         <v>4.2901</v>
       </c>
       <c r="B15" t="n">
-        <v>2.554979007366236e-12</v>
+        <v>3.067406985109696e-11</v>
       </c>
       <c r="C15" t="n">
-        <v>1.93858061308403e-12</v>
+        <v>8.58013122078508e-12</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.500628034122451e-12</v>
+        <v>1.793328824415595e-11</v>
       </c>
       <c r="E15" t="n">
-        <v>1.140288534021448e-12</v>
+        <v>1.693945713317106e-12</v>
       </c>
       <c r="F15" t="n">
-        <v>1.379485648531444e-12</v>
+        <v>3.373978244251139e-12</v>
       </c>
       <c r="G15" t="n">
-        <v>2.476618233368745e-12</v>
+        <v>4.056081429066059e-12</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9496801769422225</v>
+        <v>81.10724711993242</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9173276912411429</v>
+        <v>1.014831567185099e-16</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2374200442355556</v>
+        <v>20.27681177998311</v>
       </c>
     </row>
     <row r="16">
@@ -866,31 +866,31 @@
         <v>4.2911</v>
       </c>
       <c r="B16" t="n">
-        <v>5.592061863285415e-12</v>
+        <v>2.987654992595244e-11</v>
       </c>
       <c r="C16" t="n">
-        <v>2.123400464580721e-12</v>
+        <v>2.169331399348777e-11</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.935958834270559e-12</v>
+        <v>-1.785966041009714e-11</v>
       </c>
       <c r="E16" t="n">
-        <v>2.30350927985197e-12</v>
+        <v>2.056894185765423e-12</v>
       </c>
       <c r="F16" t="n">
-        <v>3.838319841286576e-12</v>
+        <v>3.449713197178663e-12</v>
       </c>
       <c r="G16" t="n">
-        <v>5.202943226366837e-12</v>
+        <v>4.42903479349392e-12</v>
       </c>
       <c r="H16" t="n">
-        <v>1.008175012863146</v>
+        <v>44.41502687529346</v>
       </c>
       <c r="I16" t="n">
-        <v>0.908553867486088</v>
+        <v>5.260512632300984e-09</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2520437532157864</v>
+        <v>11.10375671882337</v>
       </c>
     </row>
     <row r="17">
@@ -898,31 +898,31 @@
         <v>4.2932</v>
       </c>
       <c r="B17" t="n">
-        <v>6.304217616929481e-12</v>
+        <v>2.330194515437594e-11</v>
       </c>
       <c r="C17" t="n">
-        <v>4.288807979904807e-12</v>
+        <v>1.386293768476852e-11</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.120129902878111e-13</v>
+        <v>2.493770252289849e-11</v>
       </c>
       <c r="E17" t="n">
-        <v>2.48460556794382e-12</v>
+        <v>2.142121766323853e-12</v>
       </c>
       <c r="F17" t="n">
-        <v>4.311214910725529e-12</v>
+        <v>3.850063020263082e-12</v>
       </c>
       <c r="G17" t="n">
-        <v>6.58528026501633e-12</v>
+        <v>4.861920131182581e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4140419117522182</v>
+        <v>46.06179015663606</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9813111906228501</v>
+        <v>2.390998487875464e-09</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1035104779380545</v>
+        <v>11.51544753915902</v>
       </c>
     </row>
     <row r="18">
@@ -930,31 +930,31 @@
         <v>4.2942</v>
       </c>
       <c r="B18" t="n">
-        <v>5.846209138861273e-12</v>
+        <v>3.356898581859017e-11</v>
       </c>
       <c r="C18" t="n">
-        <v>3.302269962773223e-12</v>
+        <v>-9.312375327073785e-12</v>
       </c>
       <c r="D18" t="n">
-        <v>7.932269738886158e-12</v>
+        <v>1.002680735161091e-11</v>
       </c>
       <c r="E18" t="n">
-        <v>2.147679778116569e-12</v>
+        <v>2.603177247432352e-12</v>
       </c>
       <c r="F18" t="n">
-        <v>6.555884973623465e-12</v>
+        <v>5.616005991251143e-12</v>
       </c>
       <c r="G18" t="n">
-        <v>6.710638037405112e-12</v>
+        <v>5.823833991496934e-12</v>
       </c>
       <c r="H18" t="n">
-        <v>0.826485705065708</v>
+        <v>13.60544942921199</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9348624307177711</v>
+        <v>0.003494498150942312</v>
       </c>
       <c r="J18" t="n">
-        <v>0.206621426266427</v>
+        <v>4.53514980973733</v>
       </c>
     </row>
     <row r="19">
@@ -962,31 +962,31 @@
         <v>4.2951</v>
       </c>
       <c r="B19" t="n">
-        <v>7.864989675053658e-12</v>
+        <v>2.857047070388461e-11</v>
       </c>
       <c r="C19" t="n">
-        <v>5.554860506018307e-12</v>
+        <v>5.358405575936615e-12</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.582634789149343e-12</v>
+        <v>-2.644798062538471e-12</v>
       </c>
       <c r="E19" t="n">
-        <v>3.188734741398308e-12</v>
+        <v>2.229128419203362e-12</v>
       </c>
       <c r="F19" t="n">
-        <v>5.281678136414631e-12</v>
+        <v>4.508342243634088e-12</v>
       </c>
       <c r="G19" t="n">
-        <v>8.244728433048418e-12</v>
+        <v>5.252931432260508e-12</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3544866519313596</v>
+        <v>12.0322470036889</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9860307038928584</v>
+        <v>0.01711307232555705</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08862166298283991</v>
+        <v>3.008061750922226</v>
       </c>
     </row>
     <row r="20">
@@ -994,31 +994,31 @@
         <v>4.2962</v>
       </c>
       <c r="B20" t="n">
-        <v>4.133150635382301e-12</v>
+        <v>1.835922394251496e-11</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.822464339143823e-12</v>
+        <v>2.225399925312934e-12</v>
       </c>
       <c r="D20" t="n">
-        <v>3.135528348148776e-12</v>
+        <v>2.318890662962646e-11</v>
       </c>
       <c r="E20" t="n">
-        <v>1.809307285923591e-12</v>
+        <v>2.359916772656244e-12</v>
       </c>
       <c r="F20" t="n">
-        <v>3.430166353995583e-12</v>
+        <v>4.441414234942327e-12</v>
       </c>
       <c r="G20" t="n">
-        <v>4.908002304475351e-12</v>
+        <v>5.429660042575622e-12</v>
       </c>
       <c r="H20" t="n">
-        <v>1.875541369008429</v>
+        <v>23.19199037015078</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7586365243145445</v>
+        <v>0.0001159193040018256</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4688853422521072</v>
+        <v>5.797997592537695</v>
       </c>
     </row>
     <row r="21">
@@ -1026,31 +1026,31 @@
         <v>4.2972</v>
       </c>
       <c r="B21" t="n">
-        <v>1.01514237839042e-11</v>
+        <v>4.542462115554469e-11</v>
       </c>
       <c r="C21" t="n">
-        <v>1.187566515681929e-12</v>
+        <v>4.28138478200313e-12</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.349098761901826e-12</v>
+        <v>-1.330991256824155e-12</v>
       </c>
       <c r="E21" t="n">
-        <v>3.946853502652115e-12</v>
+        <v>3.384753713954148e-12</v>
       </c>
       <c r="F21" t="n">
-        <v>6.905360297271996e-12</v>
+        <v>6.873697513172038e-12</v>
       </c>
       <c r="G21" t="n">
-        <v>8.899951653441418e-12</v>
+        <v>7.651468739122134e-12</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1766862140350157</v>
+        <v>16.85545873166765</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9963201347768957</v>
+        <v>0.002062009911752681</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04417155350875394</v>
+        <v>4.213864682916912</v>
       </c>
     </row>
     <row r="22">
@@ -1058,31 +1058,31 @@
         <v>4.2981</v>
       </c>
       <c r="B22" t="n">
-        <v>2.205744956866639e-11</v>
+        <v>3.103126028154955e-11</v>
       </c>
       <c r="C22" t="n">
-        <v>1.139393822105084e-11</v>
+        <v>8.722957555794833e-12</v>
       </c>
       <c r="D22" t="n">
-        <v>4.375106234814844e-14</v>
+        <v>-1.089100348327067e-11</v>
       </c>
       <c r="E22" t="n">
-        <v>8.518767782073593e-12</v>
+        <v>8.82614703958064e-12</v>
       </c>
       <c r="F22" t="n">
-        <v>1.485706892472861e-11</v>
+        <v>1.585814659575217e-11</v>
       </c>
       <c r="G22" t="n">
-        <v>1.94384209411698e-11</v>
+        <v>1.598331223252794e-11</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2992450918535354</v>
+        <v>2.596002562829873</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9898628524180479</v>
+        <v>0.6275314157013387</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07481127296338386</v>
+        <v>0.6490006407074683</v>
       </c>
     </row>
     <row r="23">
@@ -1090,31 +1090,31 @@
         <v>4.2991</v>
       </c>
       <c r="B23" t="n">
-        <v>3.834235709272862e-11</v>
+        <v>3.164670317155333e-11</v>
       </c>
       <c r="C23" t="n">
-        <v>2.20741530608063e-11</v>
+        <v>2.669546403011286e-11</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.688920890593246e-12</v>
+        <v>-2.788399840774834e-11</v>
       </c>
       <c r="E23" t="n">
-        <v>1.522415452032314e-11</v>
+        <v>7.992248170325447e-12</v>
       </c>
       <c r="F23" t="n">
-        <v>2.419399161201586e-11</v>
+        <v>1.27920064492641e-11</v>
       </c>
       <c r="G23" t="n">
-        <v>3.723417802605057e-11</v>
+        <v>1.987889013733981e-11</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2769920308817981</v>
+        <v>6.863400053645105</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9912505920494061</v>
+        <v>0.1432854100802422</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06924800772044952</v>
+        <v>1.715850013411276</v>
       </c>
     </row>
     <row r="24">
@@ -1122,31 +1122,31 @@
         <v>4.3011</v>
       </c>
       <c r="B24" t="n">
-        <v>5.737718657334503e-11</v>
+        <v>1.282301310558659e-11</v>
       </c>
       <c r="C24" t="n">
-        <v>3.936815730332697e-11</v>
+        <v>-3.976859384452615e-12</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.651991544791538e-11</v>
+        <v>-8.160218650873693e-12</v>
       </c>
       <c r="E24" t="n">
-        <v>2.347402244177094e-11</v>
+        <v>7.183379744911573e-12</v>
       </c>
       <c r="F24" t="n">
-        <v>2.997671257328159e-11</v>
+        <v>9.001605084005034e-12</v>
       </c>
       <c r="G24" t="n">
-        <v>5.054625395874138e-11</v>
+        <v>1.486151054043796e-11</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1744618988132843</v>
+        <v>6.260398129973831</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9964095622122827</v>
+        <v>0.09960617287945622</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04361547470332108</v>
+        <v>2.086799376657944</v>
       </c>
     </row>
     <row r="25">
@@ -1154,31 +1154,31 @@
         <v>4.3031</v>
       </c>
       <c r="B25" t="n">
-        <v>5.871661905185534e-11</v>
+        <v>2.868873577468806e-11</v>
       </c>
       <c r="C25" t="n">
-        <v>3.512304489554718e-11</v>
+        <v>2.968712150987738e-11</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.980704285940661e-12</v>
+        <v>6.873861325045892e-12</v>
       </c>
       <c r="E25" t="n">
-        <v>2.237100504647572e-11</v>
+        <v>7.913156979061962e-12</v>
       </c>
       <c r="F25" t="n">
-        <v>3.838323243009435e-11</v>
+        <v>1.802806167563983e-11</v>
       </c>
       <c r="G25" t="n">
-        <v>5.217039080254921e-11</v>
+        <v>2.256779053135825e-11</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05146505448591906</v>
+        <v>4.670275020716343</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9996745437962422</v>
+        <v>0.1975957832831032</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01286626362147976</v>
+        <v>1.556758340238781</v>
       </c>
     </row>
     <row r="26">
@@ -1186,31 +1186,31 @@
         <v>4.3052</v>
       </c>
       <c r="B26" t="n">
-        <v>6.152390953581424e-11</v>
+        <v>2.726058909250772e-11</v>
       </c>
       <c r="C26" t="n">
-        <v>1.817659683706804e-11</v>
+        <v>4.269501914068717e-11</v>
       </c>
       <c r="D26" t="n">
-        <v>8.954238963870538e-12</v>
+        <v>-6.291937373082335e-11</v>
       </c>
       <c r="E26" t="n">
-        <v>2.309213136948365e-11</v>
+        <v>1.133667566348946e-11</v>
       </c>
       <c r="F26" t="n">
-        <v>4.367945689385982e-11</v>
+        <v>1.864765112616804e-11</v>
       </c>
       <c r="G26" t="n">
-        <v>5.636278263442343e-11</v>
+        <v>3.638169873151992e-11</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0147334302805535</v>
+        <v>2.251054404330993</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9999729986467832</v>
+        <v>0.3244813549838951</v>
       </c>
       <c r="J26" t="n">
-        <v>0.003683357570138374</v>
+        <v>1.125527202165497</v>
       </c>
     </row>
     <row r="27">
@@ -1218,31 +1218,31 @@
         <v>4.3072</v>
       </c>
       <c r="B27" t="n">
-        <v>5.066325070684718e-11</v>
+        <v>3.633696940104066e-11</v>
       </c>
       <c r="C27" t="n">
-        <v>2.831220025557081e-11</v>
+        <v>-3.604802521294945e-11</v>
       </c>
       <c r="D27" t="n">
-        <v>4.391781838124397e-12</v>
+        <v>6.536575559484415e-11</v>
       </c>
       <c r="E27" t="n">
-        <v>1.901280194073739e-11</v>
+        <v>1.115764450031947e-11</v>
       </c>
       <c r="F27" t="n">
-        <v>3.591369604997756e-11</v>
+        <v>2.420830367122768e-11</v>
       </c>
       <c r="G27" t="n">
-        <v>4.844171496159069e-11</v>
+        <v>1.972605001946997e-11</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05228848971291243</v>
+        <v>3.560251832456456</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9996641379533389</v>
+        <v>0.1686169143259701</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01307212242822811</v>
+        <v>1.780125916228228</v>
       </c>
     </row>
     <row r="28">
@@ -1250,31 +1250,31 @@
         <v>4.3093</v>
       </c>
       <c r="B28" t="n">
-        <v>4.992222518983456e-11</v>
+        <v>6.625670369968343e-12</v>
       </c>
       <c r="C28" t="n">
-        <v>1.759873608780484e-11</v>
+        <v>1.028014466775082e-11</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.123430132172915e-13</v>
+        <v>6.210053629065211e-12</v>
       </c>
       <c r="E28" t="n">
-        <v>1.914403239029637e-11</v>
+        <v>3.459706892786161e-12</v>
       </c>
       <c r="F28" t="n">
-        <v>3.503811811877242e-11</v>
+        <v>1.661742291219311e-11</v>
       </c>
       <c r="G28" t="n">
-        <v>4.823760032092731e-11</v>
+        <v>1.63661657501289e-11</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1291814305342552</v>
+        <v>7.354920418166759</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9980017043732612</v>
+        <v>0.0252871173373966</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0322953576335638</v>
+        <v>3.677460209083379</v>
       </c>
     </row>
     <row r="29">
@@ -1282,31 +1282,31 @@
         <v>4.31</v>
       </c>
       <c r="B29" t="n">
-        <v>5.46086073746477e-11</v>
+        <v>3.342136734706867e-11</v>
       </c>
       <c r="C29" t="n">
-        <v>2.71106239684707e-11</v>
+        <v>7.708254226469984e-12</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.130695596448804e-12</v>
+        <v>-3.12558539777362e-11</v>
       </c>
       <c r="E29" t="n">
-        <v>2.108690226419084e-11</v>
+        <v>1.036638654772711e-11</v>
       </c>
       <c r="F29" t="n">
-        <v>3.578126579240708e-11</v>
+        <v>1.55631524634169e-11</v>
       </c>
       <c r="G29" t="n">
-        <v>5.097921557499849e-11</v>
+        <v>2.522734081372715e-11</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0633173593553039</v>
+        <v>1.39069674967643</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9995093163544129</v>
+        <v>0.707716906713916</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01582933983882598</v>
+        <v>0.4635655832254768</v>
       </c>
     </row>
     <row r="30">
@@ -1314,31 +1314,31 @@
         <v>4.3112</v>
       </c>
       <c r="B30" t="n">
-        <v>5.590846306422144e-11</v>
+        <v>1.570388552011442e-11</v>
       </c>
       <c r="C30" t="n">
-        <v>2.46928705764418e-11</v>
+        <v>2.607724773955893e-11</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.777303846986027e-11</v>
+        <v>-2.536103722330372e-13</v>
       </c>
       <c r="E30" t="n">
-        <v>2.183121576480838e-11</v>
+        <v>4.978679977083609e-12</v>
       </c>
       <c r="F30" t="n">
-        <v>3.38389596557756e-11</v>
+        <v>1.477480655478194e-11</v>
       </c>
       <c r="G30" t="n">
-        <v>4.883419619957537e-11</v>
+        <v>1.586731291445745e-11</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03933414922665256</v>
+        <v>5.169118876249784</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9998091201855709</v>
+        <v>0.1598241095634062</v>
       </c>
       <c r="J30" t="n">
-        <v>0.009833537306663139</v>
+        <v>1.723039625416595</v>
       </c>
     </row>
     <row r="31">
@@ -1346,31 +1346,31 @@
         <v>4.3131</v>
       </c>
       <c r="B31" t="n">
-        <v>4.744257799196047e-11</v>
+        <v>2.586584955829694e-11</v>
       </c>
       <c r="C31" t="n">
-        <v>2.86452822653262e-11</v>
+        <v>2.316943536345235e-11</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.10787193215112e-12</v>
+        <v>-2.540398645349798e-11</v>
       </c>
       <c r="E31" t="n">
-        <v>1.846119791033876e-11</v>
+        <v>7.76564183464594e-12</v>
       </c>
       <c r="F31" t="n">
-        <v>3.190666582171037e-11</v>
+        <v>1.541271933415285e-11</v>
       </c>
       <c r="G31" t="n">
-        <v>4.831399673235542e-11</v>
+        <v>2.117571779212924e-11</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1609115195908484</v>
+        <v>2.265075758886461</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9969319083765552</v>
+        <v>0.687134576192316</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0402278798977121</v>
+        <v>0.5662689397216152</v>
       </c>
     </row>
     <row r="32">
@@ -1378,31 +1378,31 @@
         <v>4.3151</v>
       </c>
       <c r="B32" t="n">
-        <v>4.297953954983831e-11</v>
+        <v>1.708869988764845e-11</v>
       </c>
       <c r="C32" t="n">
-        <v>1.823178268037476e-11</v>
+        <v>-9.198961663711376e-12</v>
       </c>
       <c r="D32" t="n">
-        <v>5.008230735227225e-12</v>
+        <v>-6.010106083768177e-12</v>
       </c>
       <c r="E32" t="n">
-        <v>1.658434276627854e-11</v>
+        <v>7.090177195094879e-12</v>
       </c>
       <c r="F32" t="n">
-        <v>2.994659606703355e-11</v>
+        <v>1.203393587143386e-11</v>
       </c>
       <c r="G32" t="n">
-        <v>3.766235120506034e-11</v>
+        <v>1.086055121057983e-11</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3576306954604237</v>
+        <v>0.7120509525870938</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9857964792893968</v>
+        <v>0.8703658495227855</v>
       </c>
       <c r="J32" t="n">
-        <v>0.08940767386510592</v>
+        <v>0.2373503175290313</v>
       </c>
     </row>
     <row r="33">
@@ -1410,31 +1410,31 @@
         <v>4.3192</v>
       </c>
       <c r="B33" t="n">
-        <v>4.108639225933714e-11</v>
+        <v>2.160948545290775e-11</v>
       </c>
       <c r="C33" t="n">
-        <v>3.874396763852666e-12</v>
+        <v>8.685496722999488e-12</v>
       </c>
       <c r="D33" t="n">
-        <v>4.599250310921646e-12</v>
+        <v>-2.475267458127428e-11</v>
       </c>
       <c r="E33" t="n">
-        <v>1.63774444883445e-11</v>
+        <v>7.812985055637941e-12</v>
       </c>
       <c r="F33" t="n">
-        <v>2.820700712250516e-11</v>
+        <v>1.039746944027749e-11</v>
       </c>
       <c r="G33" t="n">
-        <v>4.099242430236139e-11</v>
+        <v>1.837734377848744e-11</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3535010295371405</v>
+        <v>4.301448738444589</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9861037803435697</v>
+        <v>0.3667437204213219</v>
       </c>
       <c r="J33" t="n">
-        <v>0.08837525738428512</v>
+        <v>1.075362184611147</v>
       </c>
     </row>
     <row r="34">
@@ -1442,31 +1442,31 @@
         <v>4.3212</v>
       </c>
       <c r="B34" t="n">
-        <v>4.255641232097448e-11</v>
+        <v>2.211473538708775e-11</v>
       </c>
       <c r="C34" t="n">
-        <v>1.843465079899455e-11</v>
+        <v>-1.316375453532566e-11</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.387010827557732e-11</v>
+        <v>5.859019257985247e-12</v>
       </c>
       <c r="E34" t="n">
-        <v>1.652022774537217e-11</v>
+        <v>6.890750164730733e-12</v>
       </c>
       <c r="F34" t="n">
-        <v>2.587722577982708e-11</v>
+        <v>1.363241906101039e-11</v>
       </c>
       <c r="G34" t="n">
-        <v>3.490298915203926e-11</v>
+        <v>1.369594161087483e-11</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1821382496157528</v>
+        <v>2.332562449072739</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9960965774005649</v>
+        <v>0.5063115238908538</v>
       </c>
       <c r="J34" t="n">
-        <v>0.04553456240393821</v>
+        <v>0.7775208163575797</v>
       </c>
     </row>
     <row r="35">
@@ -1474,31 +1474,31 @@
         <v>4.323</v>
       </c>
       <c r="B35" t="n">
-        <v>4.241399135506614e-11</v>
+        <v>1.608490814029004e-11</v>
       </c>
       <c r="C35" t="n">
-        <v>1.721190047381459e-11</v>
+        <v>-7.775803634458682e-12</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.172572232564737e-11</v>
+        <v>5.774454510092811e-11</v>
       </c>
       <c r="E35" t="n">
-        <v>1.663580472270593e-11</v>
+        <v>4.146813245167727e-12</v>
       </c>
       <c r="F35" t="n">
-        <v>2.618403345172688e-11</v>
+        <v>1.880442201238599e-11</v>
       </c>
       <c r="G35" t="n">
-        <v>3.842330119536186e-11</v>
+        <v>2.023699873098864e-11</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1193964140629046</v>
+        <v>8.300750189300798</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9982874183515535</v>
+        <v>0.04018831579027722</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02984910351572614</v>
+        <v>2.766916729766933</v>
       </c>
     </row>
     <row r="36">
@@ -1506,31 +1506,31 @@
         <v>4.3252</v>
       </c>
       <c r="B36" t="n">
-        <v>3.759311740856842e-11</v>
+        <v>3.078478985621461e-11</v>
       </c>
       <c r="C36" t="n">
-        <v>1.918369503255505e-11</v>
+        <v>2.47461166248053e-11</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.663969914395589e-11</v>
+        <v>-4.546346562231514e-11</v>
       </c>
       <c r="E36" t="n">
-        <v>1.508624689379806e-11</v>
+        <v>6.247099382883894e-12</v>
       </c>
       <c r="F36" t="n">
-        <v>2.149050661079893e-11</v>
+        <v>6.606023413065048e-12</v>
       </c>
       <c r="G36" t="n">
-        <v>3.386551546960111e-11</v>
+        <v>1.2976064626412e-11</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1638736981260748</v>
+        <v>8.335191494045365</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9968210283163428</v>
+        <v>0.08004324675553194</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0409684245315187</v>
+        <v>2.083797873511341</v>
       </c>
     </row>
     <row r="37">
@@ -1538,31 +1538,31 @@
         <v>4.3271</v>
       </c>
       <c r="B37" t="n">
-        <v>2.761282316148918e-11</v>
+        <v>4.4247284479601e-11</v>
       </c>
       <c r="C37" t="n">
-        <v>9.663484714916245e-12</v>
+        <v>-4.560878688004254e-12</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.479359280977375e-11</v>
+        <v>-2.018328727640433e-11</v>
       </c>
       <c r="E37" t="n">
-        <v>1.128005806713107e-11</v>
+        <v>8.012084250389868e-12</v>
       </c>
       <c r="F37" t="n">
-        <v>1.625685010911372e-11</v>
+        <v>1.800505795880964e-11</v>
       </c>
       <c r="G37" t="n">
-        <v>2.525631654129468e-11</v>
+        <v>1.839454953642517e-11</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2588190998216727</v>
+        <v>2.741675301283963</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9923151050149708</v>
+        <v>0.433191408919619</v>
       </c>
       <c r="J37" t="n">
-        <v>0.06470477495541818</v>
+        <v>0.9138917670946544</v>
       </c>
     </row>
     <row r="38">
@@ -1570,31 +1570,31 @@
         <v>4.3291</v>
       </c>
       <c r="B38" t="n">
-        <v>1.840770358136263e-11</v>
+        <v>2.858586958545972e-11</v>
       </c>
       <c r="C38" t="n">
-        <v>1.168726405239029e-11</v>
+        <v>9.943711314152744e-12</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.329547597328704e-12</v>
+        <v>8.009312939140488e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>7.401780303134696e-12</v>
+        <v>4.185821930304731e-12</v>
       </c>
       <c r="F38" t="n">
-        <v>1.09781343641702e-11</v>
+        <v>8.038192773689253e-12</v>
       </c>
       <c r="G38" t="n">
-        <v>1.77075796397482e-11</v>
+        <v>8.827786613009433e-12</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1202437552071524</v>
+        <v>24.70423940905552</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9982635122247031</v>
+        <v>5.768897063354735e-05</v>
       </c>
       <c r="J38" t="n">
-        <v>0.03006093880178809</v>
+        <v>6.176059852263879</v>
       </c>
     </row>
     <row r="39">
@@ -1602,31 +1602,31 @@
         <v>4.3301</v>
       </c>
       <c r="B39" t="n">
-        <v>2.869958300349628e-11</v>
+        <v>1.565186302901254e-11</v>
       </c>
       <c r="C39" t="n">
-        <v>1.636182800714968e-11</v>
+        <v>3.52750415013662e-11</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.240800088666645e-11</v>
+        <v>7.89865003433216e-12</v>
       </c>
       <c r="E39" t="n">
-        <v>1.137142358083443e-11</v>
+        <v>3.936161876872431e-12</v>
       </c>
       <c r="F39" t="n">
-        <v>1.746931918715433e-11</v>
+        <v>6.768521302150476e-12</v>
       </c>
       <c r="G39" t="n">
-        <v>2.617859230909835e-11</v>
+        <v>1.248544143125716e-11</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05234770890408883</v>
+        <v>18.34846117477609</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9996633833934661</v>
+        <v>0.001054833360285734</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01308692722602221</v>
+        <v>4.587115293694023</v>
       </c>
     </row>
     <row r="40">
@@ -1634,31 +1634,31 @@
         <v>4.3312</v>
       </c>
       <c r="B40" t="n">
-        <v>1.47596358861447e-11</v>
+        <v>3.305460225025222e-11</v>
       </c>
       <c r="C40" t="n">
-        <v>6.780803973429188e-12</v>
+        <v>1.241721466097611e-11</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.775852342651524e-12</v>
+        <v>4.450176768676551e-12</v>
       </c>
       <c r="E40" t="n">
-        <v>5.839208637691405e-12</v>
+        <v>3.911671408308606e-12</v>
       </c>
       <c r="F40" t="n">
-        <v>8.194304378040705e-12</v>
+        <v>7.681855269861354e-12</v>
       </c>
       <c r="G40" t="n">
-        <v>1.226193151604243e-11</v>
+        <v>8.899013534643153e-12</v>
       </c>
       <c r="H40" t="n">
-        <v>0.06561070715575661</v>
+        <v>8.637436620583543</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9994735291506226</v>
+        <v>0.07082905684353509</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01640267678893915</v>
+        <v>2.159359155145886</v>
       </c>
     </row>
     <row r="41">
@@ -1666,31 +1666,31 @@
         <v>4.3332</v>
       </c>
       <c r="B41" t="n">
-        <v>1.034650849158309e-11</v>
+        <v>3.581051303134131e-11</v>
       </c>
       <c r="C41" t="n">
-        <v>1.561006914159927e-13</v>
+        <v>1.498772216485145e-11</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.087585345914936e-12</v>
+        <v>-2.867919077439447e-11</v>
       </c>
       <c r="E41" t="n">
-        <v>4.166026281355466e-12</v>
+        <v>3.193730373651197e-12</v>
       </c>
       <c r="F41" t="n">
-        <v>6.846448400733169e-12</v>
+        <v>5.325355823324679e-12</v>
       </c>
       <c r="G41" t="n">
-        <v>1.010856784563165e-11</v>
+        <v>6.338877448745984e-12</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6529614447407477</v>
+        <v>20.81923326821193</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9570005042879779</v>
+        <v>0.0003438998523346403</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1632403611851869</v>
+        <v>5.204808317052983</v>
       </c>
     </row>
     <row r="42">
@@ -1698,31 +1698,31 @@
         <v>4.3352</v>
       </c>
       <c r="B42" t="n">
-        <v>5.055430331336489e-12</v>
+        <v>4.485062019549792e-11</v>
       </c>
       <c r="C42" t="n">
-        <v>1.950867130224348e-12</v>
+        <v>9.218541659707964e-12</v>
       </c>
       <c r="D42" t="n">
-        <v>4.71655385855985e-12</v>
+        <v>-2.168969649919398e-11</v>
       </c>
       <c r="E42" t="n">
-        <v>1.997180274435579e-12</v>
+        <v>2.941259754412676e-12</v>
       </c>
       <c r="F42" t="n">
-        <v>4.65705015755941e-12</v>
+        <v>5.616820586509146e-12</v>
       </c>
       <c r="G42" t="n">
-        <v>4.657698570675357e-12</v>
+        <v>6.118544946646303e-12</v>
       </c>
       <c r="H42" t="n">
-        <v>1.119118539720279</v>
+        <v>14.65779899669506</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8912270946510019</v>
+        <v>0.00546621879489214</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2797796349300699</v>
+        <v>3.664449749173765</v>
       </c>
     </row>
     <row r="43">
@@ -1730,31 +1730,31 @@
         <v>4.34</v>
       </c>
       <c r="B43" t="n">
-        <v>4.417044396219114e-12</v>
+        <v>3.29709099744939e-11</v>
       </c>
       <c r="C43" t="n">
-        <v>6.595889594935032e-12</v>
+        <v>1.520028262099653e-11</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.307811374795517e-12</v>
+        <v>7.485886678454735e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>1.767413239289503e-12</v>
+        <v>2.299447053302904e-12</v>
       </c>
       <c r="F43" t="n">
-        <v>3.556740898533349e-12</v>
+        <v>4.161654258436542e-12</v>
       </c>
       <c r="G43" t="n">
-        <v>4.111173696701367e-12</v>
+        <v>5.149252256576251e-12</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8521111804246212</v>
+        <v>67.1497908204725</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9313284365556308</v>
+        <v>9.065026288615873e-14</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2130277951061553</v>
+        <v>16.78744770511813</v>
       </c>
     </row>
     <row r="44">
@@ -1762,31 +1762,31 @@
         <v>4.3449</v>
       </c>
       <c r="B44" t="n">
-        <v>3.749428352599899e-12</v>
+        <v>3.791232091301361e-11</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.044645784678787e-12</v>
+        <v>-1.0446409140775e-12</v>
       </c>
       <c r="D44" t="n">
-        <v>-3.944108967226327e-13</v>
+        <v>9.639985098680175e-12</v>
       </c>
       <c r="E44" t="n">
-        <v>1.668089597056732e-12</v>
+        <v>3.038334713327353e-12</v>
       </c>
       <c r="F44" t="n">
-        <v>3.485754633172722e-12</v>
+        <v>6.582783140105446e-12</v>
       </c>
       <c r="G44" t="n">
-        <v>4.4118929107632e-12</v>
+        <v>6.156791110014108e-12</v>
       </c>
       <c r="H44" t="n">
-        <v>2.106651096996598</v>
+        <v>16.65288499188521</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7161505627597229</v>
+        <v>0.0008329374368558086</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5266627742491495</v>
+        <v>5.550961663961737</v>
       </c>
     </row>
     <row r="45">
@@ -1794,31 +1794,31 @@
         <v>4.35</v>
       </c>
       <c r="B45" t="n">
-        <v>2.449641298654603e-12</v>
+        <v>5.396866943703217e-11</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.070279250094583e-12</v>
+        <v>3.708897465967911e-11</v>
       </c>
       <c r="D45" t="n">
-        <v>5.097778273418867e-12</v>
+        <v>-2.435665912393839e-11</v>
       </c>
       <c r="E45" t="n">
-        <v>1.017096458664375e-12</v>
+        <v>2.560360605768525e-12</v>
       </c>
       <c r="F45" t="n">
-        <v>4.23745153207679e-12</v>
+        <v>4.37443613487837e-12</v>
       </c>
       <c r="G45" t="n">
-        <v>4.325538950722721e-12</v>
+        <v>5.62833385561992e-12</v>
       </c>
       <c r="H45" t="n">
-        <v>2.444984940676524</v>
+        <v>79.07265405883295</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6545134329451894</v>
+        <v>2.73801442215794e-16</v>
       </c>
       <c r="J45" t="n">
-        <v>0.6112462351691309</v>
+        <v>19.76816351470824</v>
       </c>
     </row>
     <row r="46">
@@ -1826,31 +1826,31 @@
         <v>4.3701</v>
       </c>
       <c r="B46" t="n">
-        <v>5.245203370170943e-12</v>
+        <v>4.772631542582634e-11</v>
       </c>
       <c r="C46" t="n">
-        <v>-9.074120992364094e-13</v>
+        <v>-2.022506528319402e-12</v>
       </c>
       <c r="D46" t="n">
-        <v>-9.648375868465552e-13</v>
+        <v>-3.395379995717069e-11</v>
       </c>
       <c r="E46" t="n">
-        <v>2.056398671894794e-12</v>
+        <v>2.493528294219171e-12</v>
       </c>
       <c r="F46" t="n">
-        <v>3.773663747384102e-12</v>
+        <v>4.571365491838165e-12</v>
       </c>
       <c r="G46" t="n">
-        <v>4.112653886122458e-12</v>
+        <v>5.31898745371007e-12</v>
       </c>
       <c r="H46" t="n">
-        <v>0.207074975595974</v>
+        <v>50.31008586606284</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9949959920363203</v>
+        <v>3.110706949201828e-10</v>
       </c>
       <c r="J46" t="n">
-        <v>0.05176874389899349</v>
+        <v>12.57752146651571</v>
       </c>
     </row>
     <row r="47">
@@ -1858,31 +1858,31 @@
         <v>4.3901</v>
       </c>
       <c r="B47" t="n">
-        <v>7.488095147237477e-12</v>
+        <v>4.79026475751909e-11</v>
       </c>
       <c r="C47" t="n">
-        <v>-2.044505889692593e-13</v>
+        <v>1.356177934955708e-11</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.99549422190633e-12</v>
+        <v>-5.769210299801163e-12</v>
       </c>
       <c r="E47" t="n">
-        <v>2.960449148589562e-12</v>
+        <v>2.67363839413683e-12</v>
       </c>
       <c r="F47" t="n">
-        <v>5.073469302068355e-12</v>
+        <v>4.581643454166879e-12</v>
       </c>
       <c r="G47" t="n">
-        <v>5.954191896307483e-12</v>
+        <v>5.62111929260907e-12</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6290104862030067</v>
+        <v>66.01127393826728</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9597860448996645</v>
+        <v>1.575378473228735e-13</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1572526215507517</v>
+        <v>16.50281848456682</v>
       </c>
     </row>
     <row r="48">
@@ -1890,31 +1890,31 @@
         <v>4.41</v>
       </c>
       <c r="B48" t="n">
-        <v>8.622707525833013e-12</v>
+        <v>4.21851755465272e-11</v>
       </c>
       <c r="C48" t="n">
-        <v>6.264140715584818e-12</v>
+        <v>3.435003852738947e-11</v>
       </c>
       <c r="D48" t="n">
-        <v>-3.334688343017331e-12</v>
+        <v>-2.803674639135795e-11</v>
       </c>
       <c r="E48" t="n">
-        <v>3.458286833178771e-12</v>
+        <v>2.791355274496655e-12</v>
       </c>
       <c r="F48" t="n">
-        <v>5.16166304084228e-12</v>
+        <v>4.175673922150257e-12</v>
       </c>
       <c r="G48" t="n">
-        <v>7.717521997425576e-12</v>
+        <v>5.666274375592205e-12</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4253924807234379</v>
+        <v>53.82673899139717</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9803456534451385</v>
+        <v>5.721164077169139e-11</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1063481201808595</v>
+        <v>13.45668474784929</v>
       </c>
     </row>
     <row r="49">
@@ -1922,31 +1922,31 @@
         <v>4.4202</v>
       </c>
       <c r="B49" t="n">
-        <v>1.401452270511741e-11</v>
+        <v>3.115609809943901e-11</v>
       </c>
       <c r="C49" t="n">
-        <v>-4.098476123955545e-13</v>
+        <v>5.304146445201775e-12</v>
       </c>
       <c r="D49" t="n">
-        <v>-3.657471855655521e-12</v>
+        <v>-1.699518107463374e-12</v>
       </c>
       <c r="E49" t="n">
-        <v>5.522379574614865e-12</v>
+        <v>3.032128570229531e-12</v>
       </c>
       <c r="F49" t="n">
-        <v>1.07027072961023e-11</v>
+        <v>5.76312996403719e-12</v>
       </c>
       <c r="G49" t="n">
-        <v>1.245361149888909e-11</v>
+        <v>6.31921940239485e-12</v>
       </c>
       <c r="H49" t="n">
-        <v>0.329390329329307</v>
+        <v>20.83354558424384</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9878387795738485</v>
+        <v>0.0003416617926881219</v>
       </c>
       <c r="J49" t="n">
-        <v>0.08234758233232675</v>
+        <v>5.208386396060959</v>
       </c>
     </row>
     <row r="50">
@@ -1954,31 +1954,31 @@
         <v>4.4302</v>
       </c>
       <c r="B50" t="n">
-        <v>1.612520175161495e-11</v>
+        <v>5.108572579583938e-11</v>
       </c>
       <c r="C50" t="n">
-        <v>4.667866896008466e-12</v>
+        <v>2.805037241112344e-11</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.900175822059283e-13</v>
+        <v>-1.333250829687823e-11</v>
       </c>
       <c r="E50" t="n">
-        <v>6.203161353334004e-12</v>
+        <v>3.56726731374983e-12</v>
       </c>
       <c r="F50" t="n">
-        <v>1.194012739843084e-11</v>
+        <v>6.256011136077336e-12</v>
       </c>
       <c r="G50" t="n">
-        <v>1.54753600289937e-11</v>
+        <v>7.522628471633623e-12</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2580449744616028</v>
+        <v>40.91785469631672</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9923590571333317</v>
+        <v>2.795173410991255e-08</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0645112436154007</v>
+        <v>10.22946367407918</v>
       </c>
     </row>
     <row r="51">
@@ -1986,31 +1986,31 @@
         <v>4.44</v>
       </c>
       <c r="B51" t="n">
-        <v>2.785359027539527e-11</v>
+        <v>4.401725771362088e-11</v>
       </c>
       <c r="C51" t="n">
-        <v>1.949584231691153e-12</v>
+        <v>-1.352852972511371e-13</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.149393351595314e-12</v>
+        <v>-3.085526240300674e-11</v>
       </c>
       <c r="E51" t="n">
-        <v>1.11261540521295e-11</v>
+        <v>7.27199794353131e-12</v>
       </c>
       <c r="F51" t="n">
-        <v>1.686571954176151e-11</v>
+        <v>1.579955425525872e-11</v>
       </c>
       <c r="G51" t="n">
-        <v>2.307445922254081e-11</v>
+        <v>1.65984601559519e-11</v>
       </c>
       <c r="H51" t="n">
-        <v>0.135209943116076</v>
+        <v>1.973050451668934</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9978152138674808</v>
+        <v>0.5780189837211258</v>
       </c>
       <c r="J51" t="n">
-        <v>0.03380248577901901</v>
+        <v>0.6576834838896448</v>
       </c>
     </row>
     <row r="52">
@@ -2018,31 +2018,31 @@
         <v>4.4499</v>
       </c>
       <c r="B52" t="n">
-        <v>4.853902417765914e-11</v>
+        <v>2.683333115536044e-11</v>
       </c>
       <c r="C52" t="n">
-        <v>3.829148279986666e-13</v>
+        <v>-2.297120296064184e-11</v>
       </c>
       <c r="D52" t="n">
-        <v>5.438004824398889e-12</v>
+        <v>-7.170110506432604e-12</v>
       </c>
       <c r="E52" t="n">
-        <v>1.855588970221479e-11</v>
+        <v>8.619914336677753e-12</v>
       </c>
       <c r="F52" t="n">
-        <v>3.526981529527786e-11</v>
+        <v>1.430975567824324e-11</v>
       </c>
       <c r="G52" t="n">
-        <v>4.29736259734958e-11</v>
+        <v>1.676303586387846e-11</v>
       </c>
       <c r="H52" t="n">
-        <v>0.05654597734833277</v>
+        <v>31.92666884023908</v>
       </c>
       <c r="I52" t="n">
-        <v>0.999607773231826</v>
+        <v>1.980264365739879e-06</v>
       </c>
       <c r="J52" t="n">
-        <v>0.01413649433708319</v>
+        <v>7.98166721005977</v>
       </c>
     </row>
     <row r="53">
@@ -2050,5375 +2050,5205 @@
         <v>4.455</v>
       </c>
       <c r="B53" t="n">
-        <v>1.12020067748146e-10</v>
+        <v>1.005430228070397e-11</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.186918996563921e-11</v>
+        <v>-4.016885324137102e-12</v>
       </c>
       <c r="D53" t="n">
-        <v>1.027199269722415e-12</v>
+        <v>1.442084165473532e-12</v>
       </c>
       <c r="E53" t="n">
-        <v>4.366735375948225e-11</v>
+        <v>9.062825598001257e-12</v>
       </c>
       <c r="F53" t="n">
-        <v>8.133807786808366e-11</v>
+        <v>3.620771498952425e-12</v>
       </c>
       <c r="G53" t="n">
-        <v>8.980495680643812e-11</v>
+        <v>1.299877099817088e-12</v>
       </c>
       <c r="H53" t="n">
-        <v>0.02337579526506894</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.9999322264150561</v>
-      </c>
+        <v>9.126231636233657e-32</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>0.005843948816267234</v>
+        <v>-4.563115818116828e-32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.4601</v>
+        <v>4.47</v>
       </c>
       <c r="B54" t="n">
-        <v>1.655553420560734e-10</v>
+        <v>5.528084365950678e-12</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.734617838989303e-11</v>
+        <v>1.38202109148767e-12</v>
       </c>
       <c r="D54" t="n">
-        <v>9.004077091295164e-12</v>
+        <v>-2.245784273667461e-12</v>
       </c>
       <c r="E54" t="n">
-        <v>6.409046351569876e-11</v>
+        <v>4.982947905171043e-12</v>
       </c>
       <c r="F54" t="n">
-        <v>1.190037612122754e-10</v>
+        <v>1.245736976292761e-12</v>
       </c>
       <c r="G54" t="n">
-        <v>1.402788824240892e-10</v>
+        <v>2.024322586475735e-12</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01890569720735168</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.9999556023884185</v>
-      </c>
+        <v>6.976176117907869e-32</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>0.004726424301837921</v>
+        <v>-3.488088058953935e-32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.47</v>
+        <v>4.478</v>
       </c>
       <c r="B55" t="n">
-        <v>1.856708233140129e-10</v>
+        <v>1.787255149385307e-11</v>
       </c>
       <c r="C55" t="n">
-        <v>-3.213484867407272e-11</v>
+        <v>-2.23406893673163e-12</v>
       </c>
       <c r="D55" t="n">
-        <v>2.026332295928018e-11</v>
+        <v>-5.166284416191907e-12</v>
       </c>
       <c r="E55" t="n">
-        <v>7.206329174659443e-11</v>
+        <v>1.611010016840469e-11</v>
       </c>
       <c r="F55" t="n">
-        <v>1.387811384782794e-10</v>
+        <v>2.013762521050582e-12</v>
       </c>
       <c r="G55" t="n">
-        <v>1.556809027456411e-10</v>
+        <v>4.656825829929482e-12</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0407047038817628</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.999795679659115</v>
-      </c>
+        <v>3.329545576142599e-32</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>0.0101761759704407</v>
+        <v>-1.664772788071299e-32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.478</v>
+        <v>4.4861</v>
       </c>
       <c r="B56" t="n">
-        <v>1.333753191726109e-10</v>
+        <v>1.849405727919309e-11</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.420611264227639e-11</v>
+        <v>1.484954682765919e-11</v>
       </c>
       <c r="D56" t="n">
-        <v>2.498013677961703e-12</v>
+        <v>5.343632638073606e-12</v>
       </c>
       <c r="E56" t="n">
-        <v>5.201785407760682e-11</v>
+        <v>7.982248318899398e-12</v>
       </c>
       <c r="F56" t="n">
-        <v>9.271694381423744e-11</v>
+        <v>2.490271213585811e-11</v>
       </c>
       <c r="G56" t="n">
-        <v>1.107910387257201e-10</v>
+        <v>2.624983287971276e-11</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0485418256921015</v>
+        <v>0.7290746714916789</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9997101841115219</v>
+        <v>0.39318328798564</v>
       </c>
       <c r="J56" t="n">
-        <v>0.01213545642302538</v>
+        <v>0.7290746714916789</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.4861</v>
+        <v>4.4882</v>
       </c>
       <c r="B57" t="n">
-        <v>6.737061973905157e-11</v>
+        <v>6.883312789333273e-12</v>
       </c>
       <c r="C57" t="n">
-        <v>-4.610341357267463e-12</v>
+        <v>6.69380296889776e-12</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.723147717348265e-12</v>
+        <v>-1.656519685856783e-11</v>
       </c>
       <c r="E57" t="n">
-        <v>2.606860943833236e-11</v>
+        <v>3.626169431375937e-12</v>
       </c>
       <c r="F57" t="n">
-        <v>4.748525696044504e-11</v>
+        <v>5.162296877035495e-12</v>
       </c>
       <c r="G57" t="n">
-        <v>5.572473352893094e-11</v>
+        <v>1.160987664868384e-11</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02866065479894186</v>
+        <v>8.638907626247935</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9998982965573718</v>
+        <v>0.03449776637329918</v>
       </c>
       <c r="J57" t="n">
-        <v>0.007165163699735465</v>
+        <v>2.879635875415978</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.4882</v>
+        <v>4.4901</v>
       </c>
       <c r="B58" t="n">
-        <v>4.89296833557298e-11</v>
+        <v>1.993838579570595e-11</v>
       </c>
       <c r="C58" t="n">
-        <v>5.82900058116953e-12</v>
+        <v>4.042968791131012e-11</v>
       </c>
       <c r="D58" t="n">
-        <v>4.28356295661256e-12</v>
+        <v>8.874286354830985e-12</v>
       </c>
       <c r="E58" t="n">
-        <v>1.858214860325613e-11</v>
+        <v>7.348688193565174e-12</v>
       </c>
       <c r="F58" t="n">
-        <v>3.465457469280607e-11</v>
+        <v>1.280242351559769e-11</v>
       </c>
       <c r="G58" t="n">
-        <v>4.297767712624438e-11</v>
+        <v>1.503561495017383e-11</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02219948093780934</v>
+        <v>0.5703565851726284</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9999388518339781</v>
+        <v>0.7518801877049317</v>
       </c>
       <c r="J58" t="n">
-        <v>0.005549870234452334</v>
+        <v>0.2851782925863142</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.4901</v>
+        <v>4.4922</v>
       </c>
       <c r="B59" t="n">
-        <v>7.079167548940111e-11</v>
+        <v>4.317118242559529e-11</v>
       </c>
       <c r="C59" t="n">
-        <v>-8.61609426807982e-12</v>
+        <v>5.165639812812876e-12</v>
       </c>
       <c r="D59" t="n">
-        <v>6.306836815244937e-12</v>
+        <v>-4.206345478678265e-11</v>
       </c>
       <c r="E59" t="n">
-        <v>2.739878409988653e-11</v>
+        <v>7.564856641267556e-12</v>
       </c>
       <c r="F59" t="n">
-        <v>5.259108037347533e-11</v>
+        <v>1.665759668806875e-11</v>
       </c>
       <c r="G59" t="n">
-        <v>6.005700044055126e-11</v>
+        <v>1.699775810627401e-11</v>
       </c>
       <c r="H59" t="n">
-        <v>0.04866071445068419</v>
+        <v>15.39097672102095</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9997087742554385</v>
+        <v>0.001511257238271152</v>
       </c>
       <c r="J59" t="n">
-        <v>0.01216517861267105</v>
+        <v>5.130325573673649</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.4922</v>
+        <v>4.495</v>
       </c>
       <c r="B60" t="n">
-        <v>2.549066485677063e-11</v>
+        <v>4.749330440456104e-11</v>
       </c>
       <c r="C60" t="n">
-        <v>-9.257125587559172e-13</v>
+        <v>3.926925157744095e-11</v>
       </c>
       <c r="D60" t="n">
-        <v>-2.041762523636569e-12</v>
+        <v>-4.894688950446253e-11</v>
       </c>
       <c r="E60" t="n">
-        <v>1.01230731549188e-11</v>
+        <v>4.223128569642936e-12</v>
       </c>
       <c r="F60" t="n">
-        <v>1.682317211558725e-11</v>
+        <v>5.312638279075092e-12</v>
       </c>
       <c r="G60" t="n">
-        <v>2.177120741295915e-11</v>
+        <v>8.31664040506736e-12</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4259621657218802</v>
+        <v>15.90063756502143</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9802966506742289</v>
+        <v>0.003155432738834093</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1064905414304701</v>
+        <v>3.975159391255358</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.495</v>
+        <v>4.5</v>
       </c>
       <c r="B61" t="n">
-        <v>1.926200113235098e-11</v>
+        <v>5.010352398030946e-11</v>
       </c>
       <c r="C61" t="n">
-        <v>2.905945500903995e-12</v>
+        <v>1.374361499027975e-11</v>
       </c>
       <c r="D61" t="n">
-        <v>5.84119894636315e-13</v>
+        <v>-9.976416888082134e-12</v>
       </c>
       <c r="E61" t="n">
-        <v>7.388447207505312e-12</v>
+        <v>3.47088596036056e-12</v>
       </c>
       <c r="F61" t="n">
-        <v>1.379068141659189e-11</v>
+        <v>6.672203957383747e-12</v>
       </c>
       <c r="G61" t="n">
-        <v>1.815686610436912e-11</v>
+        <v>7.799042097541278e-12</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1312126024894613</v>
+        <v>20.73782689347699</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9979397580898797</v>
+        <v>0.0003569086444917979</v>
       </c>
       <c r="J61" t="n">
-        <v>0.03280315062236532</v>
+        <v>5.184456723369248</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.5</v>
+        <v>4.5102</v>
       </c>
       <c r="B62" t="n">
-        <v>1.107684104335288e-11</v>
+        <v>6.858521109746137e-11</v>
       </c>
       <c r="C62" t="n">
-        <v>3.66033148247113e-13</v>
+        <v>3.825442952433799e-11</v>
       </c>
       <c r="D62" t="n">
-        <v>5.685685904206558e-12</v>
+        <v>-2.716527339783913e-11</v>
       </c>
       <c r="E62" t="n">
-        <v>4.192396809601524e-12</v>
+        <v>3.300019585169535e-12</v>
       </c>
       <c r="F62" t="n">
-        <v>8.812293214446358e-12</v>
+        <v>5.701874629133976e-12</v>
       </c>
       <c r="G62" t="n">
-        <v>9.827914908413541e-12</v>
+        <v>7.123844804021099e-12</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2530718232664871</v>
+        <v>32.20763014463601</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9926386759474947</v>
+        <v>1.734981981279642e-06</v>
       </c>
       <c r="J62" t="n">
-        <v>0.06326795581662177</v>
+        <v>8.051907536159003</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.5102</v>
+        <v>4.5122</v>
       </c>
       <c r="B63" t="n">
-        <v>7.606455827683825e-12</v>
+        <v>4.925833875916976e-11</v>
       </c>
       <c r="C63" t="n">
-        <v>7.25964058928757e-12</v>
+        <v>1.337251637059659e-11</v>
       </c>
       <c r="D63" t="n">
-        <v>-3.628129696960894e-12</v>
+        <v>-2.406958491069662e-11</v>
       </c>
       <c r="E63" t="n">
-        <v>3.160107379835016e-12</v>
+        <v>4.641195876913618e-12</v>
       </c>
       <c r="F63" t="n">
-        <v>4.617299620710982e-12</v>
+        <v>8.840413855646201e-12</v>
       </c>
       <c r="G63" t="n">
-        <v>7.131446090062322e-12</v>
+        <v>1.066726722499203e-11</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6821286152345047</v>
+        <v>13.70737256853641</v>
       </c>
       <c r="I63" t="n">
-        <v>0.95351440219803</v>
+        <v>0.008290016890814586</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1705321538086262</v>
+        <v>3.426843142134103</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.5122</v>
+        <v>4.5151</v>
       </c>
       <c r="B64" t="n">
-        <v>1.300450843207035e-11</v>
+        <v>3.839236871146976e-11</v>
       </c>
       <c r="C64" t="n">
-        <v>2.315153934863254e-12</v>
+        <v>-1.088160291551375e-11</v>
       </c>
       <c r="D64" t="n">
-        <v>-8.351200074806871e-12</v>
+        <v>-2.582566023011228e-12</v>
       </c>
       <c r="E64" t="n">
-        <v>5.325368704390033e-12</v>
+        <v>9.135967056916613e-12</v>
       </c>
       <c r="F64" t="n">
-        <v>7.764109035742191e-12</v>
+        <v>1.819903472252796e-11</v>
       </c>
       <c r="G64" t="n">
-        <v>1.137628352953609e-11</v>
+        <v>1.936427169488272e-11</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2119088773895753</v>
+        <v>1.981637692292634</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9947680037072277</v>
+        <v>0.7391363924223817</v>
       </c>
       <c r="J64" t="n">
-        <v>0.05297721934739382</v>
+        <v>0.4954094230731585</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.5151</v>
+        <v>4.5201</v>
       </c>
       <c r="B65" t="n">
-        <v>3.471964367091955e-11</v>
+        <v>1.675868699448651e-11</v>
       </c>
       <c r="C65" t="n">
-        <v>1.735160939127681e-11</v>
+        <v>1.637997759290774e-11</v>
       </c>
       <c r="D65" t="n">
-        <v>-8.686531047229614e-12</v>
+        <v>-9.714040588172801e-12</v>
       </c>
       <c r="E65" t="n">
-        <v>1.348854027618666e-11</v>
+        <v>6.459757085439086e-12</v>
       </c>
       <c r="F65" t="n">
-        <v>2.153593857333664e-11</v>
+        <v>7.366053675179634e-12</v>
       </c>
       <c r="G65" t="n">
-        <v>3.055845205762748e-11</v>
+        <v>1.354337473902154e-11</v>
       </c>
       <c r="H65" t="n">
-        <v>0.06503482620790627</v>
+        <v>7.567869292358661</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9994826314798795</v>
+        <v>0.1087535146907702</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01625870655197657</v>
+        <v>1.891967323089665</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.5201</v>
+        <v>4.5252</v>
       </c>
       <c r="B66" t="n">
-        <v>5.373652588407475e-11</v>
+        <v>2.5863310108944e-11</v>
       </c>
       <c r="C66" t="n">
-        <v>1.772220524104579e-11</v>
+        <v>-1.646992820491357e-11</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.010859647661989e-12</v>
+        <v>-2.954710748562677e-11</v>
       </c>
       <c r="E66" t="n">
-        <v>2.090028629029641e-11</v>
+        <v>1.343545322886541e-11</v>
       </c>
       <c r="F66" t="n">
-        <v>3.5552726960588e-11</v>
+        <v>2.558147551726219e-11</v>
       </c>
       <c r="G66" t="n">
-        <v>4.892195841021936e-11</v>
+        <v>5.700653484922942e-11</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2903026043844575</v>
+        <v>0.1116465540690814</v>
       </c>
       <c r="I66" t="n">
-        <v>0.990431539580656</v>
+        <v>0.7382772883626243</v>
       </c>
       <c r="J66" t="n">
-        <v>0.07257565109611439</v>
+        <v>0.1116465540690814</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.5252</v>
+        <v>4.5294</v>
       </c>
       <c r="B67" t="n">
-        <v>9.864005487711937e-11</v>
+        <v>9.874833697643904e-12</v>
       </c>
       <c r="C67" t="n">
-        <v>2.755710586662194e-11</v>
+        <v>1.056856637331129e-11</v>
       </c>
       <c r="D67" t="n">
-        <v>1.502995917595226e-12</v>
+        <v>-1.866768727280289e-12</v>
       </c>
       <c r="E67" t="n">
-        <v>3.788385164244658e-11</v>
+        <v>4.741095192665029e-12</v>
       </c>
       <c r="F67" t="n">
-        <v>6.65342354379249e-11</v>
+        <v>1.21919333603743e-11</v>
       </c>
       <c r="G67" t="n">
-        <v>8.949747762919564e-11</v>
+        <v>1.798897377945299e-11</v>
       </c>
       <c r="H67" t="n">
-        <v>0.09807263758380974</v>
+        <v>2.088043167232277</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9988363099351815</v>
+        <v>0.554335496981774</v>
       </c>
       <c r="J67" t="n">
-        <v>0.02451815939595244</v>
+        <v>0.6960143890774257</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.5294</v>
+        <v>4.5351</v>
       </c>
       <c r="B68" t="n">
-        <v>1.116624372477531e-10</v>
+        <v>1.583367889056947e-11</v>
       </c>
       <c r="C68" t="n">
-        <v>9.636845204751971e-12</v>
+        <v>-4.692893584400623e-12</v>
       </c>
       <c r="D68" t="n">
-        <v>8.611739984103171e-12</v>
+        <v>-1.634539521361394e-11</v>
       </c>
       <c r="E68" t="n">
-        <v>4.286349754856123e-11</v>
+        <v>1.217405020060989e-11</v>
       </c>
       <c r="F68" t="n">
-        <v>7.813050239140634e-11</v>
+        <v>2.271285515501606e-11</v>
       </c>
       <c r="G68" t="n">
-        <v>1.016557083895898e-10</v>
+        <v>3.224436670645502e-11</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0838463088647045</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.9991454034096064</v>
-      </c>
+        <v>1.387722957426993e-30</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>0.02096157721617612</v>
+        <v>-1.387722957426993e-30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.5351</v>
+        <v>4.58</v>
       </c>
       <c r="B69" t="n">
-        <v>1.703714949283563e-10</v>
+        <v>4.546853603691332e-11</v>
       </c>
       <c r="C69" t="n">
-        <v>4.318843759866189e-11</v>
+        <v>1.136713400922833e-11</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.673491738955428e-11</v>
+        <v>-1.847159276499603e-11</v>
       </c>
       <c r="E69" t="n">
-        <v>6.691607381179724e-11</v>
+        <v>4.098478454733494e-11</v>
       </c>
       <c r="F69" t="n">
-        <v>1.074217929539835e-10</v>
+        <v>1.024619613683374e-11</v>
       </c>
       <c r="G69" t="n">
-        <v>1.514739908855189e-10</v>
+        <v>1.665006872235481e-11</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1191538655488448</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.9982942321343451</v>
-      </c>
+        <v>5.939738158051174e-31</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>0.02978846638721119</v>
+        <v>-2.969869079025587e-31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.5402</v>
+        <v>4.5901</v>
       </c>
       <c r="B70" t="n">
-        <v>1.953168201223424e-10</v>
+        <v>8.266326113641762e-12</v>
       </c>
       <c r="C70" t="n">
-        <v>2.760068629109811e-11</v>
+        <v>-1.139401133422074e-11</v>
       </c>
       <c r="D70" t="n">
-        <v>1.244355142862054e-11</v>
+        <v>3.157435567480404e-11</v>
       </c>
       <c r="E70" t="n">
-        <v>7.542210569358626e-11</v>
+        <v>3.440590305264894e-12</v>
       </c>
       <c r="F70" t="n">
-        <v>1.357495829501378e-10</v>
+        <v>6.216376142377728e-12</v>
       </c>
       <c r="G70" t="n">
-        <v>1.809022818333695e-10</v>
+        <v>1.44767727643319e-11</v>
       </c>
       <c r="H70" t="n">
-        <v>0.09584782570987493</v>
+        <v>14.08428153349889</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9988876872495308</v>
+        <v>0.0008742529858060706</v>
       </c>
       <c r="J70" t="n">
-        <v>0.02396195642746873</v>
+        <v>7.042140766749445</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.5498</v>
+        <v>4.6003</v>
       </c>
       <c r="B71" t="n">
-        <v>2.974399453352384e-10</v>
+        <v>3.97199113038543e-11</v>
       </c>
       <c r="C71" t="n">
-        <v>1.30815333497879e-11</v>
+        <v>8.255073678519892e-12</v>
       </c>
       <c r="D71" t="n">
-        <v>1.346834440498032e-11</v>
+        <v>-5.715444864151479e-11</v>
       </c>
       <c r="E71" t="n">
-        <v>1.136406624652277e-10</v>
+        <v>2.170429580523657e-11</v>
       </c>
       <c r="F71" t="n">
-        <v>2.163442668417871e-10</v>
+        <v>1.57552436387587e-11</v>
       </c>
       <c r="G71" t="n">
-        <v>2.608357811032695e-10</v>
+        <v>4.56572749673153e-11</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0423940344685463</v>
+        <v>0.1111706043678265</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9997784928391499</v>
+        <v>0.7388153351071511</v>
       </c>
       <c r="J71" t="n">
-        <v>0.01059850861713658</v>
+        <v>0.1111706043678265</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.5602</v>
+        <v>4.61</v>
       </c>
       <c r="B72" t="n">
-        <v>4.661876691182542e-10</v>
+        <v>6.365108702537867e-11</v>
       </c>
       <c r="C72" t="n">
-        <v>-3.222392041916866e-11</v>
+        <v>3.677628068396827e-11</v>
       </c>
       <c r="D72" t="n">
-        <v>1.80420241029097e-11</v>
+        <v>-7.813711968905236e-11</v>
       </c>
       <c r="E72" t="n">
-        <v>1.799219309349398e-10</v>
+        <v>4.078441218739618e-10</v>
       </c>
       <c r="F72" t="n">
-        <v>3.358004489796936e-10</v>
+        <v>1.348419553126344e-09</v>
       </c>
       <c r="G72" t="n">
-        <v>3.956331811292126e-10</v>
+        <v>7.264566025390269e-10</v>
       </c>
       <c r="H72" t="n">
-        <v>0.02223990053769518</v>
+        <v>1.730973467860169e-28</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9999386297868896</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.005559975134423795</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.5701</v>
+        <v>4.6202</v>
       </c>
       <c r="B73" t="n">
-        <v>4.289342494440113e-10</v>
+        <v>2.830040397232906e-11</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.781712435574315e-11</v>
+        <v>-3.493975314520582e-11</v>
       </c>
       <c r="D73" t="n">
-        <v>4.059287978313203e-11</v>
+        <v>-5.963905948054818e-11</v>
       </c>
       <c r="E73" t="n">
-        <v>1.649678308200802e-10</v>
+        <v>2.458812340886132e-11</v>
       </c>
       <c r="F73" t="n">
-        <v>3.159169747138443e-10</v>
+        <v>3.749916544245443e-11</v>
       </c>
       <c r="G73" t="n">
-        <v>3.754181802765945e-10</v>
+        <v>5.97854607128745e-11</v>
       </c>
       <c r="H73" t="n">
-        <v>0.05194085981801153</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.9996685506142781</v>
-      </c>
+        <v>2.014489789950999e-28</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>0.01298521495450288</v>
+        <v>-2.014489789950999e-28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.58</v>
+        <v>4.6299</v>
       </c>
       <c r="B74" t="n">
-        <v>2.071894651848417e-10</v>
+        <v>4.779038492487743e-11</v>
       </c>
       <c r="C74" t="n">
-        <v>-2.760588383831951e-11</v>
+        <v>9.955598224772631e-11</v>
       </c>
       <c r="D74" t="n">
-        <v>2.332331619050973e-11</v>
+        <v>3.556517665616083e-11</v>
       </c>
       <c r="E74" t="n">
-        <v>8.169927504451621e-11</v>
+        <v>4.526379632604264e-11</v>
       </c>
       <c r="F74" t="n">
-        <v>1.44650537943757e-10</v>
+        <v>1.572724294219859e-10</v>
       </c>
       <c r="G74" t="n">
-        <v>1.840070436341501e-10</v>
+        <v>1.118507706693384e-10</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1454737137376191</v>
+        <v>0.222104059033357</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9974795178962828</v>
+        <v>0.6374413864042798</v>
       </c>
       <c r="J74" t="n">
-        <v>0.03636842843440476</v>
+        <v>0.222104059033357</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.5901</v>
+        <v>4.6352</v>
       </c>
       <c r="B75" t="n">
-        <v>1.067755353618402e-10</v>
+        <v>4.730492799312759e-11</v>
       </c>
       <c r="C75" t="n">
-        <v>1.215326829296393e-11</v>
+        <v>-3.663727355124915e-11</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.383287548108277e-11</v>
+        <v>-1.987813196228281e-11</v>
       </c>
       <c r="E75" t="n">
-        <v>4.110531804757653e-11</v>
+        <v>1.70112692591004e-11</v>
       </c>
       <c r="F75" t="n">
-        <v>7.202677780496724e-11</v>
+        <v>3.101210129565246e-11</v>
       </c>
       <c r="G75" t="n">
-        <v>9.147282363564866e-11</v>
+        <v>3.91682060869984e-11</v>
       </c>
       <c r="H75" t="n">
-        <v>0.01637064208028838</v>
+        <v>9.841730098068103</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9999666825039272</v>
+        <v>0.0431797999142765</v>
       </c>
       <c r="J75" t="n">
-        <v>0.004092660520072094</v>
+        <v>2.460432524517026</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.6003</v>
+        <v>4.64</v>
       </c>
       <c r="B76" t="n">
-        <v>8.098229463504962e-11</v>
+        <v>3.498564079070925e-11</v>
       </c>
       <c r="C76" t="n">
-        <v>1.615360987150408e-11</v>
+        <v>3.270443980966823e-12</v>
       </c>
       <c r="D76" t="n">
-        <v>-3.692725600700918e-12</v>
+        <v>-1.782520637549845e-11</v>
       </c>
       <c r="E76" t="n">
-        <v>3.124244642775356e-11</v>
+        <v>1.242647831798495e-11</v>
       </c>
       <c r="F76" t="n">
-        <v>5.4750108215841e-11</v>
+        <v>1.915773893002191e-11</v>
       </c>
       <c r="G76" t="n">
-        <v>7.135211439513577e-11</v>
+        <v>3.022996709013763e-11</v>
       </c>
       <c r="H76" t="n">
-        <v>0.09904478004239882</v>
+        <v>7.306144736801627</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9988135084568938</v>
+        <v>0.1205676054139213</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0247611950105997</v>
+        <v>1.826536184200407</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.61</v>
+        <v>4.65</v>
       </c>
       <c r="B77" t="n">
-        <v>1.962317948027266e-10</v>
+        <v>1.244585467407081e-10</v>
       </c>
       <c r="C77" t="n">
-        <v>3.472908731757275e-11</v>
+        <v>9.618121450648482e-11</v>
       </c>
       <c r="D77" t="n">
-        <v>1.468987673351552e-12</v>
+        <v>-1.307552857328956e-10</v>
       </c>
       <c r="E77" t="n">
-        <v>7.435425355544206e-11</v>
+        <v>1.482853107249615e-11</v>
       </c>
       <c r="F77" t="n">
-        <v>1.362529450953143e-10</v>
+        <v>1.954994628453629e-11</v>
       </c>
       <c r="G77" t="n">
-        <v>1.68571160609081e-10</v>
+        <v>3.115622157312002e-11</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01518913905313198</v>
+        <v>4.606911564975299</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9999713068537506</v>
+        <v>0.3300580750057149</v>
       </c>
       <c r="J77" t="n">
-        <v>0.003797284763282994</v>
+        <v>1.151727891243825</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.6202</v>
+        <v>4.6701</v>
       </c>
       <c r="B78" t="n">
-        <v>1.996539750778386e-10</v>
+        <v>1.481289815076588e-10</v>
       </c>
       <c r="C78" t="n">
-        <v>8.417204994017635e-11</v>
+        <v>4.382102995247123e-11</v>
       </c>
       <c r="D78" t="n">
-        <v>-3.184747663805519e-11</v>
+        <v>-9.55637374944473e-11</v>
       </c>
       <c r="E78" t="n">
-        <v>7.781303237236684e-11</v>
+        <v>9.671612463969865e-12</v>
       </c>
       <c r="F78" t="n">
-        <v>1.258545823275839e-10</v>
+        <v>1.708327490203303e-11</v>
       </c>
       <c r="G78" t="n">
-        <v>1.805862853654206e-10</v>
+        <v>2.075465904768912e-11</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1073438092420904</v>
+        <v>9.073694588951122</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9986101777989855</v>
+        <v>0.05928363171493336</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0268359523105226</v>
+        <v>2.268423647237781</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.6299</v>
+        <v>4.6802</v>
       </c>
       <c r="B79" t="n">
-        <v>1.611060041215719e-10</v>
+        <v>1.157279552574267e-10</v>
       </c>
       <c r="C79" t="n">
-        <v>7.353071865499559e-11</v>
+        <v>5.573264506446365e-11</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.806060096342175e-11</v>
+        <v>-7.055025336675629e-11</v>
       </c>
       <c r="E79" t="n">
-        <v>6.23986004637638e-11</v>
+        <v>6.566688607598226e-12</v>
       </c>
       <c r="F79" t="n">
-        <v>1.052356373719013e-10</v>
+        <v>1.089941631941378e-11</v>
       </c>
       <c r="G79" t="n">
-        <v>1.509943146248868e-10</v>
+        <v>1.354937065623633e-11</v>
       </c>
       <c r="H79" t="n">
-        <v>0.04048053905061028</v>
+        <v>21.45829978874738</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9997979088126785</v>
+        <v>0.0002568360261845212</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01012013476265257</v>
+        <v>5.364574947186844</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.6352</v>
+        <v>4.6899</v>
       </c>
       <c r="B80" t="n">
-        <v>9.120642327127688e-11</v>
+        <v>1.211641358131595e-10</v>
       </c>
       <c r="C80" t="n">
-        <v>2.125131534193884e-11</v>
+        <v>6.596857573100859e-11</v>
       </c>
       <c r="D80" t="n">
-        <v>-9.33380202352974e-12</v>
+        <v>-5.20731677415926e-11</v>
       </c>
       <c r="E80" t="n">
-        <v>3.494413459275557e-11</v>
+        <v>5.780345920971954e-12</v>
       </c>
       <c r="F80" t="n">
-        <v>6.098117464293038e-11</v>
+        <v>9.62690348619039e-12</v>
       </c>
       <c r="G80" t="n">
-        <v>8.025327380315274e-11</v>
+        <v>1.232666312216639e-11</v>
       </c>
       <c r="H80" t="n">
-        <v>0.006241999860460402</v>
+        <v>47.40723972376989</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9999951398013804</v>
+        <v>1.254322719368999e-09</v>
       </c>
       <c r="J80" t="n">
-        <v>0.001560499965115101</v>
+        <v>11.85180993094247</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.64</v>
+        <v>4.71</v>
       </c>
       <c r="B81" t="n">
-        <v>5.477910987080567e-11</v>
+        <v>1.46380754766653e-10</v>
       </c>
       <c r="C81" t="n">
-        <v>9.243936618125905e-12</v>
+        <v>6.581170138036663e-11</v>
       </c>
       <c r="D81" t="n">
-        <v>9.14630308638125e-12</v>
+        <v>-4.059979370507647e-11</v>
       </c>
       <c r="E81" t="n">
-        <v>2.089676545118542e-11</v>
+        <v>5.037132123656516e-12</v>
       </c>
       <c r="F81" t="n">
-        <v>3.816235587768896e-11</v>
+        <v>8.592898609620562e-12</v>
       </c>
       <c r="G81" t="n">
-        <v>4.850214993916191e-11</v>
+        <v>1.118224982270905e-11</v>
       </c>
       <c r="H81" t="n">
-        <v>0.07630204172448821</v>
+        <v>36.45562517619185</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9992904972748281</v>
+        <v>2.331800849957576e-07</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01907551043112205</v>
+        <v>9.113906294047963</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.65</v>
+        <v>4.73</v>
       </c>
       <c r="B82" t="n">
-        <v>5.248948124347844e-11</v>
+        <v>1.50014641418649e-10</v>
       </c>
       <c r="C82" t="n">
-        <v>4.285053950345905e-12</v>
+        <v>5.517178354168139e-11</v>
       </c>
       <c r="D82" t="n">
-        <v>7.496573151651654e-12</v>
+        <v>-6.038474445864888e-11</v>
       </c>
       <c r="E82" t="n">
-        <v>1.992089435494906e-11</v>
+        <v>5.743428806450785e-12</v>
       </c>
       <c r="F82" t="n">
-        <v>4.08677583202126e-11</v>
+        <v>9.66140480907771e-12</v>
       </c>
       <c r="G82" t="n">
-        <v>4.85784959175882e-11</v>
+        <v>1.232696303491336e-11</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1286776749098997</v>
+        <v>34.6829966936686</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9980169279135735</v>
+        <v>5.396569456815918e-07</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03216941872747492</v>
+        <v>8.67074917341715</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.6701</v>
+        <v>4.75</v>
       </c>
       <c r="B83" t="n">
-        <v>3.022719513973948e-11</v>
+        <v>1.700406251306373e-10</v>
       </c>
       <c r="C83" t="n">
-        <v>1.598736872412975e-11</v>
+        <v>4.028844433829588e-11</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.579990950454321e-12</v>
+        <v>-4.880646763066914e-11</v>
       </c>
       <c r="E83" t="n">
-        <v>1.146215545102198e-11</v>
+        <v>7.484054703000106e-12</v>
       </c>
       <c r="F83" t="n">
-        <v>2.020264770731733e-11</v>
+        <v>1.424724786471806e-11</v>
       </c>
       <c r="G83" t="n">
-        <v>2.65533651109435e-11</v>
+        <v>1.617699394737418e-11</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0880799410429547</v>
+        <v>15.72193210900063</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9990582478733374</v>
+        <v>0.003415913722238865</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02201998526073868</v>
+        <v>3.930483027250157</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.6802</v>
+        <v>4.7552</v>
       </c>
       <c r="B84" t="n">
-        <v>1.816041834191681e-11</v>
+        <v>1.199865062125551e-10</v>
       </c>
       <c r="C84" t="n">
-        <v>-4.783564724132382e-13</v>
+        <v>1.086726700974366e-10</v>
       </c>
       <c r="D84" t="n">
-        <v>-2.953882692077816e-12</v>
+        <v>-8.585421499600118e-11</v>
       </c>
       <c r="E84" t="n">
-        <v>7.139656375076461e-12</v>
+        <v>9.875227684060812e-12</v>
       </c>
       <c r="F84" t="n">
-        <v>1.227683790831582e-11</v>
+        <v>1.490959473057959e-11</v>
       </c>
       <c r="G84" t="n">
-        <v>1.574834735440973e-11</v>
+        <v>2.008576613243593e-11</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1481685787978694</v>
+        <v>7.299715424865119</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9973876036196392</v>
+        <v>0.1208722480013459</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03704214469946736</v>
+        <v>1.82492885621628</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.6899</v>
+        <v>4.7589</v>
       </c>
       <c r="B85" t="n">
-        <v>1.297534330577548e-11</v>
+        <v>1.449475591807495e-10</v>
       </c>
       <c r="C85" t="n">
-        <v>1.195985565711652e-11</v>
+        <v>1.092599372720384e-10</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.178060957161835e-11</v>
+        <v>-7.295727912767281e-11</v>
       </c>
       <c r="E85" t="n">
-        <v>5.595987701956723e-12</v>
+        <v>1.078933685325605e-11</v>
       </c>
       <c r="F85" t="n">
-        <v>6.189860388585901e-12</v>
+        <v>1.732461884886178e-11</v>
       </c>
       <c r="G85" t="n">
-        <v>1.178273509207972e-11</v>
+        <v>2.260234160029781e-11</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4499249400944924</v>
+        <v>8.629610795677765</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9781891104064918</v>
+        <v>0.07105443536070266</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1124812350236231</v>
+        <v>2.157402698919441</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.71</v>
+        <v>4.77</v>
       </c>
       <c r="B86" t="n">
-        <v>1.309887479888748e-11</v>
+        <v>1.504050616852781e-10</v>
       </c>
       <c r="C86" t="n">
-        <v>-2.405636378705532e-12</v>
+        <v>3.24614261705741e-11</v>
       </c>
       <c r="D86" t="n">
-        <v>9.967739468934039e-13</v>
+        <v>-4.260347346151531e-11</v>
       </c>
       <c r="E86" t="n">
-        <v>5.121123394232089e-12</v>
+        <v>1.257043837842148e-11</v>
       </c>
       <c r="F86" t="n">
-        <v>1.023342838883363e-11</v>
+        <v>2.369700699188341e-11</v>
       </c>
       <c r="G86" t="n">
-        <v>1.14143166589516e-11</v>
+        <v>2.69607624682688e-11</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2189217873532794</v>
+        <v>3.295916364712852</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9944288987573096</v>
+        <v>0.5095795339354572</v>
       </c>
       <c r="J86" t="n">
-        <v>0.05473044683831985</v>
+        <v>0.8239790911782129</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.73</v>
+        <v>4.775</v>
       </c>
       <c r="B87" t="n">
-        <v>9.058254441187668e-12</v>
+        <v>1.002054945101218e-10</v>
       </c>
       <c r="C87" t="n">
-        <v>4.583389919433579e-12</v>
+        <v>9.694245942066556e-11</v>
       </c>
       <c r="D87" t="n">
-        <v>-3.54661062146867e-12</v>
+        <v>-1.340718738203734e-10</v>
       </c>
       <c r="E87" t="n">
-        <v>3.74239921948028e-12</v>
+        <v>1.195923074627466e-11</v>
       </c>
       <c r="F87" t="n">
-        <v>5.226783795315648e-12</v>
+        <v>1.177272232377499e-11</v>
       </c>
       <c r="G87" t="n">
-        <v>8.520191693203454e-12</v>
+        <v>2.31098495637864e-11</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4795273364073456</v>
+        <v>8.158417834197355</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9754631482661719</v>
+        <v>0.08594451265771588</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1198818341018364</v>
+        <v>2.039604458549339</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.75</v>
+        <v>4.7802</v>
       </c>
       <c r="B88" t="n">
-        <v>1.49356973979972e-11</v>
+        <v>2.139805620033354e-11</v>
       </c>
       <c r="C88" t="n">
-        <v>1.19469071107981e-11</v>
+        <v>6.424552616611144e-12</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.666199541942747e-12</v>
+        <v>-3.726869830230952e-11</v>
       </c>
       <c r="E88" t="n">
-        <v>6.026407278733267e-12</v>
+        <v>1.131760713587269e-11</v>
       </c>
       <c r="F88" t="n">
-        <v>8.409589919377351e-12</v>
+        <v>5.900799990845062e-12</v>
       </c>
       <c r="G88" t="n">
-        <v>1.296608975525323e-11</v>
+        <v>2.32672471302368e-11</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3118475121376709</v>
+        <v>20.62558119713988</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9890365980365499</v>
+        <v>0.000375648534046259</v>
       </c>
       <c r="J88" t="n">
-        <v>0.07796187803441773</v>
+        <v>5.156395299284969</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.7552</v>
+        <v>4.7901</v>
       </c>
       <c r="B89" t="n">
-        <v>2.897498438649181e-11</v>
+        <v>7.972964231984418e-11</v>
       </c>
       <c r="C89" t="n">
-        <v>1.493303327366254e-12</v>
+        <v>4.236285619698243e-11</v>
       </c>
       <c r="D89" t="n">
-        <v>1.548840789767528e-11</v>
+        <v>2.037192865622418e-11</v>
       </c>
       <c r="E89" t="n">
-        <v>1.080241234283747e-11</v>
+        <v>2.053929789408093e-11</v>
       </c>
       <c r="F89" t="n">
-        <v>2.453552497639735e-11</v>
+        <v>3.602857939556612e-11</v>
       </c>
       <c r="G89" t="n">
-        <v>2.73709523317023e-11</v>
+        <v>4.426593313906896e-11</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1855566456941592</v>
+        <v>5.491637697721841</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9959532606568986</v>
+        <v>0.2404655111356347</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04638916142353981</v>
+        <v>1.37290942443046</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.7589</v>
+        <v>4.7999</v>
       </c>
       <c r="B90" t="n">
-        <v>3.155776014331131e-11</v>
+        <v>1.389161681704139e-10</v>
       </c>
       <c r="C90" t="n">
-        <v>5.660760479912311e-12</v>
+        <v>1.128323120560105e-10</v>
       </c>
       <c r="D90" t="n">
-        <v>7.001353895169522e-12</v>
+        <v>-1.037988076363877e-10</v>
       </c>
       <c r="E90" t="n">
-        <v>1.180293745550036e-11</v>
+        <v>1.928213885410352e-11</v>
       </c>
       <c r="F90" t="n">
-        <v>2.514809818348521e-11</v>
+        <v>3.002004290827628e-11</v>
       </c>
       <c r="G90" t="n">
-        <v>2.901081139232891e-11</v>
+        <v>3.85406253549504e-11</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1735151988696073</v>
+        <v>1.626655769560034</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9964473100260139</v>
+        <v>0.8039934815976129</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04337879971740183</v>
+        <v>0.4066639423900084</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.77</v>
+        <v>4.81</v>
       </c>
       <c r="B91" t="n">
-        <v>3.977050031790869e-11</v>
+        <v>1.680821334495433e-10</v>
       </c>
       <c r="C91" t="n">
-        <v>8.529574372201108e-12</v>
+        <v>6.170672489488106e-11</v>
       </c>
       <c r="D91" t="n">
-        <v>3.922439199369298e-12</v>
+        <v>-3.785196524603773e-11</v>
       </c>
       <c r="E91" t="n">
-        <v>1.517562242100822e-11</v>
+        <v>1.610515607226284e-11</v>
       </c>
       <c r="F91" t="n">
-        <v>3.073967950078071e-11</v>
+        <v>3.088048923390536e-11</v>
       </c>
       <c r="G91" t="n">
-        <v>3.926246645641954e-11</v>
+        <v>3.508812802743917e-11</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2207416586186712</v>
+        <v>4.660323544592746</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9943392932030481</v>
+        <v>0.3239581658688908</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05518541465466781</v>
+        <v>1.165080886148187</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.775</v>
+        <v>4.8122</v>
       </c>
       <c r="B92" t="n">
-        <v>5.00558471433259e-11</v>
+        <v>1.61581436896039e-10</v>
       </c>
       <c r="C92" t="n">
-        <v>1.063104922608691e-11</v>
+        <v>8.38233070408913e-11</v>
       </c>
       <c r="D92" t="n">
-        <v>-2.365808604374472e-12</v>
+        <v>-4.929945524874621e-11</v>
       </c>
       <c r="E92" t="n">
-        <v>1.931484879487499e-11</v>
+        <v>1.095140498284981e-11</v>
       </c>
       <c r="F92" t="n">
-        <v>3.297894936068553e-11</v>
+        <v>1.995704663969862e-11</v>
       </c>
       <c r="G92" t="n">
-        <v>4.342190444156283e-11</v>
+        <v>2.32005027976031e-11</v>
       </c>
       <c r="H92" t="n">
-        <v>0.08955572119141794</v>
+        <v>19.93228525862708</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9990269023983176</v>
+        <v>0.0005150070099122282</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02238893029785449</v>
+        <v>4.983071314656771</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.7802</v>
+        <v>4.8153</v>
       </c>
       <c r="B93" t="n">
-        <v>8.413739995611107e-11</v>
+        <v>1.762974242967178e-10</v>
       </c>
       <c r="C93" t="n">
-        <v>2.026547164848032e-11</v>
+        <v>8.063738786643567e-11</v>
       </c>
       <c r="D93" t="n">
-        <v>-9.994373758046712e-13</v>
+        <v>-4.007085716806766e-11</v>
       </c>
       <c r="E93" t="n">
-        <v>3.184700049963154e-11</v>
+        <v>8.816239754233059e-12</v>
       </c>
       <c r="F93" t="n">
-        <v>5.872202470465735e-11</v>
+        <v>1.650617741264951e-11</v>
       </c>
       <c r="G93" t="n">
-        <v>7.347371383660458e-11</v>
+        <v>1.969149305621256e-11</v>
       </c>
       <c r="H93" t="n">
-        <v>0.05045803438984018</v>
+        <v>23.85829965820861</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9996870508268608</v>
+        <v>8.527191645784667e-05</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01261450859746004</v>
+        <v>5.964574914552153</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.7901</v>
+        <v>4.8201</v>
       </c>
       <c r="B94" t="n">
-        <v>1.031378495712402e-10</v>
+        <v>1.346061335460188e-10</v>
       </c>
       <c r="C94" t="n">
-        <v>1.781493473294671e-11</v>
+        <v>5.674499438966686e-11</v>
       </c>
       <c r="D94" t="n">
-        <v>9.732224513153881e-12</v>
+        <v>-9.62297020042688e-12</v>
       </c>
       <c r="E94" t="n">
-        <v>3.926438126970763e-11</v>
+        <v>6.113451998006124e-12</v>
       </c>
       <c r="F94" t="n">
-        <v>7.351357848408629e-11</v>
+        <v>1.128336418389911e-11</v>
       </c>
       <c r="G94" t="n">
-        <v>9.382666440631944e-11</v>
+        <v>1.318528362019998e-11</v>
       </c>
       <c r="H94" t="n">
-        <v>0.08629826247110223</v>
+        <v>18.01169547861612</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9990954269030585</v>
+        <v>0.001227619877364176</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02157456561777556</v>
+        <v>4.502923869654029</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.7999</v>
+        <v>4.8299</v>
       </c>
       <c r="B95" t="n">
-        <v>9.794471897735104e-11</v>
+        <v>1.752052685866647e-10</v>
       </c>
       <c r="C95" t="n">
-        <v>1.564755115119568e-11</v>
+        <v>7.344098886589421e-11</v>
       </c>
       <c r="D95" t="n">
-        <v>8.056348566178822e-12</v>
+        <v>-4.40305895213632e-11</v>
       </c>
       <c r="E95" t="n">
-        <v>3.727481054651392e-11</v>
+        <v>5.741708872215598e-12</v>
       </c>
       <c r="F95" t="n">
-        <v>6.87926620886455e-11</v>
+        <v>1.002471079410734e-11</v>
       </c>
       <c r="G95" t="n">
-        <v>8.924427890693036e-11</v>
+        <v>1.259378501230652e-11</v>
       </c>
       <c r="H95" t="n">
-        <v>0.08218395381650037</v>
+        <v>28.84621454921844</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9991785008156541</v>
+        <v>8.400322857841599e-06</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02054598845412509</v>
+        <v>7.211553637304611</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.81</v>
+        <v>4.85</v>
       </c>
       <c r="B96" t="n">
-        <v>4.556079060992225e-11</v>
+        <v>1.965696061965737e-10</v>
       </c>
       <c r="C96" t="n">
-        <v>1.505248709179941e-11</v>
+        <v>6.729127275175214e-11</v>
       </c>
       <c r="D96" t="n">
-        <v>9.228325218294074e-12</v>
+        <v>-3.751371178613553e-11</v>
       </c>
       <c r="E96" t="n">
-        <v>1.685916155890495e-11</v>
+        <v>5.869131466660459e-12</v>
       </c>
       <c r="F96" t="n">
-        <v>3.382850661369927e-11</v>
+        <v>1.020703628532757e-11</v>
       </c>
       <c r="G96" t="n">
-        <v>4.115899671491334e-11</v>
+        <v>1.290048837138893e-11</v>
       </c>
       <c r="H96" t="n">
-        <v>0.04176727976066902</v>
+        <v>32.53220226667098</v>
       </c>
       <c r="I96" t="n">
-        <v>0.999784949117721</v>
+        <v>1.48907412142412e-06</v>
       </c>
       <c r="J96" t="n">
-        <v>0.01044181994016725</v>
+        <v>8.133050566667745</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.8122</v>
+        <v>4.8663</v>
       </c>
       <c r="B97" t="n">
-        <v>2.522922689411408e-11</v>
+        <v>1.930778446513698e-10</v>
       </c>
       <c r="C97" t="n">
-        <v>-6.509832258327095e-13</v>
+        <v>5.556935111428554e-11</v>
       </c>
       <c r="D97" t="n">
-        <v>1.173493359314204e-11</v>
+        <v>-2.817545470221939e-11</v>
       </c>
       <c r="E97" t="n">
-        <v>9.750893929929644e-12</v>
+        <v>6.216404527357829e-12</v>
       </c>
       <c r="F97" t="n">
-        <v>2.32747821665219e-11</v>
+        <v>1.136853803796883e-11</v>
       </c>
       <c r="G97" t="n">
-        <v>2.622530681967791e-11</v>
+        <v>1.386082355528838e-11</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4848938592097069</v>
+        <v>22.42917355756217</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9749548038151703</v>
+        <v>0.0001646059859654502</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1212234648024267</v>
+        <v>5.607293389390542</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.8153</v>
+        <v>4.8899</v>
       </c>
       <c r="B98" t="n">
-        <v>2.198517919287032e-11</v>
+        <v>2.126192660013033e-10</v>
       </c>
       <c r="C98" t="n">
-        <v>2.365831964328305e-12</v>
+        <v>8.85031571302491e-11</v>
       </c>
       <c r="D98" t="n">
-        <v>-5.814530712641645e-12</v>
+        <v>-5.646241556010688e-11</v>
       </c>
       <c r="E98" t="n">
-        <v>8.737707376395013e-12</v>
+        <v>6.561833346274301e-12</v>
       </c>
       <c r="F98" t="n">
-        <v>1.415361140423715e-11</v>
+        <v>1.150150260232635e-11</v>
       </c>
       <c r="G98" t="n">
-        <v>2.031115308496568e-11</v>
+        <v>1.464407185826267e-11</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3507755321219413</v>
+        <v>36.69712599262733</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9863049825868673</v>
+        <v>2.0795485099056e-07</v>
       </c>
       <c r="J98" t="n">
-        <v>0.08769388303048534</v>
+        <v>9.174281498156832</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.8201</v>
+        <v>4.8999</v>
       </c>
       <c r="B99" t="n">
-        <v>1.414395364362034e-11</v>
+        <v>1.806343313820501e-10</v>
       </c>
       <c r="C99" t="n">
-        <v>3.704831971880808e-13</v>
+        <v>6.046336672272053e-11</v>
       </c>
       <c r="D99" t="n">
-        <v>-2.13773468167634e-12</v>
+        <v>-3.814410929730639e-11</v>
       </c>
       <c r="E99" t="n">
-        <v>5.667222853632452e-12</v>
+        <v>8.543446619516106e-12</v>
       </c>
       <c r="F99" t="n">
-        <v>1.071248011816408e-11</v>
+        <v>1.608804551315105e-11</v>
       </c>
       <c r="G99" t="n">
-        <v>1.450778857827869e-11</v>
+        <v>1.842399048809443e-11</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6096446149148445</v>
+        <v>36.66881193543752</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9619859447966598</v>
+        <v>2.107654851667142e-07</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1524111537287111</v>
+        <v>9.167202983859381</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.8299</v>
+        <v>4.9101</v>
       </c>
       <c r="B100" t="n">
-        <v>1.112492419195483e-11</v>
+        <v>1.929652322797366e-10</v>
       </c>
       <c r="C100" t="n">
-        <v>4.442988101899711e-12</v>
+        <v>1.113020273374076e-10</v>
       </c>
       <c r="D100" t="n">
-        <v>4.081488604238435e-13</v>
+        <v>-7.28861311984393e-11</v>
       </c>
       <c r="E100" t="n">
-        <v>4.229546004154738e-12</v>
+        <v>9.178826990568628e-12</v>
       </c>
       <c r="F100" t="n">
-        <v>9.064694017297104e-12</v>
+        <v>1.722653996230293e-11</v>
       </c>
       <c r="G100" t="n">
-        <v>1.101651539914338e-11</v>
+        <v>2.006720101216447e-11</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4613718825699387</v>
+        <v>39.18684757085082</v>
       </c>
       <c r="I100" t="n">
-        <v>0.977150836444142</v>
+        <v>6.374009775455657e-08</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1153429706424847</v>
+        <v>9.796711892712704</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.85</v>
+        <v>4.92</v>
       </c>
       <c r="B101" t="n">
-        <v>1.145725547016984e-11</v>
+        <v>1.388752867288858e-10</v>
       </c>
       <c r="C101" t="n">
-        <v>-2.650515929808435e-13</v>
+        <v>1.341848387960408e-10</v>
       </c>
       <c r="D101" t="n">
-        <v>4.761671675084579e-12</v>
+        <v>-9.833204926474753e-11</v>
       </c>
       <c r="E101" t="n">
-        <v>4.463103418434184e-12</v>
+        <v>9.091191049725163e-12</v>
       </c>
       <c r="F101" t="n">
-        <v>1.104156993874817e-11</v>
+        <v>1.317948529471183e-11</v>
       </c>
       <c r="G101" t="n">
-        <v>1.179959318230542e-11</v>
+        <v>1.907573913002845e-11</v>
       </c>
       <c r="H101" t="n">
-        <v>0.574337836058167</v>
+        <v>63.09022405738236</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9658722029659372</v>
+        <v>6.49557625805038e-13</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1435844590145418</v>
+        <v>15.77255601434559</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.8663</v>
+        <v>4.9262</v>
       </c>
       <c r="B102" t="n">
-        <v>1.253860881312881e-11</v>
+        <v>1.509307988216402e-10</v>
       </c>
       <c r="C102" t="n">
-        <v>2.511695598259534e-12</v>
+        <v>8.475568953684863e-11</v>
       </c>
       <c r="D102" t="n">
-        <v>8.631202477706361e-12</v>
+        <v>-6.218603388157802e-11</v>
       </c>
       <c r="E102" t="n">
-        <v>4.810191145826861e-12</v>
+        <v>8.125904246147128e-12</v>
       </c>
       <c r="F102" t="n">
-        <v>1.323238710320026e-11</v>
+        <v>1.37203045278753e-11</v>
       </c>
       <c r="G102" t="n">
-        <v>1.472706048037094e-11</v>
+        <v>1.749554314719078e-11</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8658006395812186</v>
+        <v>95.78752475164376</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9294151757929908</v>
+        <v>7.749197686060155e-20</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2164501598953046</v>
+        <v>23.94688118791094</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.8899</v>
+        <v>4.9302</v>
       </c>
       <c r="B103" t="n">
-        <v>2.024674318855698e-11</v>
+        <v>1.626787757666574e-10</v>
       </c>
       <c r="C103" t="n">
-        <v>-2.213819212453898e-12</v>
+        <v>1.323412243090409e-10</v>
       </c>
       <c r="D103" t="n">
-        <v>9.97569880771331e-12</v>
+        <v>-7.574970235032954e-11</v>
       </c>
       <c r="E103" t="n">
-        <v>8.018791501686111e-12</v>
+        <v>1.012539272131147e-11</v>
       </c>
       <c r="F103" t="n">
-        <v>2.062586553596215e-11</v>
+        <v>1.715066294808807e-11</v>
       </c>
       <c r="G103" t="n">
-        <v>2.234392698078831e-11</v>
+        <v>2.219901013989844e-11</v>
       </c>
       <c r="H103" t="n">
-        <v>0.7376067868575252</v>
+        <v>55.15241108653602</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9466115398823769</v>
+        <v>3.018635406740643e-11</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1844016967143813</v>
+        <v>13.788102771634</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.8999</v>
+        <v>4.9369</v>
       </c>
       <c r="B104" t="n">
-        <v>3.129752760974442e-11</v>
+        <v>1.787169634678788e-10</v>
       </c>
       <c r="C104" t="n">
-        <v>6.533060974878924e-13</v>
+        <v>3.848717343890705e-11</v>
       </c>
       <c r="D104" t="n">
-        <v>8.021465319364419e-12</v>
+        <v>-4.96245080823824e-11</v>
       </c>
       <c r="E104" t="n">
-        <v>1.198721045349355e-11</v>
+        <v>1.042294201008649e-11</v>
       </c>
       <c r="F104" t="n">
-        <v>2.657341878932843e-11</v>
+        <v>2.268902451755835e-11</v>
       </c>
       <c r="G104" t="n">
-        <v>3.031276591920542e-11</v>
+        <v>2.357681777737655e-11</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3094756817567503</v>
+        <v>86.45230171537033</v>
       </c>
       <c r="I104" t="n">
-        <v>0.989194305263674</v>
+        <v>1.265868737178787e-18</v>
       </c>
       <c r="J104" t="n">
-        <v>0.07736892043918758</v>
+        <v>28.81743390512344</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.9101</v>
+        <v>4.9467</v>
       </c>
       <c r="B105" t="n">
-        <v>3.878966782090918e-11</v>
+        <v>1.663150961206721e-10</v>
       </c>
       <c r="C105" t="n">
-        <v>1.760254285681782e-12</v>
+        <v>3.998204866779416e-11</v>
       </c>
       <c r="D105" t="n">
-        <v>8.701794735366965e-12</v>
+        <v>5.511669900443084e-12</v>
       </c>
       <c r="E105" t="n">
-        <v>1.488462675826284e-11</v>
+        <v>9.412417264097485e-12</v>
       </c>
       <c r="F105" t="n">
-        <v>3.391083090871121e-11</v>
+        <v>1.929497464325241e-11</v>
       </c>
       <c r="G105" t="n">
-        <v>3.757853948994656e-11</v>
+        <v>2.338160727726897e-11</v>
       </c>
       <c r="H105" t="n">
-        <v>0.436514280777682</v>
+        <v>99.95524475315895</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9793796906225014</v>
+        <v>1.588981089572958e-21</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1091285701944205</v>
+        <v>33.31841491771965</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.92</v>
+        <v>4.9503</v>
       </c>
       <c r="B106" t="n">
-        <v>5.837851734947188e-11</v>
+        <v>1.943253389088157e-10</v>
       </c>
       <c r="C106" t="n">
-        <v>-6.279148103170234e-13</v>
+        <v>4.264763003269808e-11</v>
       </c>
       <c r="D106" t="n">
-        <v>1.327363855283117e-11</v>
+        <v>-4.355092590687197e-11</v>
       </c>
       <c r="E106" t="n">
-        <v>2.227533182164729e-11</v>
+        <v>1.149112935627489e-11</v>
       </c>
       <c r="F106" t="n">
-        <v>4.71855459669687e-11</v>
+        <v>2.383441746282268e-11</v>
       </c>
       <c r="G106" t="n">
-        <v>5.425065554120408e-11</v>
+        <v>2.895726844149961e-11</v>
       </c>
       <c r="H106" t="n">
-        <v>0.1619278282588321</v>
+        <v>47.46842603494694</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9968940754309454</v>
+        <v>2.762999748565936e-10</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04048195706470802</v>
+        <v>15.82280867831565</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.9262</v>
+        <v>4.9568</v>
       </c>
       <c r="B107" t="n">
-        <v>6.126859573052989e-11</v>
+        <v>1.832489863841307e-10</v>
       </c>
       <c r="C107" t="n">
-        <v>8.066592023012347e-13</v>
+        <v>-5.554196888639599e-11</v>
       </c>
       <c r="D107" t="n">
-        <v>2.568648586564709e-11</v>
+        <v>7.018675918488243e-11</v>
       </c>
       <c r="E107" t="n">
-        <v>2.336891884915935e-11</v>
+        <v>1.189199456707899e-11</v>
       </c>
       <c r="F107" t="n">
-        <v>5.431381747127615e-11</v>
+        <v>2.461193346311323e-11</v>
       </c>
       <c r="G107" t="n">
-        <v>6.123005973583873e-11</v>
+        <v>2.556724867919551e-11</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3421170136482692</v>
+        <v>89.19539279172311</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9869356291903565</v>
+        <v>3.261125325704557e-19</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0855292534120673</v>
+        <v>29.73179759724104</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.9302</v>
+        <v>4.9619</v>
       </c>
       <c r="B108" t="n">
-        <v>5.963519974729201e-11</v>
+        <v>1.953566086815306e-10</v>
       </c>
       <c r="C108" t="n">
-        <v>3.805246043364149e-12</v>
+        <v>1.38095337136924e-11</v>
       </c>
       <c r="D108" t="n">
-        <v>2.724803397828798e-11</v>
+        <v>-1.901387154880532e-11</v>
       </c>
       <c r="E108" t="n">
-        <v>2.288814580630127e-11</v>
+        <v>1.231114788194209e-11</v>
       </c>
       <c r="F108" t="n">
-        <v>5.662169157881624e-11</v>
+        <v>2.71588010270901e-11</v>
       </c>
       <c r="G108" t="n">
-        <v>6.325066957065382e-11</v>
+        <v>2.743351680190523e-11</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5529421561434815</v>
+        <v>65.87283128579551</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9681465797198658</v>
+        <v>3.263161901183093e-14</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1382355390358704</v>
+        <v>21.9576104285985</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.9369</v>
+        <v>4.9647</v>
       </c>
       <c r="B109" t="n">
-        <v>7.344787614490487e-11</v>
+        <v>1.704668446700419e-10</v>
       </c>
       <c r="C109" t="n">
-        <v>4.100971508696912e-12</v>
+        <v>-6.103998310292934e-11</v>
       </c>
       <c r="D109" t="n">
-        <v>2.695579500310425e-11</v>
+        <v>8.317301382010311e-11</v>
       </c>
       <c r="E109" t="n">
-        <v>2.795007218297627e-11</v>
+        <v>1.223077933489075e-11</v>
       </c>
       <c r="F109" t="n">
-        <v>6.428092380477542e-11</v>
+        <v>2.535042467585468e-11</v>
       </c>
       <c r="G109" t="n">
-        <v>7.324916743063896e-11</v>
+        <v>2.610178575675304e-11</v>
       </c>
       <c r="H109" t="n">
-        <v>0.3293809936537518</v>
+        <v>83.61577433945003</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9878394316003699</v>
+        <v>5.143435319422941e-18</v>
       </c>
       <c r="J109" t="n">
-        <v>0.08234524841343795</v>
+        <v>27.87192477981668</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.9467</v>
+        <v>4.9679</v>
       </c>
       <c r="B110" t="n">
-        <v>8.676535721409104e-11</v>
+        <v>1.935032540813914e-10</v>
       </c>
       <c r="C110" t="n">
-        <v>6.585188374854699e-12</v>
+        <v>-2.180207166512373e-11</v>
       </c>
       <c r="D110" t="n">
-        <v>3.394243847368613e-11</v>
+        <v>1.776289139613529e-11</v>
       </c>
       <c r="E110" t="n">
-        <v>3.276737710012301e-11</v>
+        <v>1.30284544964452e-11</v>
       </c>
       <c r="F110" t="n">
-        <v>7.460640568402932e-11</v>
+        <v>2.955062294556063e-11</v>
       </c>
       <c r="G110" t="n">
-        <v>8.499126098901948e-11</v>
+        <v>2.932075678866308e-11</v>
       </c>
       <c r="H110" t="n">
-        <v>0.2805402675480989</v>
+        <v>40.10479978819127</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9910354830582089</v>
+        <v>1.012376101056872e-08</v>
       </c>
       <c r="J110" t="n">
-        <v>0.07013506688702471</v>
+        <v>13.36826659606376</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.9503</v>
+        <v>4.97</v>
       </c>
       <c r="B111" t="n">
-        <v>9.074039188764664e-11</v>
+        <v>2.201614345874537e-10</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.148611292678935e-12</v>
+        <v>-2.360515241006318e-11</v>
       </c>
       <c r="D111" t="n">
-        <v>3.113593434263232e-11</v>
+        <v>3.829315754164935e-11</v>
       </c>
       <c r="E111" t="n">
-        <v>3.494869664321156e-11</v>
+        <v>1.60478380762193e-11</v>
       </c>
       <c r="F111" t="n">
-        <v>8.235616852426796e-11</v>
+        <v>3.520130643766737e-11</v>
       </c>
       <c r="G111" t="n">
-        <v>9.065496852729023e-11</v>
+        <v>3.643909092984903e-11</v>
       </c>
       <c r="H111" t="n">
-        <v>0.4194928898546577</v>
+        <v>79.48901609616564</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9808500778624584</v>
+        <v>3.95036401849491e-17</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1048732224636644</v>
+        <v>26.49633869872188</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.9568</v>
+        <v>4.9728</v>
       </c>
       <c r="B112" t="n">
-        <v>9.7763464588568e-11</v>
+        <v>1.385559005942627e-10</v>
       </c>
       <c r="C112" t="n">
-        <v>6.476994872311971e-12</v>
+        <v>7.612078131373771e-11</v>
       </c>
       <c r="D112" t="n">
-        <v>2.503294767671385e-11</v>
+        <v>-2.895438828810826e-11</v>
       </c>
       <c r="E112" t="n">
-        <v>3.722313919501566e-11</v>
+        <v>8.53496362314942e-12</v>
       </c>
       <c r="F112" t="n">
-        <v>8.389411648948774e-11</v>
+        <v>1.484369380635422e-11</v>
       </c>
       <c r="G112" t="n">
-        <v>9.503371484953711e-11</v>
+        <v>1.875195170176614e-11</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3285768695261314</v>
+        <v>84.28305324401374</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9878955356600394</v>
+        <v>2.15309423557045e-17</v>
       </c>
       <c r="J112" t="n">
-        <v>0.08214421738153284</v>
+        <v>21.07076331100344</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.9619</v>
+        <v>4.9746</v>
       </c>
       <c r="B113" t="n">
-        <v>9.569436963037778e-11</v>
+        <v>1.733832573008221e-10</v>
       </c>
       <c r="C113" t="n">
-        <v>3.244174158800737e-13</v>
+        <v>8.96399734080706e-12</v>
       </c>
       <c r="D113" t="n">
-        <v>4.196596406179305e-11</v>
+        <v>-7.219586454025695e-12</v>
       </c>
       <c r="E113" t="n">
-        <v>3.649937375423244e-11</v>
+        <v>1.264402417612123e-11</v>
       </c>
       <c r="F113" t="n">
-        <v>8.506382805216064e-11</v>
+        <v>2.811628404126591e-11</v>
       </c>
       <c r="G113" t="n">
-        <v>9.570801460236138e-11</v>
+        <v>2.84267159305921e-11</v>
       </c>
       <c r="H113" t="n">
-        <v>0.3437436407255265</v>
+        <v>53.85047259863473</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9868181482543918</v>
+        <v>1.207548513101307e-11</v>
       </c>
       <c r="J113" t="n">
-        <v>0.08593591018138164</v>
+        <v>17.95015753287824</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.9647</v>
+        <v>4.9847</v>
       </c>
       <c r="B114" t="n">
-        <v>1.003896190928743e-10</v>
+        <v>1.173528080714345e-10</v>
       </c>
       <c r="C114" t="n">
-        <v>7.675548794878636e-12</v>
+        <v>1.525560830104114e-10</v>
       </c>
       <c r="D114" t="n">
-        <v>2.654586074382906e-11</v>
+        <v>-1.079050614330236e-10</v>
       </c>
       <c r="E114" t="n">
-        <v>3.802553297890404e-11</v>
+        <v>7.192105869656019e-12</v>
       </c>
       <c r="F114" t="n">
-        <v>8.384858437590752e-11</v>
+        <v>8.324355284741237e-12</v>
       </c>
       <c r="G114" t="n">
-        <v>9.568922452728094e-11</v>
+        <v>1.637214110043973e-11</v>
       </c>
       <c r="H114" t="n">
-        <v>0.2560140899762324</v>
+        <v>137.0836294751086</v>
       </c>
       <c r="I114" t="n">
-        <v>0.992473818240874</v>
+        <v>1.188267173091525e-28</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06400352249405811</v>
+        <v>34.27090736877715</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.9679</v>
+        <v>4.9901</v>
       </c>
       <c r="B115" t="n">
-        <v>1.005083746691196e-10</v>
+        <v>1.530516480066134e-10</v>
       </c>
       <c r="C115" t="n">
-        <v>-4.54176223434863e-14</v>
+        <v>1.901310381931929e-10</v>
       </c>
       <c r="D115" t="n">
-        <v>3.057598023996076e-11</v>
+        <v>-1.230404513032204e-10</v>
       </c>
       <c r="E115" t="n">
-        <v>3.844577368119221e-11</v>
+        <v>9.991323958630871e-12</v>
       </c>
       <c r="F115" t="n">
-        <v>8.490705901368252e-11</v>
+        <v>1.223341733036787e-11</v>
       </c>
       <c r="G115" t="n">
-        <v>9.773824353266605e-11</v>
+        <v>2.124241872732008e-11</v>
       </c>
       <c r="H115" t="n">
-        <v>0.2677278438028415</v>
+        <v>83.84600706081049</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9918010739291653</v>
+        <v>2.665391485082103e-17</v>
       </c>
       <c r="J115" t="n">
-        <v>0.06693196095071038</v>
+        <v>20.96150176520262</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.97</v>
+        <v>4.9947</v>
       </c>
       <c r="B116" t="n">
-        <v>9.999495945780758e-11</v>
+        <v>1.610174175406423e-10</v>
       </c>
       <c r="C116" t="n">
-        <v>4.506556044075073e-12</v>
+        <v>8.355676334588296e-11</v>
       </c>
       <c r="D116" t="n">
-        <v>3.987489694905719e-11</v>
+        <v>-6.908125582140107e-11</v>
       </c>
       <c r="E116" t="n">
-        <v>3.81231495255551e-11</v>
+        <v>8.115181326934837e-12</v>
       </c>
       <c r="F116" t="n">
-        <v>8.900915985671712e-11</v>
+        <v>1.415065876987681e-11</v>
       </c>
       <c r="G116" t="n">
-        <v>1.014764916511793e-10</v>
+        <v>1.721891124529289e-11</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3827243589099947</v>
+        <v>60.08809913235879</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9838667198895676</v>
+        <v>2.779799212521849e-12</v>
       </c>
       <c r="J116" t="n">
-        <v>0.09568108972749868</v>
+        <v>15.0220247830897</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.9728</v>
+        <v>5.0046</v>
       </c>
       <c r="B117" t="n">
-        <v>9.509477180003877e-11</v>
+        <v>1.897967062280343e-10</v>
       </c>
       <c r="C117" t="n">
-        <v>5.515251924546998e-12</v>
+        <v>1.094084357462892e-10</v>
       </c>
       <c r="D117" t="n">
-        <v>2.175263656199442e-11</v>
+        <v>-8.111476028969979e-11</v>
       </c>
       <c r="E117" t="n">
-        <v>3.632902135629608e-11</v>
+        <v>7.271399570500351e-12</v>
       </c>
       <c r="F117" t="n">
-        <v>8.110594488221202e-11</v>
+        <v>1.226920070224336e-11</v>
       </c>
       <c r="G117" t="n">
-        <v>9.2468628483734e-11</v>
+        <v>1.575721249282403e-11</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3327212608401989</v>
+        <v>54.96828032012148</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9876051550133054</v>
+        <v>3.299078904427834e-11</v>
       </c>
       <c r="J117" t="n">
-        <v>0.08318031521004973</v>
+        <v>13.74207008003037</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9746</v>
+        <v>5.01</v>
       </c>
       <c r="B118" t="n">
-        <v>9.510282480146288e-11</v>
+        <v>2.030600652232192e-10</v>
       </c>
       <c r="C118" t="n">
-        <v>6.07629286104293e-13</v>
+        <v>1.032424595482095e-10</v>
       </c>
       <c r="D118" t="n">
-        <v>3.060557431953364e-11</v>
+        <v>-6.793442541189826e-11</v>
       </c>
       <c r="E118" t="n">
-        <v>3.621713528564512e-11</v>
+        <v>1.004143480487564e-11</v>
       </c>
       <c r="F118" t="n">
-        <v>7.875793065254398e-11</v>
+        <v>1.757170137236164e-11</v>
       </c>
       <c r="G118" t="n">
-        <v>9.054888238039097e-11</v>
+        <v>2.183796765692532e-11</v>
       </c>
       <c r="H118" t="n">
-        <v>0.2190599563539048</v>
+        <v>50.98655520068262</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9944221188559944</v>
+        <v>2.246704228316188e-10</v>
       </c>
       <c r="J118" t="n">
-        <v>0.05476498908847619</v>
+        <v>12.74663880017065</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.9847</v>
+        <v>5.0148</v>
       </c>
       <c r="B119" t="n">
-        <v>8.067770946696816e-11</v>
+        <v>1.988831070410815e-10</v>
       </c>
       <c r="C119" t="n">
-        <v>4.254442379506934e-12</v>
+        <v>4.3193325452461e-11</v>
       </c>
       <c r="D119" t="n">
-        <v>2.706592868587034e-11</v>
+        <v>2.813057039064705e-12</v>
       </c>
       <c r="E119" t="n">
-        <v>3.063043611041308e-11</v>
+        <v>8.902444849356717e-12</v>
       </c>
       <c r="F119" t="n">
-        <v>7.014040592331098e-11</v>
+        <v>1.72465481272821e-11</v>
       </c>
       <c r="G119" t="n">
-        <v>7.803331205599314e-11</v>
+        <v>1.958958643938489e-11</v>
       </c>
       <c r="H119" t="n">
-        <v>0.3349648710249331</v>
+        <v>32.67866616115665</v>
       </c>
       <c r="I119" t="n">
-        <v>0.9874466888946138</v>
+        <v>1.389793238323876e-06</v>
       </c>
       <c r="J119" t="n">
-        <v>0.08374121775623328</v>
+        <v>8.169666540289162</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.9901</v>
+        <v>5.0177</v>
       </c>
       <c r="B120" t="n">
-        <v>7.306456539437659e-11</v>
+        <v>1.860372366879585e-10</v>
       </c>
       <c r="C120" t="n">
-        <v>3.84250549338002e-12</v>
+        <v>9.287526062119449e-11</v>
       </c>
       <c r="D120" t="n">
-        <v>2.754601074932134e-11</v>
+        <v>-6.030041396668125e-11</v>
       </c>
       <c r="E120" t="n">
-        <v>2.785575510193217e-11</v>
+        <v>8.98002739109592e-12</v>
       </c>
       <c r="F120" t="n">
-        <v>6.522259597528236e-11</v>
+        <v>1.643556553639172e-11</v>
       </c>
       <c r="G120" t="n">
-        <v>7.358346739428238e-11</v>
+        <v>1.987614255799927e-11</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3876053540320517</v>
+        <v>42.66043491308038</v>
       </c>
       <c r="I120" t="n">
-        <v>0.983479054937745</v>
+        <v>1.217018592889857e-08</v>
       </c>
       <c r="J120" t="n">
-        <v>0.09690133850801291</v>
+        <v>10.66510872827009</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.9947</v>
+        <v>5.0179</v>
       </c>
       <c r="B121" t="n">
-        <v>6.42689531276282e-11</v>
+        <v>1.959302216899484e-10</v>
       </c>
       <c r="C121" t="n">
-        <v>5.205214113595993e-13</v>
+        <v>7.583898205483526e-11</v>
       </c>
       <c r="D121" t="n">
-        <v>2.398527284102384e-11</v>
+        <v>-4.429757497782545e-11</v>
       </c>
       <c r="E121" t="n">
-        <v>2.457204637546874e-11</v>
+        <v>9.114952838770874e-12</v>
       </c>
       <c r="F121" t="n">
-        <v>5.722675008050941e-11</v>
+        <v>1.697385210767667e-11</v>
       </c>
       <c r="G121" t="n">
-        <v>6.361376221344713e-11</v>
+        <v>1.982584578233165e-11</v>
       </c>
       <c r="H121" t="n">
-        <v>0.3529668696085114</v>
+        <v>33.4781338252004</v>
       </c>
       <c r="I121" t="n">
-        <v>0.9861433142709569</v>
+        <v>9.533368480526148e-07</v>
       </c>
       <c r="J121" t="n">
-        <v>0.08824171740212784</v>
+        <v>8.3695334563001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>5.0046</v>
+        <v>5.0198</v>
       </c>
       <c r="B122" t="n">
-        <v>5.257607157643903e-11</v>
+        <v>2.009018302361183e-10</v>
       </c>
       <c r="C122" t="n">
-        <v>1.985137794129243e-12</v>
+        <v>1.210234304944662e-10</v>
       </c>
       <c r="D122" t="n">
-        <v>1.530467233580791e-11</v>
+        <v>-1.143457083719346e-10</v>
       </c>
       <c r="E122" t="n">
-        <v>2.012608862567744e-11</v>
+        <v>1.154402907106023e-11</v>
       </c>
       <c r="F122" t="n">
-        <v>4.60858619968012e-11</v>
+        <v>2.144820376988486e-11</v>
       </c>
       <c r="G122" t="n">
-        <v>5.185310349016151e-11</v>
+        <v>2.5195980466787e-11</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3758587937640393</v>
+        <v>28.65317400689405</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9844052690383659</v>
+        <v>9.193645946791208e-06</v>
       </c>
       <c r="J122" t="n">
-        <v>0.09396469844100983</v>
+        <v>7.163293501723512</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.01</v>
+        <v>5.0248</v>
       </c>
       <c r="B123" t="n">
-        <v>4.824434658448768e-11</v>
+        <v>1.640800323748039e-10</v>
       </c>
       <c r="C123" t="n">
-        <v>1.234360237800272e-12</v>
+        <v>-2.446251188913698e-11</v>
       </c>
       <c r="D123" t="n">
-        <v>2.508727351711458e-11</v>
+        <v>3.715424898475373e-11</v>
       </c>
       <c r="E123" t="n">
-        <v>1.830309755243909e-11</v>
+        <v>1.729398979723358e-11</v>
       </c>
       <c r="F123" t="n">
-        <v>4.340721708433489e-11</v>
+        <v>3.763639414539385e-11</v>
       </c>
       <c r="G123" t="n">
-        <v>4.870810069342327e-11</v>
+        <v>3.317455602685495e-11</v>
       </c>
       <c r="H123" t="n">
-        <v>0.3373317479855066</v>
+        <v>21.56257966250514</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9872785560084161</v>
+        <v>0.0002448714532541392</v>
       </c>
       <c r="J123" t="n">
-        <v>0.08433293699637666</v>
+        <v>5.390644915626285</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.0148</v>
+        <v>5.0278</v>
       </c>
       <c r="B124" t="n">
-        <v>5.206026672504988e-11</v>
+        <v>1.908384393654625e-10</v>
       </c>
       <c r="C124" t="n">
-        <v>-1.938208743655257e-12</v>
+        <v>5.335288952545091e-11</v>
       </c>
       <c r="D124" t="n">
-        <v>1.744070503333169e-11</v>
+        <v>-8.192573104461031e-11</v>
       </c>
       <c r="E124" t="n">
-        <v>2.01147559937543e-11</v>
+        <v>1.927451967716774e-11</v>
       </c>
       <c r="F124" t="n">
-        <v>4.633037743164996e-11</v>
+        <v>3.776863512978982e-11</v>
       </c>
       <c r="G124" t="n">
-        <v>5.173506091930841e-11</v>
+        <v>4.100141997970331e-11</v>
       </c>
       <c r="H124" t="n">
-        <v>0.3809575587901345</v>
+        <v>3.177007758476575</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9840060657578764</v>
+        <v>0.5286525737743952</v>
       </c>
       <c r="J124" t="n">
-        <v>0.09523938969753362</v>
+        <v>0.7942519396191439</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.0177</v>
+        <v>5.0301</v>
       </c>
       <c r="B125" t="n">
-        <v>5.182314354136314e-11</v>
+        <v>2.229385396764407e-10</v>
       </c>
       <c r="C125" t="n">
-        <v>-3.305717118453313e-12</v>
+        <v>1.170965005045601e-10</v>
       </c>
       <c r="D125" t="n">
-        <v>1.11924602636994e-11</v>
+        <v>-5.698926265504601e-11</v>
       </c>
       <c r="E125" t="n">
-        <v>1.987854353832179e-11</v>
+        <v>2.079811620775115e-11</v>
       </c>
       <c r="F125" t="n">
-        <v>4.233095048525021e-11</v>
+        <v>3.770472609503129e-11</v>
       </c>
       <c r="G125" t="n">
-        <v>4.71944002503517e-11</v>
+        <v>4.49535696495304e-11</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1750620404590371</v>
+        <v>10.58715908607922</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9963855356526191</v>
+        <v>0.03161734079868561</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04376551011475927</v>
+        <v>2.646789771519806</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.0179</v>
+        <v>5.0328</v>
       </c>
       <c r="B126" t="n">
-        <v>4.751689918653543e-11</v>
+        <v>1.51897162064477e-10</v>
       </c>
       <c r="C126" t="n">
-        <v>1.922511944564398e-12</v>
+        <v>2.954439618230442e-11</v>
       </c>
       <c r="D126" t="n">
-        <v>1.464628521136842e-11</v>
+        <v>2.336986303541493e-12</v>
       </c>
       <c r="E126" t="n">
-        <v>1.822582542695015e-11</v>
+        <v>1.821588645229829e-11</v>
       </c>
       <c r="F126" t="n">
-        <v>4.27495399991687e-11</v>
+        <v>3.212246088621389e-11</v>
       </c>
       <c r="G126" t="n">
-        <v>4.743312746665732e-11</v>
+        <v>3.8845303844071e-11</v>
       </c>
       <c r="H126" t="n">
-        <v>0.4363686786471682</v>
+        <v>17.8478556649636</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9793924627043815</v>
+        <v>0.001321511609721975</v>
       </c>
       <c r="J126" t="n">
-        <v>0.109092169661792</v>
+        <v>4.461963916240899</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.0198</v>
+        <v>5.0359</v>
       </c>
       <c r="B127" t="n">
-        <v>5.920489868462901e-11</v>
+        <v>1.872315613815101e-10</v>
       </c>
       <c r="C127" t="n">
-        <v>-2.064368763889436e-13</v>
+        <v>7.783029170586935e-11</v>
       </c>
       <c r="D127" t="n">
-        <v>1.352435312975721e-11</v>
+        <v>-6.178252820095886e-11</v>
       </c>
       <c r="E127" t="n">
-        <v>2.265793512825741e-11</v>
+        <v>2.036620321715807e-11</v>
       </c>
       <c r="F127" t="n">
-        <v>4.822661668662853e-11</v>
+        <v>4.006540211451515e-11</v>
       </c>
       <c r="G127" t="n">
-        <v>5.588275603700602e-11</v>
+        <v>4.431535588160545e-11</v>
       </c>
       <c r="H127" t="n">
-        <v>0.1971555672686451</v>
+        <v>6.726630469556522</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9954490228769156</v>
+        <v>0.1510592565887537</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04928889181716126</v>
+        <v>1.68165761738913</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.0248</v>
+        <v>5.0387</v>
       </c>
       <c r="B128" t="n">
-        <v>7.34279189294237e-11</v>
+        <v>1.659339235435299e-10</v>
       </c>
       <c r="C128" t="n">
-        <v>3.646774433721447e-12</v>
+        <v>1.021233218686288e-11</v>
       </c>
       <c r="D128" t="n">
-        <v>7.911769827521135e-13</v>
+        <v>5.903413181339884e-12</v>
       </c>
       <c r="E128" t="n">
-        <v>2.808565661178598e-11</v>
+        <v>1.963332101568066e-11</v>
       </c>
       <c r="F128" t="n">
-        <v>5.311016222248399e-11</v>
+        <v>3.689076543642146e-11</v>
       </c>
       <c r="G128" t="n">
-        <v>6.402841988017467e-11</v>
+        <v>4.156894330162737e-11</v>
       </c>
       <c r="H128" t="n">
-        <v>0.06363961578241442</v>
+        <v>22.95368366922558</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9995043620354932</v>
+        <v>0.0001293527276984558</v>
       </c>
       <c r="J128" t="n">
-        <v>0.01590990394560361</v>
+        <v>5.738420917306395</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.0278</v>
+        <v>5.042</v>
       </c>
       <c r="B129" t="n">
-        <v>7.923327076280565e-11</v>
+        <v>1.887140800354663e-10</v>
       </c>
       <c r="C129" t="n">
-        <v>-9.889633103711329e-14</v>
+        <v>1.061860963362783e-10</v>
       </c>
       <c r="D129" t="n">
-        <v>8.637998344132936e-12</v>
+        <v>-1.482854844045191e-10</v>
       </c>
       <c r="E129" t="n">
-        <v>3.032326162071341e-11</v>
+        <v>2.10791603641985e-11</v>
       </c>
       <c r="F129" t="n">
-        <v>6.286263234932875e-11</v>
+        <v>3.523415227748075e-11</v>
       </c>
       <c r="G129" t="n">
-        <v>7.093096426565101e-11</v>
+        <v>4.384053661208947e-11</v>
       </c>
       <c r="H129" t="n">
-        <v>0.1956624944135578</v>
+        <v>6.696558013011632</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9955154786304383</v>
+        <v>0.152819335293542</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04891562360338945</v>
+        <v>1.674139503252908</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.0301</v>
+        <v>5.0448</v>
       </c>
       <c r="B130" t="n">
-        <v>8.212908119492883e-11</v>
+        <v>1.739770447653185e-10</v>
       </c>
       <c r="C130" t="n">
-        <v>1.210812192089983e-11</v>
+        <v>4.017045315485728e-11</v>
       </c>
       <c r="D130" t="n">
-        <v>8.924765413582859e-12</v>
+        <v>-1.278244852015888e-11</v>
       </c>
       <c r="E130" t="n">
-        <v>3.124650735894341e-11</v>
+        <v>1.960923318796924e-11</v>
       </c>
       <c r="F130" t="n">
-        <v>6.474230345280824e-11</v>
+        <v>3.516071312180986e-11</v>
       </c>
       <c r="G130" t="n">
-        <v>7.842912550933333e-11</v>
+        <v>4.1810610163735e-11</v>
       </c>
       <c r="H130" t="n">
-        <v>0.2015843992746316</v>
+        <v>25.09905683851693</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9952492232583793</v>
+        <v>4.805440864572254e-05</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0503960998186579</v>
+        <v>6.274764209629233</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.0328</v>
+        <v>5.05</v>
       </c>
       <c r="B131" t="n">
-        <v>9.057112551918961e-11</v>
+        <v>1.87727901342712e-10</v>
       </c>
       <c r="C131" t="n">
-        <v>-3.222061361255245e-12</v>
+        <v>1.092561026005773e-10</v>
       </c>
       <c r="D131" t="n">
-        <v>1.791958135241509e-11</v>
+        <v>-6.748267484651574e-11</v>
       </c>
       <c r="E131" t="n">
-        <v>3.454352191636814e-11</v>
+        <v>2.02495298478232e-11</v>
       </c>
       <c r="F131" t="n">
-        <v>7.313445512922235e-11</v>
+        <v>3.750508179510602e-11</v>
       </c>
       <c r="G131" t="n">
-        <v>8.023445451946375e-11</v>
+        <v>4.262736279072792e-11</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1732377395136021</v>
+        <v>6.826586326332316</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9964583376336968</v>
+        <v>0.1453410828488313</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04330943487840051</v>
+        <v>1.706646581583079</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.0359</v>
+        <v>5.0548</v>
       </c>
       <c r="B132" t="n">
-        <v>9.821068303214862e-11</v>
+        <v>2.249721361168698e-10</v>
       </c>
       <c r="C132" t="n">
-        <v>1.29923398907572e-11</v>
+        <v>-1.877984586733743e-11</v>
       </c>
       <c r="D132" t="n">
-        <v>1.603954303879965e-11</v>
+        <v>-5.520812268032757e-13</v>
       </c>
       <c r="E132" t="n">
-        <v>3.695666619841282e-11</v>
+        <v>1.772027995695871e-11</v>
       </c>
       <c r="F132" t="n">
-        <v>7.41949995825804e-11</v>
+        <v>3.968652469406413e-11</v>
       </c>
       <c r="G132" t="n">
-        <v>8.902612203487661e-11</v>
+        <v>3.928663495570914e-11</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0627401217241696</v>
+        <v>3.080277555966172</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9995181298189663</v>
+        <v>0.3794128054221341</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0156850304310424</v>
+        <v>1.026759185322057</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.0387</v>
+        <v>5.0649</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08020715827974e-10</v>
+        <v>2.114944779215581e-10</v>
       </c>
       <c r="C133" t="n">
-        <v>2.970747376458248e-12</v>
+        <v>2.485304574999933e-11</v>
       </c>
       <c r="D133" t="n">
-        <v>1.371498984273039e-11</v>
+        <v>-1.326828692273792e-11</v>
       </c>
       <c r="E133" t="n">
-        <v>4.113248537286069e-11</v>
+        <v>1.315969214143782e-11</v>
       </c>
       <c r="F133" t="n">
-        <v>8.354945386044413e-11</v>
+        <v>2.550712957614603e-11</v>
       </c>
       <c r="G133" t="n">
-        <v>9.775320562035045e-11</v>
+        <v>2.858615438747141e-11</v>
       </c>
       <c r="H133" t="n">
-        <v>0.1206516586753415</v>
+        <v>16.10226547200372</v>
       </c>
       <c r="I133" t="n">
-        <v>0.998251947347347</v>
+        <v>0.002884964102453277</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03016291466883537</v>
+        <v>4.025566368000929</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.042</v>
+        <v>5.0699</v>
       </c>
       <c r="B134" t="n">
-        <v>1.067937769545406e-10</v>
+        <v>2.595948312867741e-10</v>
       </c>
       <c r="C134" t="n">
-        <v>8.646173808948503e-12</v>
+        <v>7.026505602311158e-11</v>
       </c>
       <c r="D134" t="n">
-        <v>2.125990012403458e-11</v>
+        <v>-4.439644851510107e-11</v>
       </c>
       <c r="E134" t="n">
-        <v>4.031183025297351e-11</v>
+        <v>1.42474043283025e-11</v>
       </c>
       <c r="F134" t="n">
-        <v>8.411783808062237e-11</v>
+        <v>2.770910414570768e-11</v>
       </c>
       <c r="G134" t="n">
-        <v>9.725609014546625e-11</v>
+        <v>3.130898079200351e-11</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1283249331354575</v>
+        <v>17.50581989029489</v>
       </c>
       <c r="I134" t="n">
-        <v>0.998027554669802</v>
+        <v>0.001540968369588991</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03208123328386438</v>
+        <v>4.376454972573724</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.0448</v>
+        <v>5.0745</v>
       </c>
       <c r="B135" t="n">
-        <v>9.476268004084465e-11</v>
+        <v>2.27085768001756e-10</v>
       </c>
       <c r="C135" t="n">
-        <v>8.494916128509742e-12</v>
+        <v>2.52429664314664e-11</v>
       </c>
       <c r="D135" t="n">
-        <v>5.98661957173415e-13</v>
+        <v>-3.042419663862603e-11</v>
       </c>
       <c r="E135" t="n">
-        <v>3.613199608992188e-11</v>
+        <v>1.030967272743364e-11</v>
       </c>
       <c r="F135" t="n">
-        <v>7.084065949590916e-11</v>
+        <v>1.956690997253268e-11</v>
       </c>
       <c r="G135" t="n">
-        <v>8.397836033514262e-11</v>
+        <v>2.242271337848757e-11</v>
       </c>
       <c r="H135" t="n">
-        <v>0.1192136637752117</v>
+        <v>7.148530398507204</v>
       </c>
       <c r="I135" t="n">
-        <v>0.9982925534656761</v>
+        <v>0.1282441864721358</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02980341594380293</v>
+        <v>1.787132599626801</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.05</v>
+        <v>5.0842</v>
       </c>
       <c r="B136" t="n">
-        <v>8.494577321127148e-11</v>
+        <v>2.178807754734776e-10</v>
       </c>
       <c r="C136" t="n">
-        <v>7.760675394210327e-12</v>
+        <v>7.315019191245263e-11</v>
       </c>
       <c r="D136" t="n">
-        <v>2.326226064782062e-11</v>
+        <v>-5.168964653603958e-11</v>
       </c>
       <c r="E136" t="n">
-        <v>3.184384390134915e-11</v>
+        <v>1.023109232439624e-11</v>
       </c>
       <c r="F136" t="n">
-        <v>6.737176093768859e-11</v>
+        <v>1.910089803411165e-11</v>
       </c>
       <c r="G136" t="n">
-        <v>7.760391314462309e-11</v>
+        <v>2.278614683753264e-11</v>
       </c>
       <c r="H136" t="n">
-        <v>0.1039239317936618</v>
+        <v>20.7519421068169</v>
       </c>
       <c r="I136" t="n">
-        <v>0.9986958448251095</v>
+        <v>0.0003546185955136127</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02598098294841545</v>
+        <v>5.187985526704225</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.0548</v>
+        <v>5.09</v>
       </c>
       <c r="B137" t="n">
-        <v>6.521210587191606e-11</v>
+        <v>2.310507901458135e-10</v>
       </c>
       <c r="C137" t="n">
-        <v>1.542256914858926e-12</v>
+        <v>7.983615026616813e-11</v>
       </c>
       <c r="D137" t="n">
-        <v>1.063721384794347e-11</v>
+        <v>-2.345134287001716e-11</v>
       </c>
       <c r="E137" t="n">
-        <v>2.482162874239169e-11</v>
+        <v>1.135695226625722e-11</v>
       </c>
       <c r="F137" t="n">
-        <v>5.096087493743172e-11</v>
+        <v>2.123223222827307e-11</v>
       </c>
       <c r="G137" t="n">
-        <v>5.91282426505174e-11</v>
+        <v>2.509005798989312e-11</v>
       </c>
       <c r="H137" t="n">
-        <v>0.1330741805278778</v>
+        <v>27.17539925302538</v>
       </c>
       <c r="I137" t="n">
-        <v>0.9978821913450312</v>
+        <v>1.831993138238274e-05</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03326854513196945</v>
+        <v>6.793849813256346</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.0649</v>
+        <v>5.0937</v>
       </c>
       <c r="B138" t="n">
-        <v>4.514655531963124e-11</v>
+        <v>2.201366576819207e-10</v>
       </c>
       <c r="C138" t="n">
-        <v>4.119409520699176e-12</v>
+        <v>6.646512566201278e-11</v>
       </c>
       <c r="D138" t="n">
-        <v>1.081248472488056e-11</v>
+        <v>-3.383658725670623e-11</v>
       </c>
       <c r="E138" t="n">
-        <v>1.716925412538803e-11</v>
+        <v>2.022071455623192e-11</v>
       </c>
       <c r="F138" t="n">
-        <v>3.890743014562484e-11</v>
+        <v>4.10916728816943e-11</v>
       </c>
       <c r="G138" t="n">
-        <v>4.326210029483339e-11</v>
+        <v>4.602203480346057e-11</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4152497099084418</v>
+        <v>2.506800025328571</v>
       </c>
       <c r="I138" t="n">
-        <v>0.9812094317232001</v>
+        <v>0.6434185584206393</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1038124274771105</v>
+        <v>0.6267000063321428</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.0699</v>
+        <v>5.0968</v>
       </c>
       <c r="B139" t="n">
-        <v>4.294248844088939e-11</v>
+        <v>1.808278925258915e-10</v>
       </c>
       <c r="C139" t="n">
-        <v>-4.200297535685915e-12</v>
+        <v>1.692614462663086e-11</v>
       </c>
       <c r="D139" t="n">
-        <v>1.320053508748816e-11</v>
+        <v>-1.953493403215375e-11</v>
       </c>
       <c r="E139" t="n">
-        <v>1.64607628510423e-11</v>
+        <v>2.09850409189245e-11</v>
       </c>
       <c r="F139" t="n">
-        <v>3.57942074435098e-11</v>
+        <v>4.277562545216602e-11</v>
       </c>
       <c r="G139" t="n">
-        <v>3.846962336274819e-11</v>
+        <v>4.615308436661885e-11</v>
       </c>
       <c r="H139" t="n">
-        <v>0.1958809284816832</v>
+        <v>4.405595157805748</v>
       </c>
       <c r="I139" t="n">
-        <v>0.9955057847194165</v>
+        <v>0.3538886697233959</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04897023212042079</v>
+        <v>1.101398789451437</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.0745</v>
+        <v>5.0989</v>
       </c>
       <c r="B140" t="n">
-        <v>3.320735998134432e-11</v>
+        <v>1.687649107613494e-10</v>
       </c>
       <c r="C140" t="n">
-        <v>2.286973231283515e-12</v>
+        <v>5.308592166411993e-11</v>
       </c>
       <c r="D140" t="n">
-        <v>-2.342073487125005e-12</v>
+        <v>-4.511152692728257e-11</v>
       </c>
       <c r="E140" t="n">
-        <v>1.279987664129051e-11</v>
+        <v>2.433298278875367e-11</v>
       </c>
       <c r="F140" t="n">
-        <v>2.626668991283398e-11</v>
+        <v>4.718204732382554e-11</v>
       </c>
       <c r="G140" t="n">
-        <v>3.020289717229924e-11</v>
+        <v>5.371951215559407e-11</v>
       </c>
       <c r="H140" t="n">
-        <v>0.3159137549213485</v>
+        <v>1.86664276078105</v>
       </c>
       <c r="I140" t="n">
-        <v>0.9887638644380123</v>
+        <v>0.7602697807023404</v>
       </c>
       <c r="J140" t="n">
-        <v>0.07897843873033714</v>
+        <v>0.4666606901952624</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.0842</v>
+        <v>5.1</v>
       </c>
       <c r="B141" t="n">
-        <v>2.717044904502203e-11</v>
+        <v>1.512494909561444e-10</v>
       </c>
       <c r="C141" t="n">
-        <v>5.444564181291618e-13</v>
+        <v>1.358298048092366e-11</v>
       </c>
       <c r="D141" t="n">
-        <v>9.435494875859101e-12</v>
+        <v>-9.299757871375908e-11</v>
       </c>
       <c r="E141" t="n">
-        <v>1.038861129805859e-11</v>
+        <v>2.535379268396652e-11</v>
       </c>
       <c r="F141" t="n">
-        <v>2.359707912078913e-11</v>
+        <v>4.826548537055667e-11</v>
       </c>
       <c r="G141" t="n">
-        <v>2.605728704356601e-11</v>
+        <v>6.097555893798655e-11</v>
       </c>
       <c r="H141" t="n">
-        <v>0.3133546387411552</v>
+        <v>1.716959423570588</v>
       </c>
       <c r="I141" t="n">
-        <v>0.9889358585738531</v>
+        <v>0.7876346667261112</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0783386596852888</v>
+        <v>0.429239855892647</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.09</v>
+        <v>5.1004</v>
       </c>
       <c r="B142" t="n">
-        <v>2.699516982430102e-11</v>
+        <v>1.718074947129747e-10</v>
       </c>
       <c r="C142" t="n">
-        <v>7.613697674513924e-12</v>
+        <v>2.668652128266671e-11</v>
       </c>
       <c r="D142" t="n">
-        <v>2.53431335129406e-12</v>
+        <v>-7.22407415050775e-11</v>
       </c>
       <c r="E142" t="n">
-        <v>1.022999400619161e-11</v>
+        <v>2.636044441458026e-11</v>
       </c>
       <c r="F142" t="n">
-        <v>2.067956292923631e-11</v>
+        <v>5.166376101160622e-11</v>
       </c>
       <c r="G142" t="n">
-        <v>2.556174758631953e-11</v>
+        <v>5.540523246695268e-11</v>
       </c>
       <c r="H142" t="n">
-        <v>0.2020711457495782</v>
+        <v>0.7693932183051382</v>
       </c>
       <c r="I142" t="n">
-        <v>0.9952270209880264</v>
+        <v>0.9425035922392976</v>
       </c>
       <c r="J142" t="n">
-        <v>0.05051778643739456</v>
+        <v>0.1923483045762845</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.0937</v>
+        <v>5.1007</v>
       </c>
       <c r="B143" t="n">
-        <v>5.520443242890561e-11</v>
+        <v>1.722982463681363e-10</v>
       </c>
       <c r="C143" t="n">
-        <v>2.706678990596661e-11</v>
+        <v>2.156572806085803e-11</v>
       </c>
       <c r="D143" t="n">
-        <v>-3.831892411784824e-12</v>
+        <v>4.642149718890175e-12</v>
       </c>
       <c r="E143" t="n">
-        <v>2.093150991203011e-11</v>
+        <v>2.865821217995511e-11</v>
       </c>
       <c r="F143" t="n">
-        <v>3.762692860097563e-11</v>
+        <v>5.859061404452883e-11</v>
       </c>
       <c r="G143" t="n">
-        <v>5.030965623231032e-11</v>
+        <v>6.63543909197518e-11</v>
       </c>
       <c r="H143" t="n">
-        <v>0.04398964689909476</v>
+        <v>0.7955543623295608</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9997616316155367</v>
+        <v>0.9390430688944734</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01099741172477369</v>
+        <v>0.1988885905823902</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.0968</v>
+        <v>5.1029</v>
       </c>
       <c r="B144" t="n">
-        <v>1.011482984050004e-10</v>
+        <v>1.708217506808817e-10</v>
       </c>
       <c r="C144" t="n">
-        <v>2.573782490728088e-11</v>
+        <v>8.869688750838128e-12</v>
       </c>
       <c r="D144" t="n">
-        <v>1.181910398244024e-11</v>
+        <v>-7.400285199588213e-11</v>
       </c>
       <c r="E144" t="n">
-        <v>3.818979534479761e-11</v>
+        <v>2.935872544554528e-11</v>
       </c>
       <c r="F144" t="n">
-        <v>7.486341801932801e-11</v>
+        <v>5.774069763182186e-11</v>
       </c>
       <c r="G144" t="n">
-        <v>9.672180366165716e-11</v>
+        <v>6.495429843898602e-11</v>
       </c>
       <c r="H144" t="n">
-        <v>0.09476569109544877</v>
+        <v>0.6472393956471419</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9989122710588987</v>
+        <v>0.9576724029235898</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02369142277386219</v>
+        <v>0.1618098489117855</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.0989</v>
+        <v>5.1049</v>
       </c>
       <c r="B145" t="n">
-        <v>1.156179169321807e-10</v>
+        <v>1.461665340010398e-10</v>
       </c>
       <c r="C145" t="n">
-        <v>1.804996533679145e-11</v>
+        <v>3.438889086767329e-11</v>
       </c>
       <c r="D145" t="n">
-        <v>-7.830103771695071e-13</v>
+        <v>2.156317231963262e-11</v>
       </c>
       <c r="E145" t="n">
-        <v>4.376436225647682e-11</v>
+        <v>2.739080534548761e-11</v>
       </c>
       <c r="F145" t="n">
-        <v>8.32661177345599e-11</v>
+        <v>5.260329928790073e-11</v>
       </c>
       <c r="G145" t="n">
-        <v>9.99275742074274e-11</v>
+        <v>5.851593672918572e-11</v>
       </c>
       <c r="H145" t="n">
-        <v>0.06219293258262905</v>
+        <v>7.175920529932911</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9995264122975535</v>
+        <v>0.1268785782814058</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01554823314565726</v>
+        <v>1.793980132483228</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.1</v>
+        <v>5.1069</v>
       </c>
       <c r="B146" t="n">
-        <v>1.135362870098183e-10</v>
+        <v>1.653721453216735e-10</v>
       </c>
       <c r="C146" t="n">
-        <v>1.067449027118362e-11</v>
+        <v>3.517160482282913e-11</v>
       </c>
       <c r="D146" t="n">
-        <v>1.146883695970675e-11</v>
+        <v>-1.610711630637731e-10</v>
       </c>
       <c r="E146" t="n">
-        <v>4.303805735791134e-11</v>
+        <v>2.961294519703156e-11</v>
       </c>
       <c r="F146" t="n">
-        <v>8.148497231849835e-11</v>
+        <v>5.173728654284155e-11</v>
       </c>
       <c r="G146" t="n">
-        <v>9.928317602734945e-11</v>
+        <v>6.279920466341857e-11</v>
       </c>
       <c r="H146" t="n">
-        <v>0.004395532808297408</v>
+        <v>0.8076677547276039</v>
       </c>
       <c r="I146" t="n">
-        <v>0.9999975884470355</v>
+        <v>0.937417148733966</v>
       </c>
       <c r="J146" t="n">
-        <v>0.001098883202074352</v>
+        <v>0.201916938681901</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.1004</v>
+        <v>5.1088</v>
       </c>
       <c r="B147" t="n">
-        <v>1.156328564811737e-10</v>
+        <v>1.804390542834923e-10</v>
       </c>
       <c r="C147" t="n">
-        <v>2.217616505138174e-11</v>
+        <v>-4.503422725360245e-12</v>
       </c>
       <c r="D147" t="n">
-        <v>9.271201668318792e-12</v>
+        <v>-4.754929749362443e-11</v>
       </c>
       <c r="E147" t="n">
-        <v>4.3776020564078e-11</v>
+        <v>2.972167087619403e-11</v>
       </c>
       <c r="F147" t="n">
-        <v>8.388551670392992e-11</v>
+        <v>5.82487419186611e-11</v>
       </c>
       <c r="G147" t="n">
-        <v>1.065229604136564e-10</v>
+        <v>6.655073403904678e-11</v>
       </c>
       <c r="H147" t="n">
-        <v>0.04960990333452155</v>
+        <v>5.261817380677957</v>
       </c>
       <c r="I147" t="n">
-        <v>0.9996973975524985</v>
+        <v>0.2614726093109744</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01240247583363039</v>
+        <v>1.315454345169489</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.1007</v>
+        <v>5.11</v>
       </c>
       <c r="B148" t="n">
-        <v>1.102462923017473e-10</v>
+        <v>1.669249709467226e-10</v>
       </c>
       <c r="C148" t="n">
-        <v>2.744760548124162e-11</v>
+        <v>4.341787889704384e-11</v>
       </c>
       <c r="D148" t="n">
-        <v>7.680803637644994e-12</v>
+        <v>-4.372471711567147e-11</v>
       </c>
       <c r="E148" t="n">
-        <v>4.195023375151147e-11</v>
+        <v>3.007258334845276e-11</v>
       </c>
       <c r="F148" t="n">
-        <v>7.968596727137302e-11</v>
+        <v>5.956490125190709e-11</v>
       </c>
       <c r="G148" t="n">
-        <v>1.041611454575193e-10</v>
+        <v>7.008773247563862e-11</v>
       </c>
       <c r="H148" t="n">
-        <v>0.1079311962416704</v>
+        <v>1.202525873023633</v>
       </c>
       <c r="I148" t="n">
-        <v>0.9985951997685411</v>
+        <v>0.877682574384399</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0269827990604176</v>
+        <v>0.3006314682559082</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.1029</v>
+        <v>5.1108</v>
       </c>
       <c r="B149" t="n">
-        <v>1.384928999749908e-10</v>
+        <v>1.577622221959731e-10</v>
       </c>
       <c r="C149" t="n">
-        <v>8.920516487730318e-12</v>
+        <v>4.190240369113298e-11</v>
       </c>
       <c r="D149" t="n">
-        <v>3.727937670026699e-11</v>
+        <v>1.457698082961289e-11</v>
       </c>
       <c r="E149" t="n">
-        <v>5.20524204627518e-11</v>
+        <v>3.048378711361676e-11</v>
       </c>
       <c r="F149" t="n">
-        <v>1.053135140961887e-10</v>
+        <v>6.035327435888347e-11</v>
       </c>
       <c r="G149" t="n">
-        <v>1.237748680375402e-10</v>
+        <v>6.548699949080691e-11</v>
       </c>
       <c r="H149" t="n">
-        <v>0.03531859828168454</v>
+        <v>4.183125501394427</v>
       </c>
       <c r="I149" t="n">
-        <v>0.999845898166721</v>
+        <v>0.3817894336859228</v>
       </c>
       <c r="J149" t="n">
-        <v>0.008829649570421136</v>
+        <v>1.045781375348607</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.1049</v>
+        <v>5.1138</v>
       </c>
       <c r="B150" t="n">
-        <v>1.434135938486933e-10</v>
+        <v>1.450446468736923e-10</v>
       </c>
       <c r="C150" t="n">
-        <v>2.072735696817179e-11</v>
+        <v>8.582001594773771e-11</v>
       </c>
       <c r="D150" t="n">
-        <v>2.072977339425993e-11</v>
+        <v>-9.729200537379865e-11</v>
       </c>
       <c r="E150" t="n">
-        <v>5.394877791895045e-11</v>
+        <v>2.603763427791094e-11</v>
       </c>
       <c r="F150" t="n">
-        <v>1.049128113222935e-10</v>
+        <v>4.413681567426342e-11</v>
       </c>
       <c r="G150" t="n">
-        <v>1.272549792788906e-10</v>
+        <v>5.578328430223374e-11</v>
       </c>
       <c r="H150" t="n">
-        <v>0.01440026068906247</v>
+        <v>4.140037987846425</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9999742031489646</v>
+        <v>0.3873853885593144</v>
       </c>
       <c r="J150" t="n">
-        <v>0.003600065172265617</v>
+        <v>1.035009496961606</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.1069</v>
+        <v>5.1188</v>
       </c>
       <c r="B151" t="n">
-        <v>1.47125643170791e-10</v>
+        <v>1.606180591885517e-10</v>
       </c>
       <c r="C151" t="n">
-        <v>3.397155090748792e-11</v>
+        <v>-5.876330413901477e-11</v>
       </c>
       <c r="D151" t="n">
-        <v>6.096954776977829e-13</v>
+        <v>-1.542792997282717e-11</v>
       </c>
       <c r="E151" t="n">
-        <v>5.59758688779929e-11</v>
+        <v>2.090594981673963e-11</v>
       </c>
       <c r="F151" t="n">
-        <v>1.028509281250616e-10</v>
+        <v>3.883176145524376e-11</v>
       </c>
       <c r="G151" t="n">
-        <v>1.337430961574388e-10</v>
+        <v>4.829169130012671e-11</v>
       </c>
       <c r="H151" t="n">
-        <v>0.03196861372778675</v>
+        <v>34.3607285830426</v>
       </c>
       <c r="I151" t="n">
-        <v>0.9998736041616283</v>
+        <v>6.284419569223246e-07</v>
       </c>
       <c r="J151" t="n">
-        <v>0.007992153431946687</v>
+        <v>8.59018214576065</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.1088</v>
+        <v>5.1238</v>
       </c>
       <c r="B152" t="n">
-        <v>1.527645047738308e-10</v>
+        <v>2.781336150439353e-10</v>
       </c>
       <c r="C152" t="n">
-        <v>2.697283249793865e-11</v>
+        <v>4.657068144576799e-12</v>
       </c>
       <c r="D152" t="n">
-        <v>1.544147123578192e-11</v>
+        <v>-3.442708963363671e-11</v>
       </c>
       <c r="E152" t="n">
-        <v>5.775194200143446e-11</v>
+        <v>2.285083351356885e-11</v>
       </c>
       <c r="F152" t="n">
-        <v>1.099376834018824e-10</v>
+        <v>4.534801001119349e-11</v>
       </c>
       <c r="G152" t="n">
-        <v>1.38419782182397e-10</v>
+        <v>4.947879798821401e-11</v>
       </c>
       <c r="H152" t="n">
-        <v>0.02607466870245709</v>
+        <v>4.104596067359166</v>
       </c>
       <c r="I152" t="n">
-        <v>0.9999157490186906</v>
+        <v>0.3920353467020207</v>
       </c>
       <c r="J152" t="n">
-        <v>0.006518667175614273</v>
+        <v>1.026149016839792</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.11</v>
+        <v>5.1285</v>
       </c>
       <c r="B153" t="n">
-        <v>1.457729367657226e-10</v>
+        <v>3.047345523196636e-10</v>
       </c>
       <c r="C153" t="n">
-        <v>4.455795321559818e-11</v>
+        <v>1.635803973449657e-11</v>
       </c>
       <c r="D153" t="n">
-        <v>1.214179532452444e-11</v>
+        <v>2.89093239429445e-11</v>
       </c>
       <c r="E153" t="n">
-        <v>5.458405454950875e-11</v>
+        <v>1.711230432836236e-11</v>
       </c>
       <c r="F153" t="n">
-        <v>1.035995504593087e-10</v>
+        <v>3.3885803139523e-11</v>
       </c>
       <c r="G153" t="n">
-        <v>1.302949869759046e-10</v>
+        <v>3.766571672846297e-11</v>
       </c>
       <c r="H153" t="n">
-        <v>0.01144570436803441</v>
+        <v>1.929711347553821</v>
       </c>
       <c r="I153" t="n">
-        <v>0.9999836868240136</v>
+        <v>0.7486850487096808</v>
       </c>
       <c r="J153" t="n">
-        <v>0.002861426092008602</v>
+        <v>0.4824278368884554</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.1108</v>
+        <v>5.1299</v>
       </c>
       <c r="B154" t="n">
-        <v>1.358640826720163e-10</v>
+        <v>2.989592271164744e-10</v>
       </c>
       <c r="C154" t="n">
-        <v>9.701636232538891e-12</v>
+        <v>2.292908317704727e-11</v>
       </c>
       <c r="D154" t="n">
-        <v>2.252848963616863e-11</v>
+        <v>-5.364729362103043e-11</v>
       </c>
       <c r="E154" t="n">
-        <v>5.120785410110374e-11</v>
+        <v>2.067307965584517e-11</v>
       </c>
       <c r="F154" t="n">
-        <v>1.058455580980907e-10</v>
+        <v>3.939480917631688e-11</v>
       </c>
       <c r="G154" t="n">
-        <v>1.197850214373451e-10</v>
+        <v>4.762549684092563e-11</v>
       </c>
       <c r="H154" t="n">
-        <v>0.1329143808119372</v>
+        <v>2.106840170234046</v>
       </c>
       <c r="I154" t="n">
-        <v>0.997887162641139</v>
+        <v>0.7161158324889038</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0332285952029843</v>
+        <v>0.5267100425585116</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.1138</v>
+        <v>5.1338</v>
       </c>
       <c r="B155" t="n">
-        <v>1.366563191252952e-10</v>
+        <v>2.852901269574859e-10</v>
       </c>
       <c r="C155" t="n">
-        <v>2.050855187204591e-11</v>
+        <v>1.086240095216681e-10</v>
       </c>
       <c r="D155" t="n">
-        <v>3.76554030626066e-11</v>
+        <v>-4.907372100192432e-11</v>
       </c>
       <c r="E155" t="n">
-        <v>5.109221796326338e-11</v>
+        <v>1.571740267372016e-11</v>
       </c>
       <c r="F155" t="n">
-        <v>1.026416188742803e-10</v>
+        <v>2.894417241177889e-11</v>
       </c>
       <c r="G155" t="n">
-        <v>1.255656171635484e-10</v>
+        <v>3.422420834248382e-11</v>
       </c>
       <c r="H155" t="n">
-        <v>0.02466621944432574</v>
+        <v>18.60508000566747</v>
       </c>
       <c r="I155" t="n">
-        <v>0.9999245696314294</v>
+        <v>0.0009395124046086854</v>
       </c>
       <c r="J155" t="n">
-        <v>0.006166554861081435</v>
+        <v>4.651270001416868</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.1188</v>
+        <v>5.1389</v>
       </c>
       <c r="B156" t="n">
-        <v>1.225123169211207e-10</v>
+        <v>2.969271298537945e-10</v>
       </c>
       <c r="C156" t="n">
-        <v>1.840179613885091e-11</v>
+        <v>3.806596750764308e-11</v>
       </c>
       <c r="D156" t="n">
-        <v>-8.383871199789909e-12</v>
+        <v>-1.002818251901382e-11</v>
       </c>
       <c r="E156" t="n">
-        <v>4.668214430259918e-11</v>
+        <v>1.831718074751099e-11</v>
       </c>
       <c r="F156" t="n">
-        <v>8.632758297409417e-11</v>
+        <v>3.654567986956315e-11</v>
       </c>
       <c r="G156" t="n">
-        <v>1.064808519832857e-10</v>
+        <v>3.992738440822676e-11</v>
       </c>
       <c r="H156" t="n">
-        <v>0.0496688339782561</v>
+        <v>4.009967551989401</v>
       </c>
       <c r="I156" t="n">
-        <v>0.9996966841602438</v>
+        <v>0.4046585689651548</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01241720849456403</v>
+        <v>1.00249188799735</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.1238</v>
+        <v>5.1417</v>
       </c>
       <c r="B157" t="n">
-        <v>9.744915543613126e-11</v>
+        <v>3.092129898238008e-10</v>
       </c>
       <c r="C157" t="n">
-        <v>1.947411926068336e-11</v>
+        <v>5.772061620943001e-11</v>
       </c>
       <c r="D157" t="n">
-        <v>3.018459277486605e-12</v>
+        <v>-8.162330996846791e-11</v>
       </c>
       <c r="E157" t="n">
-        <v>3.715461924954352e-11</v>
+        <v>1.754299245665083e-11</v>
       </c>
       <c r="F157" t="n">
-        <v>7.029613473204661e-11</v>
+        <v>3.374441995061701e-11</v>
       </c>
       <c r="G157" t="n">
-        <v>8.900199763668631e-11</v>
+        <v>3.776890749346332e-11</v>
       </c>
       <c r="H157" t="n">
-        <v>0.1135479817374968</v>
+        <v>5.959047525546367</v>
       </c>
       <c r="I157" t="n">
-        <v>0.9984480773194605</v>
+        <v>0.2022275747141631</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02838699543437419</v>
+        <v>1.489761881386592</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.1285</v>
+        <v>5.1447</v>
       </c>
       <c r="B158" t="n">
-        <v>6.981346092296121e-11</v>
+        <v>3.040399105650569e-10</v>
       </c>
       <c r="C158" t="n">
-        <v>3.650210976312456e-12</v>
+        <v>9.855928932607523e-11</v>
       </c>
       <c r="D158" t="n">
-        <v>1.725323172445927e-11</v>
+        <v>-1.081570710699578e-10</v>
       </c>
       <c r="E158" t="n">
-        <v>2.642071942791693e-11</v>
+        <v>1.759643053848189e-11</v>
       </c>
       <c r="F158" t="n">
-        <v>5.437284489455589e-11</v>
+        <v>3.310139546241955e-11</v>
       </c>
       <c r="G158" t="n">
-        <v>6.209742394047943e-11</v>
+        <v>3.764169031660119e-11</v>
       </c>
       <c r="H158" t="n">
-        <v>0.1375378500257101</v>
+        <v>14.47222004698811</v>
       </c>
       <c r="I158" t="n">
-        <v>0.9977410789245184</v>
+        <v>0.005930884765101747</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03438446250642752</v>
+        <v>3.618055011747029</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.1299</v>
+        <v>5.148</v>
       </c>
       <c r="B159" t="n">
-        <v>7.869409634575607e-11</v>
+        <v>2.791234350292951e-10</v>
       </c>
       <c r="C159" t="n">
-        <v>4.958971546269846e-12</v>
+        <v>2.253810229710247e-10</v>
       </c>
       <c r="D159" t="n">
-        <v>1.607388336822154e-12</v>
+        <v>-1.588680947420803e-10</v>
       </c>
       <c r="E159" t="n">
-        <v>3.024643885859244e-11</v>
+        <v>1.684433712579468e-11</v>
       </c>
       <c r="F159" t="n">
-        <v>5.575146355405677e-11</v>
+        <v>2.678887856910018e-11</v>
       </c>
       <c r="G159" t="n">
-        <v>7.111126698643481e-11</v>
+        <v>3.506316389462599e-11</v>
       </c>
       <c r="H159" t="n">
-        <v>0.09345966063556509</v>
+        <v>37.5575552135514</v>
       </c>
       <c r="I159" t="n">
-        <v>0.9989415870653172</v>
+        <v>1.382547164236153e-07</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02336491515889127</v>
+        <v>9.389388803387849</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.1338</v>
+        <v>5.15</v>
       </c>
       <c r="B160" t="n">
-        <v>5.99590602641527e-11</v>
+        <v>3.621577262722843e-10</v>
       </c>
       <c r="C160" t="n">
-        <v>6.764828488448885e-12</v>
+        <v>4.552001570352686e-11</v>
       </c>
       <c r="D160" t="n">
-        <v>1.002901577138947e-11</v>
+        <v>-6.503348158367763e-11</v>
       </c>
       <c r="E160" t="n">
-        <v>2.258124497173576e-11</v>
+        <v>2.142632097129719e-11</v>
       </c>
       <c r="F160" t="n">
-        <v>4.380966041238797e-11</v>
+        <v>4.123444756773853e-11</v>
       </c>
       <c r="G160" t="n">
-        <v>5.27703391521405e-11</v>
+        <v>4.624244455573255e-11</v>
       </c>
       <c r="H160" t="n">
-        <v>0.01158888029107688</v>
+        <v>10.98667252332631</v>
       </c>
       <c r="I160" t="n">
-        <v>0.9999832769414818</v>
+        <v>0.02671420583977825</v>
       </c>
       <c r="J160" t="n">
-        <v>0.002897220072769219</v>
+        <v>2.746668130831577</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.1389</v>
+        <v>5.151</v>
       </c>
       <c r="B161" t="n">
-        <v>7.072514935236623e-11</v>
+        <v>3.175364719854567e-10</v>
       </c>
       <c r="C161" t="n">
-        <v>7.004664211744626e-12</v>
+        <v>5.097728764194221e-11</v>
       </c>
       <c r="D161" t="n">
-        <v>3.503396497597422e-12</v>
+        <v>-4.07991756210457e-11</v>
       </c>
       <c r="E161" t="n">
-        <v>2.702951235494871e-11</v>
+        <v>1.692364587662392e-11</v>
       </c>
       <c r="F161" t="n">
-        <v>5.358802993042743e-11</v>
+        <v>3.316318650896722e-11</v>
       </c>
       <c r="G161" t="n">
-        <v>6.539269039243995e-11</v>
+        <v>3.657213091763826e-11</v>
       </c>
       <c r="H161" t="n">
-        <v>0.129772509444096</v>
+        <v>8.986810770944125</v>
       </c>
       <c r="I161" t="n">
-        <v>0.9979837709835687</v>
+        <v>0.06142999572132859</v>
       </c>
       <c r="J161" t="n">
-        <v>0.032443127361024</v>
+        <v>2.246702692736031</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.1417</v>
+        <v>5.157</v>
       </c>
       <c r="B162" t="n">
-        <v>6.438001545702313e-11</v>
+        <v>3.555061474479702e-10</v>
       </c>
       <c r="C162" t="n">
-        <v>1.609664094828895e-11</v>
+        <v>2.540338787296972e-11</v>
       </c>
       <c r="D162" t="n">
-        <v>4.818919073022773e-13</v>
+        <v>-2.501505458885182e-11</v>
       </c>
       <c r="E162" t="n">
-        <v>2.446559974608044e-11</v>
+        <v>1.605373821583445e-11</v>
       </c>
       <c r="F162" t="n">
-        <v>4.490507387917359e-11</v>
+        <v>3.163952601802155e-11</v>
       </c>
       <c r="G162" t="n">
-        <v>5.731886230426332e-11</v>
+        <v>3.444142642807799e-11</v>
       </c>
       <c r="H162" t="n">
-        <v>0.05796617628863834</v>
+        <v>1.405287352381697</v>
       </c>
       <c r="I162" t="n">
-        <v>0.9995880182264422</v>
+        <v>0.8432755303130204</v>
       </c>
       <c r="J162" t="n">
-        <v>0.01449154407215958</v>
+        <v>0.3513218380954243</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.1447</v>
+        <v>5.1594</v>
       </c>
       <c r="B163" t="n">
-        <v>5.920610915300197e-11</v>
+        <v>3.680943879185433e-10</v>
       </c>
       <c r="C163" t="n">
-        <v>9.267648382220952e-12</v>
+        <v>3.319299957930829e-11</v>
       </c>
       <c r="D163" t="n">
-        <v>1.272901930242327e-11</v>
+        <v>-6.742599017186401e-11</v>
       </c>
       <c r="E163" t="n">
-        <v>2.220317634962855e-11</v>
+        <v>1.500223732505255e-11</v>
       </c>
       <c r="F163" t="n">
-        <v>4.563623133684908e-11</v>
+        <v>2.93605753999028e-11</v>
       </c>
       <c r="G163" t="n">
-        <v>5.516621549365393e-11</v>
+        <v>3.242822260420297e-11</v>
       </c>
       <c r="H163" t="n">
-        <v>0.086202113434056</v>
+        <v>3.910161844555021</v>
       </c>
       <c r="I163" t="n">
-        <v>0.9990974126138938</v>
+        <v>0.4183006331414771</v>
       </c>
       <c r="J163" t="n">
-        <v>0.021550528358514</v>
+        <v>0.9775404611387554</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.148</v>
+        <v>5.17</v>
       </c>
       <c r="B164" t="n">
-        <v>6.424015924655304e-11</v>
+        <v>4.196587750894272e-10</v>
       </c>
       <c r="C164" t="n">
-        <v>1.136719651372363e-11</v>
+        <v>4.44459098391442e-11</v>
       </c>
       <c r="D164" t="n">
-        <v>1.011382281325001e-11</v>
+        <v>1.943954466376072e-11</v>
       </c>
       <c r="E164" t="n">
-        <v>2.411246337699966e-11</v>
+        <v>1.627804282636898e-11</v>
       </c>
       <c r="F164" t="n">
-        <v>5.017657869126846e-11</v>
+        <v>3.120761242381363e-11</v>
       </c>
       <c r="G164" t="n">
-        <v>5.835496020590251e-11</v>
+        <v>3.555217768548377e-11</v>
       </c>
       <c r="H164" t="n">
-        <v>0.1683212853507513</v>
+        <v>5.595913257368946</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9966510639500775</v>
+        <v>0.2314263876643134</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04208032133768782</v>
+        <v>1.398978314342237</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.15</v>
+        <v>5.1898</v>
       </c>
       <c r="B165" t="n">
-        <v>6.38249651529287e-11</v>
+        <v>4.303078674748987e-10</v>
       </c>
       <c r="C165" t="n">
-        <v>1.16323971190139e-11</v>
+        <v>7.184283182960055e-11</v>
       </c>
       <c r="D165" t="n">
-        <v>-8.442902818331157e-12</v>
+        <v>-2.569005719734293e-11</v>
       </c>
       <c r="E165" t="n">
-        <v>2.447737628745254e-11</v>
+        <v>1.318705702329738e-11</v>
       </c>
       <c r="F165" t="n">
-        <v>4.326613670248374e-11</v>
+        <v>2.426780319696522e-11</v>
       </c>
       <c r="G165" t="n">
-        <v>5.525931515625549e-11</v>
+        <v>2.970524426231225e-11</v>
       </c>
       <c r="H165" t="n">
-        <v>0.02785965341842586</v>
+        <v>7.2148651238682</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9999038762564405</v>
+        <v>0.1249599756110938</v>
       </c>
       <c r="J165" t="n">
-        <v>0.006964913354606465</v>
+        <v>1.80371628096705</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.151</v>
+        <v>5.21</v>
       </c>
       <c r="B166" t="n">
-        <v>6.197719008754544e-11</v>
+        <v>4.08558310972291e-10</v>
       </c>
       <c r="C166" t="n">
-        <v>1.158263633302924e-11</v>
+        <v>7.776468812103308e-11</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.311748345616747e-12</v>
+        <v>-1.600434866627506e-11</v>
       </c>
       <c r="E166" t="n">
-        <v>2.365456493538186e-11</v>
+        <v>1.343328276880555e-11</v>
       </c>
       <c r="F166" t="n">
-        <v>4.57400690083563e-11</v>
+        <v>2.525619171691587e-11</v>
       </c>
       <c r="G166" t="n">
-        <v>5.722894884981294e-11</v>
+        <v>3.055689671300907e-11</v>
       </c>
       <c r="H166" t="n">
-        <v>0.1178247405424059</v>
+        <v>3.320273813732505</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9983313390703786</v>
+        <v>0.5057264762351648</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02945618513560148</v>
+        <v>0.8300684534331263</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.157</v>
+        <v>5.23</v>
       </c>
       <c r="B167" t="n">
-        <v>5.544260896968778e-11</v>
+        <v>3.733138947009885e-10</v>
       </c>
       <c r="C167" t="n">
-        <v>5.796982513106814e-12</v>
+        <v>1.176887811967914e-10</v>
       </c>
       <c r="D167" t="n">
-        <v>6.713178215922065e-13</v>
+        <v>-5.463407400096155e-11</v>
       </c>
       <c r="E167" t="n">
-        <v>2.120414130943974e-11</v>
+        <v>1.722445897128673e-11</v>
       </c>
       <c r="F167" t="n">
-        <v>4.057662662569319e-11</v>
+        <v>3.183686507999334e-11</v>
       </c>
       <c r="G167" t="n">
-        <v>5.028166342752357e-11</v>
+        <v>3.79825054641474e-11</v>
       </c>
       <c r="H167" t="n">
-        <v>0.08068009303535983</v>
+        <v>5.838389474581817</v>
       </c>
       <c r="I167" t="n">
-        <v>0.9992078948797618</v>
+        <v>0.211546905694448</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02017002325883996</v>
+        <v>1.459597368645454</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.1594</v>
+        <v>5.2395</v>
       </c>
       <c r="B168" t="n">
-        <v>5.147813369887117e-11</v>
+        <v>3.656772684370028e-10</v>
       </c>
       <c r="C168" t="n">
-        <v>4.221306290865768e-12</v>
+        <v>3.462478709428627e-11</v>
       </c>
       <c r="D168" t="n">
-        <v>2.032561547262636e-11</v>
+        <v>-7.681049648191857e-12</v>
       </c>
       <c r="E168" t="n">
-        <v>1.921471770956034e-11</v>
+        <v>1.625443795738467e-11</v>
       </c>
       <c r="F168" t="n">
-        <v>4.11757509142351e-11</v>
+        <v>2.982966250950614e-11</v>
       </c>
       <c r="G168" t="n">
-        <v>4.827706626926491e-11</v>
+        <v>3.591720861580805e-11</v>
       </c>
       <c r="H168" t="n">
-        <v>0.09565396173182354</v>
+        <v>14.31685014486658</v>
       </c>
       <c r="I168" t="n">
-        <v>0.9988921109724371</v>
+        <v>0.006349533534468876</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02391349043295589</v>
+        <v>3.579212536216645</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.17</v>
+        <v>5.2431</v>
       </c>
       <c r="B169" t="n">
-        <v>3.120820255795508e-11</v>
+        <v>4.004933700476144e-10</v>
       </c>
       <c r="C169" t="n">
-        <v>7.187361414909835e-12</v>
+        <v>5.054188115688562e-11</v>
       </c>
       <c r="D169" t="n">
-        <v>1.38840705994737e-11</v>
+        <v>-3.339277425846058e-11</v>
       </c>
       <c r="E169" t="n">
-        <v>1.156912075055541e-11</v>
+        <v>2.334973637938338e-11</v>
       </c>
       <c r="F169" t="n">
-        <v>2.466653345721537e-11</v>
+        <v>4.550364807487578e-11</v>
       </c>
       <c r="G169" t="n">
-        <v>2.954411583049431e-11</v>
+        <v>5.209896106780133e-11</v>
       </c>
       <c r="H169" t="n">
-        <v>0.1453768527123291</v>
+        <v>1.572275881792747</v>
       </c>
       <c r="I169" t="n">
-        <v>0.9974827924361978</v>
+        <v>0.813766160079363</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03634421317808226</v>
+        <v>0.3930689704481867</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.1898</v>
+        <v>5.2501</v>
       </c>
       <c r="B170" t="n">
-        <v>2.666653594390296e-11</v>
+        <v>3.815959809568116e-10</v>
       </c>
       <c r="C170" t="n">
-        <v>-3.11240294382802e-12</v>
+        <v>8.053202444444994e-11</v>
       </c>
       <c r="D170" t="n">
-        <v>5.331128340007706e-12</v>
+        <v>-9.465743585037084e-11</v>
       </c>
       <c r="E170" t="n">
-        <v>1.043008471823591e-11</v>
+        <v>2.997958998649098e-11</v>
       </c>
       <c r="F170" t="n">
-        <v>2.295680677069401e-11</v>
+        <v>5.689112446288188e-11</v>
       </c>
       <c r="G170" t="n">
-        <v>2.596179905266822e-11</v>
+        <v>6.602907233000388e-11</v>
       </c>
       <c r="H170" t="n">
-        <v>0.3863034750773728</v>
+        <v>5.401380283720329</v>
       </c>
       <c r="I170" t="n">
-        <v>0.9835828422501096</v>
+        <v>0.2485351947312899</v>
       </c>
       <c r="J170" t="n">
-        <v>0.09657586876934321</v>
+        <v>1.350345070930082</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.21</v>
+        <v>5.2599</v>
       </c>
       <c r="B171" t="n">
-        <v>2.617007112317263e-11</v>
+        <v>3.184910344533292e-10</v>
       </c>
       <c r="C171" t="n">
-        <v>-1.914470209548017e-12</v>
+        <v>2.88490828489227e-10</v>
       </c>
       <c r="D171" t="n">
-        <v>1.445008449892428e-11</v>
+        <v>-2.722211118551587e-10</v>
       </c>
       <c r="E171" t="n">
-        <v>1.001449065686275e-11</v>
+        <v>3.208103841830271e-11</v>
       </c>
       <c r="F171" t="n">
-        <v>2.218257326685522e-11</v>
+        <v>4.362193334103088e-11</v>
       </c>
       <c r="G171" t="n">
-        <v>2.537258277106079e-11</v>
+        <v>6.448018794380097e-11</v>
       </c>
       <c r="H171" t="n">
-        <v>0.2537057926595772</v>
+        <v>5.626626044765319</v>
       </c>
       <c r="I171" t="n">
-        <v>0.992603294709806</v>
+        <v>0.2288211347893327</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0634264481648943</v>
+        <v>1.40665651119133</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.23</v>
+        <v>5.265</v>
       </c>
       <c r="B172" t="n">
-        <v>2.824017976905674e-11</v>
+        <v>3.72212830918589e-10</v>
       </c>
       <c r="C172" t="n">
-        <v>4.09114092019708e-14</v>
+        <v>9.729945599207557e-11</v>
       </c>
       <c r="D172" t="n">
-        <v>3.324475230662919e-12</v>
+        <v>-1.336857590842268e-10</v>
       </c>
       <c r="E172" t="n">
-        <v>1.082286134291956e-11</v>
+        <v>4.195004952239514e-11</v>
       </c>
       <c r="F172" t="n">
-        <v>2.171351383406138e-11</v>
+        <v>7.791097396496873e-11</v>
       </c>
       <c r="G172" t="n">
-        <v>2.603433602182126e-11</v>
+        <v>9.003394341641747e-11</v>
       </c>
       <c r="H172" t="n">
-        <v>0.2452130765294066</v>
+        <v>5.246096630013328</v>
       </c>
       <c r="I172" t="n">
-        <v>0.9930708276521636</v>
+        <v>0.2629654649122329</v>
       </c>
       <c r="J172" t="n">
-        <v>0.06130326913235164</v>
+        <v>1.311524157503332</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.2395</v>
+        <v>5.27</v>
       </c>
       <c r="B173" t="n">
-        <v>4.223695356526563e-11</v>
+        <v>3.142429109631112e-10</v>
       </c>
       <c r="C173" t="n">
-        <v>-3.32207050213603e-13</v>
+        <v>1.880293935834885e-10</v>
       </c>
       <c r="D173" t="n">
-        <v>1.086060792613267e-11</v>
+        <v>-1.318554132907096e-10</v>
       </c>
       <c r="E173" t="n">
-        <v>1.612506930790668e-11</v>
+        <v>4.411434629255658e-11</v>
       </c>
       <c r="F173" t="n">
-        <v>3.355048511843782e-11</v>
+        <v>8.688638156530491e-11</v>
       </c>
       <c r="G173" t="n">
-        <v>3.94932423114852e-11</v>
+        <v>9.632150419498544e-11</v>
       </c>
       <c r="H173" t="n">
-        <v>0.1429621328347291</v>
+        <v>5.632304878656067</v>
       </c>
       <c r="I173" t="n">
-        <v>0.997563771625241</v>
+        <v>0.2283422362831941</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03574053320868226</v>
+        <v>1.408076219664017</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.2431</v>
+        <v>5.275</v>
       </c>
       <c r="B174" t="n">
-        <v>4.365356549300826e-11</v>
+        <v>2.387117533421439e-10</v>
       </c>
       <c r="C174" t="n">
-        <v>3.932293755262238e-12</v>
+        <v>1.970964705737311e-10</v>
       </c>
       <c r="D174" t="n">
-        <v>2.190266351827946e-11</v>
+        <v>-1.513496356216332e-10</v>
       </c>
       <c r="E174" t="n">
-        <v>1.621671551488022e-11</v>
+        <v>2.617740949508752e-11</v>
       </c>
       <c r="F174" t="n">
-        <v>3.44185342258939e-11</v>
+        <v>3.538588212520352e-11</v>
       </c>
       <c r="G174" t="n">
-        <v>3.884110390681363e-11</v>
+        <v>5.247325109681463e-11</v>
       </c>
       <c r="H174" t="n">
-        <v>0.07657318915499554</v>
+        <v>17.95615588773063</v>
       </c>
       <c r="I174" t="n">
-        <v>0.9992855101022402</v>
+        <v>0.08260354357426133</v>
       </c>
       <c r="J174" t="n">
-        <v>0.01914329728874889</v>
+        <v>1.632377807975512</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.2501</v>
+        <v>5.2798</v>
       </c>
       <c r="B175" t="n">
-        <v>5.162384140955809e-11</v>
+        <v>3.367490526990031e-10</v>
       </c>
       <c r="C175" t="n">
-        <v>1.743186380018208e-11</v>
+        <v>7.422089491348728e-11</v>
       </c>
       <c r="D175" t="n">
-        <v>1.535333191064838e-11</v>
+        <v>-3.809112572213091e-11</v>
       </c>
       <c r="E175" t="n">
-        <v>1.937132454615791e-11</v>
+        <v>5.957424428006344e-11</v>
       </c>
       <c r="F175" t="n">
-        <v>3.832851712258697e-11</v>
+        <v>1.01128274870001e-10</v>
       </c>
       <c r="G175" t="n">
-        <v>4.434561821541821e-11</v>
+        <v>1.2550262018047e-10</v>
       </c>
       <c r="H175" t="n">
-        <v>0.2431281042919153</v>
+        <v>5.34085398021728</v>
       </c>
       <c r="I175" t="n">
-        <v>0.993183472768003</v>
+        <v>0.2540767254868881</v>
       </c>
       <c r="J175" t="n">
-        <v>0.06078202607297881</v>
+        <v>1.33521349505432</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.2599</v>
+        <v>5.285</v>
       </c>
       <c r="B176" t="n">
-        <v>8.282221009382838e-11</v>
+        <v>3.201935859662919e-10</v>
       </c>
       <c r="C176" t="n">
-        <v>-9.953675761757034e-12</v>
+        <v>8.78787646400495e-11</v>
       </c>
       <c r="D176" t="n">
-        <v>2.382648047924777e-11</v>
+        <v>-2.703467636042125e-10</v>
       </c>
       <c r="E176" t="n">
-        <v>3.184259714832835e-11</v>
+        <v>7.301827562448657e-11</v>
       </c>
       <c r="F176" t="n">
-        <v>6.276722319614166e-11</v>
+        <v>1.655089209965684e-10</v>
       </c>
       <c r="G176" t="n">
-        <v>7.285604094303948e-11</v>
+        <v>1.772629333932485e-10</v>
       </c>
       <c r="H176" t="n">
-        <v>0.07548583451261275</v>
+        <v>0.8169062570513135</v>
       </c>
       <c r="I176" t="n">
-        <v>0.9993054069166439</v>
+        <v>0.8454191526743703</v>
       </c>
       <c r="J176" t="n">
-        <v>0.01887145862815319</v>
+        <v>0.2723020856837712</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.265</v>
+        <v>5.2902</v>
       </c>
       <c r="B177" t="n">
-        <v>1.060560315324756e-10</v>
+        <v>2.862199109159006e-10</v>
       </c>
       <c r="C177" t="n">
-        <v>1.557316308612348e-11</v>
+        <v>2.046313024189465e-10</v>
       </c>
       <c r="D177" t="n">
-        <v>1.057329413233832e-11</v>
+        <v>-2.717495573812665e-10</v>
       </c>
       <c r="E177" t="n">
-        <v>4.001920912233668e-11</v>
+        <v>5.858016659317814e-11</v>
       </c>
       <c r="F177" t="n">
-        <v>7.970133689899856e-11</v>
+        <v>1.094335868955072e-10</v>
       </c>
       <c r="G177" t="n">
-        <v>9.555824245125982e-11</v>
+        <v>1.343575491179115e-10</v>
       </c>
       <c r="H177" t="n">
-        <v>0.08313173697874281</v>
+        <v>1.653617629603507</v>
       </c>
       <c r="I177" t="n">
-        <v>0.999159708341459</v>
+        <v>0.7991247703952353</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0207829342446857</v>
+        <v>0.4134044074008767</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.27</v>
+        <v>5.2929</v>
       </c>
       <c r="B178" t="n">
-        <v>1.166638001935173e-10</v>
+        <v>1.246038119168847e-10</v>
       </c>
       <c r="C178" t="n">
-        <v>1.870303272148854e-12</v>
+        <v>8.590578050021526e-11</v>
       </c>
       <c r="D178" t="n">
-        <v>3.509642616861907e-11</v>
+        <v>-1.245405433864757e-10</v>
       </c>
       <c r="E178" t="n">
-        <v>4.421835577110128e-11</v>
+        <v>5.113718963174615e-11</v>
       </c>
       <c r="F178" t="n">
-        <v>9.16205530808346e-11</v>
+        <v>4.444831169520891e-11</v>
       </c>
       <c r="G178" t="n">
-        <v>1.089177149791775e-10</v>
+        <v>1.07968126761085e-10</v>
       </c>
       <c r="H178" t="n">
-        <v>0.1019857103872695</v>
+        <v>10.48270620443912</v>
       </c>
       <c r="I178" t="n">
-        <v>0.9987432289739744</v>
+        <v>0.03303604304569648</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02549642759681738</v>
+        <v>2.62067655110978</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.275</v>
+        <v>5.2977</v>
       </c>
       <c r="B179" t="n">
-        <v>1.416281102397279e-10</v>
+        <v>1.899385840971457e-10</v>
       </c>
       <c r="C179" t="n">
-        <v>2.813000820716776e-11</v>
+        <v>-9.71634131121833e-11</v>
       </c>
       <c r="D179" t="n">
-        <v>2.023525295466631e-11</v>
+        <v>-5.293030515888543e-11</v>
       </c>
       <c r="E179" t="n">
-        <v>3.766598531072913e-11</v>
+        <v>4.985342442621069e-11</v>
       </c>
       <c r="F179" t="n">
-        <v>7.639488819825242e-11</v>
+        <v>8.264885186258213e-11</v>
       </c>
       <c r="G179" t="n">
-        <v>9.221313097103025e-11</v>
+        <v>1.114306606944899e-10</v>
       </c>
       <c r="H179" t="n">
-        <v>0.3025195187841526</v>
+        <v>11.66408017962306</v>
       </c>
       <c r="I179" t="n">
-        <v>0.9999999058627971</v>
+        <v>0.02003215061453606</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02750177443492297</v>
+        <v>2.916020044905766</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.2798</v>
+        <v>5.2997</v>
       </c>
       <c r="B180" t="n">
-        <v>1.98312344705625e-10</v>
+        <v>1.384029555177489e-10</v>
       </c>
       <c r="C180" t="n">
-        <v>4.221572089121957e-11</v>
+        <v>-5.091023832365128e-11</v>
       </c>
       <c r="D180" t="n">
-        <v>3.006629633564667e-11</v>
+        <v>-3.076446405290249e-11</v>
       </c>
       <c r="E180" t="n">
-        <v>7.510220322735191e-11</v>
+        <v>4.162085152470479e-11</v>
       </c>
       <c r="F180" t="n">
-        <v>1.453350925832735e-10</v>
+        <v>7.292013871390406e-11</v>
       </c>
       <c r="G180" t="n">
-        <v>1.867866243425423e-10</v>
+        <v>8.764825887455916e-11</v>
       </c>
       <c r="H180" t="n">
-        <v>0.09805414657265596</v>
+        <v>2.23510419439231</v>
       </c>
       <c r="I180" t="n">
-        <v>0.9988367415669342</v>
+        <v>0.6926078265775437</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02451353664316399</v>
+        <v>0.5587760485980776</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.285</v>
+        <v>5.3024</v>
       </c>
       <c r="B181" t="n">
-        <v>2.257348757659936e-10</v>
+        <v>2.33320645785998e-10</v>
       </c>
       <c r="C181" t="n">
-        <v>2.79012895017517e-11</v>
+        <v>2.42701491002739e-10</v>
       </c>
       <c r="D181" t="n">
-        <v>3.764746597951021e-11</v>
+        <v>-1.807263997876781e-10</v>
       </c>
       <c r="E181" t="n">
-        <v>8.490349987862349e-11</v>
+        <v>5.057869852184317e-11</v>
       </c>
       <c r="F181" t="n">
-        <v>1.659187205317027e-10</v>
+        <v>5.826807505815213e-11</v>
       </c>
       <c r="G181" t="n">
-        <v>1.97521042639369e-10</v>
+        <v>9.968947090669839e-11</v>
       </c>
       <c r="H181" t="n">
-        <v>0.0267603357506473</v>
+        <v>2.146208213235904</v>
       </c>
       <c r="I181" t="n">
-        <v>0.9999112800405295</v>
+        <v>0.7088884818615711</v>
       </c>
       <c r="J181" t="n">
-        <v>0.006690083937661825</v>
+        <v>0.536552053308976</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.2902</v>
+        <v>5.3082</v>
       </c>
       <c r="B182" t="n">
-        <v>2.994697636144324e-10</v>
+        <v>2.499384688825496e-10</v>
       </c>
       <c r="C182" t="n">
-        <v>5.119344971266931e-11</v>
+        <v>9.827268838752722e-11</v>
       </c>
       <c r="D182" t="n">
-        <v>2.638219403948917e-11</v>
+        <v>-2.407891929661869e-10</v>
       </c>
       <c r="E182" t="n">
-        <v>1.141318959472402e-10</v>
+        <v>3.893027920355328e-11</v>
       </c>
       <c r="F182" t="n">
-        <v>2.117539625032647e-10</v>
+        <v>6.876969841760293e-11</v>
       </c>
       <c r="G182" t="n">
-        <v>2.764539919096434e-10</v>
+        <v>8.558966486140368e-11</v>
       </c>
       <c r="H182" t="n">
-        <v>0.04685812068288588</v>
+        <v>1.967165283555441</v>
       </c>
       <c r="I182" t="n">
-        <v>0.9997297890357165</v>
+        <v>0.7417982173641796</v>
       </c>
       <c r="J182" t="n">
-        <v>0.01171453017072147</v>
+        <v>0.4917913208888604</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.2929</v>
+        <v>5.3129</v>
       </c>
       <c r="B183" t="n">
-        <v>3.427489211793966e-10</v>
+        <v>2.225860636657236e-10</v>
       </c>
       <c r="C183" t="n">
-        <v>6.380607153632925e-11</v>
+        <v>3.641707344112495e-12</v>
       </c>
       <c r="D183" t="n">
-        <v>2.359692894647798e-11</v>
+        <v>4.409937592790204e-11</v>
       </c>
       <c r="E183" t="n">
-        <v>1.302573170504782e-10</v>
+        <v>3.731357637967493e-11</v>
       </c>
       <c r="F183" t="n">
-        <v>2.46693232496777e-10</v>
+        <v>7.218664225057683e-11</v>
       </c>
       <c r="G183" t="n">
-        <v>3.161394491890358e-10</v>
+        <v>8.717493415990509e-11</v>
       </c>
       <c r="H183" t="n">
-        <v>0.05366220842355766</v>
+        <v>9.635233639927831</v>
       </c>
       <c r="I183" t="n">
-        <v>0.9996464202444244</v>
+        <v>0.04704145131011388</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01341555210588941</v>
+        <v>2.408808409981958</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.2977</v>
+        <v>5.3175</v>
       </c>
       <c r="B184" t="n">
-        <v>3.322712472498266e-10</v>
+        <v>1.799522007774045e-10</v>
       </c>
       <c r="C184" t="n">
-        <v>5.6861846990281e-11</v>
+        <v>6.432136473530393e-11</v>
       </c>
       <c r="D184" t="n">
-        <v>4.585763754064859e-11</v>
+        <v>-2.75500159298895e-11</v>
       </c>
       <c r="E184" t="n">
-        <v>1.250666522797435e-10</v>
+        <v>3.414173527435112e-11</v>
       </c>
       <c r="F184" t="n">
-        <v>2.439137471110342e-10</v>
+        <v>7.018146891033792e-11</v>
       </c>
       <c r="G184" t="n">
-        <v>3.016506175843651e-10</v>
+        <v>7.770488261347592e-11</v>
       </c>
       <c r="H184" t="n">
-        <v>0.02917144986750655</v>
+        <v>1.042690863455572</v>
       </c>
       <c r="I184" t="n">
-        <v>0.9998946570173166</v>
+        <v>0.9032550338451211</v>
       </c>
       <c r="J184" t="n">
-        <v>0.007292862466876637</v>
+        <v>0.260672715863893</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.2997</v>
+        <v>5.3228</v>
       </c>
       <c r="B185" t="n">
-        <v>3.325563498478674e-10</v>
+        <v>2.594509465917019e-10</v>
       </c>
       <c r="C185" t="n">
-        <v>4.412770877174866e-11</v>
+        <v>2.458087270168017e-11</v>
       </c>
       <c r="D185" t="n">
-        <v>3.865914531633906e-11</v>
+        <v>-1.736159579294961e-11</v>
       </c>
       <c r="E185" t="n">
-        <v>1.265671644110356e-10</v>
+        <v>3.011590197713074e-11</v>
       </c>
       <c r="F185" t="n">
-        <v>2.390285168861315e-10</v>
+        <v>6.152312818841837e-11</v>
       </c>
       <c r="G185" t="n">
-        <v>3.036706433433705e-10</v>
+        <v>6.683967809518032e-11</v>
       </c>
       <c r="H185" t="n">
-        <v>0.05755230478832198</v>
+        <v>2.209106611670844</v>
       </c>
       <c r="I185" t="n">
-        <v>0.9995938243288499</v>
+        <v>0.6973623952996238</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01438807619708049</v>
+        <v>0.5522766529177111</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.3024</v>
+        <v>5.3277</v>
       </c>
       <c r="B186" t="n">
-        <v>3.084398998250175e-10</v>
+        <v>2.862401978193999e-10</v>
       </c>
       <c r="C186" t="n">
-        <v>3.692298230743244e-11</v>
+        <v>-2.717703133085937e-11</v>
       </c>
       <c r="D186" t="n">
-        <v>4.056151917673548e-11</v>
+        <v>-1.508391532544737e-11</v>
       </c>
       <c r="E186" t="n">
-        <v>1.168856339439927e-10</v>
+        <v>2.849205490544573e-11</v>
       </c>
       <c r="F186" t="n">
-        <v>2.245229886850255e-10</v>
+        <v>5.877982099522993e-11</v>
       </c>
       <c r="G186" t="n">
-        <v>2.776826136061104e-10</v>
+        <v>6.381199602207029e-11</v>
       </c>
       <c r="H186" t="n">
-        <v>0.03758880491097508</v>
+        <v>6.36153925830083</v>
       </c>
       <c r="I186" t="n">
-        <v>0.9998255826125011</v>
+        <v>0.1737262876589847</v>
       </c>
       <c r="J186" t="n">
-        <v>0.009397201227743769</v>
+        <v>1.590384814575208</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.3082</v>
+        <v>5.3329</v>
       </c>
       <c r="B187" t="n">
-        <v>2.762580799765077e-10</v>
+        <v>2.658611180614171e-10</v>
       </c>
       <c r="C187" t="n">
-        <v>6.210508423357253e-11</v>
+        <v>1.026687852324767e-10</v>
       </c>
       <c r="D187" t="n">
-        <v>4.614502269346053e-11</v>
+        <v>-9.98103144397652e-11</v>
       </c>
       <c r="E187" t="n">
-        <v>1.036287552839066e-10</v>
+        <v>1.795398440818964e-11</v>
       </c>
       <c r="F187" t="n">
-        <v>2.032809259945516e-10</v>
+        <v>3.449320336606025e-11</v>
       </c>
       <c r="G187" t="n">
-        <v>2.572435395302347e-10</v>
+        <v>3.950857381942595e-11</v>
       </c>
       <c r="H187" t="n">
-        <v>0.04126179254814953</v>
+        <v>12.29849324293959</v>
       </c>
       <c r="I187" t="n">
-        <v>0.9997900876074752</v>
+        <v>0.3416298082968747</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01031544813703738</v>
+        <v>1.118044840267235</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.3129</v>
+        <v>5.3375</v>
       </c>
       <c r="B188" t="n">
-        <v>2.632447218795041e-10</v>
+        <v>2.980386201182889e-10</v>
       </c>
       <c r="C188" t="n">
-        <v>3.946714107291738e-11</v>
+        <v>4.564405081319232e-11</v>
       </c>
       <c r="D188" t="n">
-        <v>2.208115347444172e-11</v>
+        <v>-1.403480456889498e-12</v>
       </c>
       <c r="E188" t="n">
-        <v>9.94570144674584e-11</v>
+        <v>2.149131831399216e-11</v>
       </c>
       <c r="F188" t="n">
-        <v>1.960783453954385e-10</v>
+        <v>4.492471666096495e-11</v>
       </c>
       <c r="G188" t="n">
-        <v>2.381543583511048e-10</v>
+        <v>4.857938839185562e-11</v>
       </c>
       <c r="H188" t="n">
-        <v>0.06719731393413202</v>
+        <v>4.60663911895821</v>
       </c>
       <c r="I188" t="n">
-        <v>0.9994480500847495</v>
+        <v>0.3300894272728168</v>
       </c>
       <c r="J188" t="n">
-        <v>0.016799328483533</v>
+        <v>1.151659779739552</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.3175</v>
+        <v>5.3427</v>
       </c>
       <c r="B189" t="n">
-        <v>2.280145125625489e-10</v>
+        <v>3.038516501181135e-10</v>
       </c>
       <c r="C189" t="n">
-        <v>4.673145862019519e-11</v>
+        <v>6.464449582010384e-11</v>
       </c>
       <c r="D189" t="n">
-        <v>2.411001030695119e-11</v>
+        <v>-3.314840067880937e-12</v>
       </c>
       <c r="E189" t="n">
-        <v>8.585930219895154e-11</v>
+        <v>2.011409847686411e-11</v>
       </c>
       <c r="F189" t="n">
-        <v>1.628690278475813e-10</v>
+        <v>4.034543658427993e-11</v>
       </c>
       <c r="G189" t="n">
-        <v>2.044262176724618e-10</v>
+        <v>4.472026393469705e-11</v>
       </c>
       <c r="H189" t="n">
-        <v>0.009341169817454271</v>
+        <v>5.272985861567149</v>
       </c>
       <c r="I189" t="n">
-        <v>0.9999891267208414</v>
+        <v>0.2604164511628525</v>
       </c>
       <c r="J189" t="n">
-        <v>0.002335292454363568</v>
+        <v>1.318246465391787</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.3228</v>
+        <v>5.3429</v>
       </c>
       <c r="B190" t="n">
-        <v>1.860862664011147e-10</v>
+        <v>3.120528102258924e-10</v>
       </c>
       <c r="C190" t="n">
-        <v>4.178122907196959e-11</v>
+        <v>4.561930701691242e-11</v>
       </c>
       <c r="D190" t="n">
-        <v>2.056484841969551e-11</v>
+        <v>-1.963084537246496e-11</v>
       </c>
       <c r="E190" t="n">
-        <v>7.032029728611512e-11</v>
+        <v>1.821480967394458e-11</v>
       </c>
       <c r="F190" t="n">
-        <v>1.327710581651237e-10</v>
+        <v>3.672964542645324e-11</v>
       </c>
       <c r="G190" t="n">
-        <v>1.720519211979156e-10</v>
+        <v>4.125447885428385e-11</v>
       </c>
       <c r="H190" t="n">
-        <v>0.02505033099404457</v>
+        <v>6.415080795349496</v>
       </c>
       <c r="I190" t="n">
-        <v>0.9999222120301741</v>
+        <v>0.1702202402902159</v>
       </c>
       <c r="J190" t="n">
-        <v>0.006262582748511142</v>
+        <v>1.603770198837374</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.3277</v>
+        <v>5.3469</v>
       </c>
       <c r="B191" t="n">
-        <v>1.664682666881505e-10</v>
+        <v>3.194992897399273e-10</v>
       </c>
       <c r="C191" t="n">
-        <v>2.992464430564855e-11</v>
+        <v>1.031871541631011e-11</v>
       </c>
       <c r="D191" t="n">
-        <v>1.189742870866408e-11</v>
+        <v>-3.745909367024305e-11</v>
       </c>
       <c r="E191" t="n">
-        <v>6.286589419916731e-11</v>
+        <v>1.719779887211935e-11</v>
       </c>
       <c r="F191" t="n">
-        <v>1.222100924436189e-10</v>
+        <v>3.428824828576888e-11</v>
       </c>
       <c r="G191" t="n">
-        <v>1.511124499553231e-10</v>
+        <v>3.795070691443572e-11</v>
       </c>
       <c r="H191" t="n">
-        <v>0.0511882978259358</v>
+        <v>1.268577113209842</v>
       </c>
       <c r="I191" t="n">
-        <v>0.9996780050684679</v>
+        <v>0.8666838815346263</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01279707445648395</v>
+        <v>0.3171442783024606</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.3329</v>
+        <v>5.3483</v>
       </c>
       <c r="B192" t="n">
-        <v>1.350298552382104e-10</v>
+        <v>3.214698241440918e-10</v>
       </c>
       <c r="C192" t="n">
-        <v>1.241073293305378e-11</v>
+        <v>4.759003679640361e-11</v>
       </c>
       <c r="D192" t="n">
-        <v>1.525829574862504e-11</v>
+        <v>1.541387039708632e-11</v>
       </c>
       <c r="E192" t="n">
-        <v>3.634272687924539e-11</v>
+        <v>1.534555824795513e-11</v>
       </c>
       <c r="F192" t="n">
-        <v>7.189174058620529e-11</v>
+        <v>3.068126197070247e-11</v>
       </c>
       <c r="G192" t="n">
-        <v>8.778847357397169e-11</v>
+        <v>3.475992176844078e-11</v>
       </c>
       <c r="H192" t="n">
-        <v>0.2583466512571707</v>
+        <v>6.344031657963063</v>
       </c>
       <c r="I192" t="n">
-        <v>0.999999959744438</v>
+        <v>0.1748867779210226</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02348605920519733</v>
+        <v>1.586007914490766</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.3375</v>
+        <v>5.3486</v>
       </c>
       <c r="B193" t="n">
-        <v>1.018692901829437e-10</v>
+        <v>3.235626305086967e-10</v>
       </c>
       <c r="C193" t="n">
-        <v>1.051812484031862e-11</v>
+        <v>2.740946895350721e-11</v>
       </c>
       <c r="D193" t="n">
-        <v>1.993307800943823e-11</v>
+        <v>-3.50505092504218e-11</v>
       </c>
       <c r="E193" t="n">
-        <v>3.835692378980691e-11</v>
+        <v>1.484549326977394e-11</v>
       </c>
       <c r="F193" t="n">
-        <v>7.76599943045338e-11</v>
+        <v>2.965915077106004e-11</v>
       </c>
       <c r="G193" t="n">
-        <v>9.143562745514862e-11</v>
+        <v>3.302206008592106e-11</v>
       </c>
       <c r="H193" t="n">
-        <v>0.07549900418336832</v>
+        <v>0.1692402977757667</v>
       </c>
       <c r="I193" t="n">
-        <v>0.9993051675711259</v>
+        <v>0.9966154242499565</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01887475104584208</v>
+        <v>0.04231007444394168</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.3427</v>
+        <v>5.3521</v>
       </c>
       <c r="B194" t="n">
-        <v>7.16382955483146e-11</v>
+        <v>2.990930256134452e-10</v>
       </c>
       <c r="C194" t="n">
-        <v>-3.284861962939196e-15</v>
+        <v>3.919421171011179e-11</v>
       </c>
       <c r="D194" t="n">
-        <v>2.192161962111352e-11</v>
+        <v>-3.220051570340045e-11</v>
       </c>
       <c r="E194" t="n">
-        <v>2.721576281399812e-11</v>
+        <v>2.287491239359362e-11</v>
       </c>
       <c r="F194" t="n">
-        <v>5.977015218969977e-11</v>
+        <v>4.883299031160366e-11</v>
       </c>
       <c r="G194" t="n">
-        <v>6.61512211958221e-11</v>
+        <v>5.007182637567879e-11</v>
       </c>
       <c r="H194" t="n">
-        <v>0.2032905719521025</v>
+        <v>5.63242329917172</v>
       </c>
       <c r="I194" t="n">
-        <v>0.9951711872696074</v>
+        <v>0.2283322591595253</v>
       </c>
       <c r="J194" t="n">
-        <v>0.05082264298802561</v>
+        <v>1.40810582479293</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.3429</v>
+        <v>5.3536</v>
       </c>
       <c r="B195" t="n">
-        <v>7.521338216667898e-11</v>
+        <v>3.379928266770639e-10</v>
       </c>
       <c r="C195" t="n">
-        <v>5.303088131669462e-12</v>
+        <v>-7.463785213939254e-12</v>
       </c>
       <c r="D195" t="n">
-        <v>1.792657222778497e-11</v>
+        <v>2.420583350688974e-11</v>
       </c>
       <c r="E195" t="n">
-        <v>2.839466619998645e-11</v>
+        <v>1.453395696001224e-11</v>
       </c>
       <c r="F195" t="n">
-        <v>5.817802112346401e-11</v>
+        <v>2.897036911041875e-11</v>
       </c>
       <c r="G195" t="n">
-        <v>6.82535375864963e-11</v>
+        <v>3.212038588683209e-11</v>
       </c>
       <c r="H195" t="n">
-        <v>0.1022887327278391</v>
+        <v>4.921961094309997</v>
       </c>
       <c r="I195" t="n">
-        <v>0.998735876730765</v>
+        <v>0.2953989087300715</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02557218318195978</v>
+        <v>1.230490273577499</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.3469</v>
+        <v>5.3579</v>
       </c>
       <c r="B196" t="n">
-        <v>6.116409161132459e-11</v>
+        <v>2.88103850510123e-10</v>
       </c>
       <c r="C196" t="n">
-        <v>-4.61952363337694e-12</v>
+        <v>8.498286306420215e-11</v>
       </c>
       <c r="D196" t="n">
-        <v>1.365130491303541e-11</v>
+        <v>-6.09438647060944e-11</v>
       </c>
       <c r="E196" t="n">
-        <v>2.356217716885786e-11</v>
+        <v>2.353688510388377e-11</v>
       </c>
       <c r="F196" t="n">
-        <v>5.145938709480037e-11</v>
+        <v>4.659712041411131e-11</v>
       </c>
       <c r="G196" t="n">
-        <v>5.694874570971234e-11</v>
+        <v>5.10823717839119e-11</v>
       </c>
       <c r="H196" t="n">
-        <v>0.2500939003642783</v>
+        <v>6.214955424542655</v>
       </c>
       <c r="I196" t="n">
-        <v>0.9928038353828381</v>
+        <v>0.183660089871181</v>
       </c>
       <c r="J196" t="n">
-        <v>0.06252347509106958</v>
+        <v>1.553738856135664</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.3483</v>
+        <v>5.3598</v>
       </c>
       <c r="B197" t="n">
-        <v>5.958121650723646e-11</v>
+        <v>3.161556425720684e-10</v>
       </c>
       <c r="C197" t="n">
-        <v>1.660446520436996e-12</v>
+        <v>3.7879409184409e-11</v>
       </c>
       <c r="D197" t="n">
-        <v>1.167094249257317e-11</v>
+        <v>-3.735484570841315e-11</v>
       </c>
       <c r="E197" t="n">
-        <v>2.268599672085616e-11</v>
+        <v>2.308150161388546e-11</v>
       </c>
       <c r="F197" t="n">
-        <v>4.793577026356422e-11</v>
+        <v>4.67385361845425e-11</v>
       </c>
       <c r="G197" t="n">
-        <v>5.534744451824549e-11</v>
+        <v>5.109857187950258e-11</v>
       </c>
       <c r="H197" t="n">
-        <v>0.1723139604105246</v>
+        <v>4.628541728557075</v>
       </c>
       <c r="I197" t="n">
-        <v>0.9964949369772512</v>
+        <v>0.3275766467938472</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04307849010263116</v>
+        <v>1.157135432139269</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.3486</v>
+        <v>5.3619</v>
       </c>
       <c r="B198" t="n">
-        <v>5.85957164825034e-11</v>
+        <v>3.150131001700857e-10</v>
       </c>
       <c r="C198" t="n">
-        <v>-5.261047508972296e-12</v>
+        <v>8.050880600633068e-11</v>
       </c>
       <c r="D198" t="n">
-        <v>1.547019262713032e-11</v>
+        <v>-1.004787304992125e-10</v>
       </c>
       <c r="E198" t="n">
-        <v>2.24761224497934e-11</v>
+        <v>2.23951589581722e-11</v>
       </c>
       <c r="F198" t="n">
-        <v>4.729223837012118e-11</v>
+        <v>4.431548238453493e-11</v>
       </c>
       <c r="G198" t="n">
-        <v>5.296121376904675e-11</v>
+        <v>4.904656876174868e-11</v>
       </c>
       <c r="H198" t="n">
-        <v>0.146553860801521</v>
+        <v>8.674462172078284</v>
       </c>
       <c r="I198" t="n">
-        <v>0.9974428648450843</v>
+        <v>0.06977188871834782</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03663846520038026</v>
+        <v>2.168615543019571</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.3521</v>
+        <v>5.3639</v>
       </c>
       <c r="B199" t="n">
-        <v>7.879336648489661e-11</v>
+        <v>2.935634009374196e-10</v>
       </c>
       <c r="C199" t="n">
-        <v>6.703381324789153e-12</v>
+        <v>4.689540610384695e-11</v>
       </c>
       <c r="D199" t="n">
-        <v>2.801802546763075e-11</v>
+        <v>-6.807278196220205e-11</v>
       </c>
       <c r="E199" t="n">
-        <v>2.996327343241358e-11</v>
+        <v>2.16109748859748e-11</v>
       </c>
       <c r="F199" t="n">
-        <v>6.83593504374182e-11</v>
+        <v>4.168067750453708e-11</v>
       </c>
       <c r="G199" t="n">
-        <v>7.95272434931246e-11</v>
+        <v>4.732614969520396e-11</v>
       </c>
       <c r="H199" t="n">
-        <v>0.3427694379559721</v>
+        <v>6.333097146959141</v>
       </c>
       <c r="I199" t="n">
-        <v>0.9868885641864281</v>
+        <v>0.1756151087779036</v>
       </c>
       <c r="J199" t="n">
-        <v>0.08569235948899304</v>
+        <v>1.583274286739785</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.3536</v>
+        <v>5.366</v>
       </c>
       <c r="B200" t="n">
-        <v>6.791158421240104e-11</v>
+        <v>2.647492348263629e-10</v>
       </c>
       <c r="C200" t="n">
-        <v>6.189173633942737e-12</v>
+        <v>4.386349974789491e-11</v>
       </c>
       <c r="D200" t="n">
-        <v>1.575470780833482e-11</v>
+        <v>-1.380820982024612e-11</v>
       </c>
       <c r="E200" t="n">
-        <v>2.55959665436739e-11</v>
+        <v>2.14755847676715e-11</v>
       </c>
       <c r="F200" t="n">
-        <v>5.326791631714474e-11</v>
+        <v>4.176989344898596e-11</v>
       </c>
       <c r="G200" t="n">
-        <v>6.301828572499123e-11</v>
+        <v>4.753747255608364e-11</v>
       </c>
       <c r="H200" t="n">
-        <v>0.105291369170386</v>
+        <v>5.725708228489335</v>
       </c>
       <c r="I200" t="n">
-        <v>0.9986619061155479</v>
+        <v>0.2205903767561468</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0263228422925965</v>
+        <v>1.431427057122334</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.3579</v>
+        <v>5.368</v>
       </c>
       <c r="B201" t="n">
-        <v>9.192292519813254e-11</v>
+        <v>3.022642813484477e-10</v>
       </c>
       <c r="C201" t="n">
-        <v>2.235534176725106e-11</v>
+        <v>6.203839016713069e-12</v>
       </c>
       <c r="D201" t="n">
-        <v>1.271901833894444e-11</v>
+        <v>1.868521499001608e-11</v>
       </c>
       <c r="E201" t="n">
-        <v>3.441487424487286e-11</v>
+        <v>1.717933223458785e-11</v>
       </c>
       <c r="F201" t="n">
-        <v>7.014335920418798e-11</v>
+        <v>3.527423344801433e-11</v>
       </c>
       <c r="G201" t="n">
-        <v>8.498318999154206e-11</v>
+        <v>3.82417875179559e-11</v>
       </c>
       <c r="H201" t="n">
-        <v>0.1063840204645938</v>
+        <v>2.182856098294081</v>
       </c>
       <c r="I201" t="n">
-        <v>0.9986344853608775</v>
+        <v>0.7021691571419235</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02659600511614845</v>
+        <v>0.5457140245735201</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.3598</v>
+        <v>5.3697</v>
       </c>
       <c r="B202" t="n">
-        <v>8.49327057425267e-11</v>
+        <v>3.073168031140207e-10</v>
       </c>
       <c r="C202" t="n">
-        <v>1.884586281374756e-11</v>
+        <v>1.543715750430956e-10</v>
       </c>
       <c r="D202" t="n">
-        <v>2.028059839548184e-11</v>
+        <v>-8.970006265428007e-11</v>
       </c>
       <c r="E202" t="n">
-        <v>3.170486083254798e-11</v>
+        <v>1.959800550286023e-11</v>
       </c>
       <c r="F202" t="n">
-        <v>6.428692554446838e-11</v>
+        <v>3.591767665593212e-11</v>
       </c>
       <c r="G202" t="n">
-        <v>7.829931947593555e-11</v>
+        <v>4.20035083066972e-11</v>
       </c>
       <c r="H202" t="n">
-        <v>0.08466351120923798</v>
+        <v>20.22469868917674</v>
       </c>
       <c r="I202" t="n">
-        <v>0.9991289001789284</v>
+        <v>0.0004508876777047112</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0211658778023095</v>
+        <v>5.056174672294185</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.3619</v>
+        <v>5.3748</v>
       </c>
       <c r="B203" t="n">
-        <v>8.52439012354448e-11</v>
+        <v>3.21170439780489e-10</v>
       </c>
       <c r="C203" t="n">
-        <v>-1.175597139761891e-12</v>
+        <v>-7.593806398156883e-12</v>
       </c>
       <c r="D203" t="n">
-        <v>1.320448362247556e-11</v>
+        <v>5.57616428654563e-11</v>
       </c>
       <c r="E203" t="n">
-        <v>3.253622667722295e-11</v>
+        <v>1.318718698557006e-11</v>
       </c>
       <c r="F203" t="n">
-        <v>6.693434813216889e-11</v>
+        <v>2.620038986082685e-11</v>
       </c>
       <c r="G203" t="n">
-        <v>7.620915897784123e-11</v>
+        <v>2.952788117983785e-11</v>
       </c>
       <c r="H203" t="n">
-        <v>0.1218281879016877</v>
+        <v>5.9847243779194</v>
       </c>
       <c r="I203" t="n">
-        <v>0.9982183843092087</v>
+        <v>0.200291974216231</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03045704697542192</v>
+        <v>1.49618109447985</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.3639</v>
+        <v>5.3801</v>
       </c>
       <c r="B204" t="n">
-        <v>8.280370405159028e-11</v>
+        <v>3.345659162193385e-10</v>
       </c>
       <c r="C204" t="n">
-        <v>4.202442218627975e-12</v>
+        <v>2.037507704647551e-11</v>
       </c>
       <c r="D204" t="n">
-        <v>4.950350148576206e-12</v>
+        <v>2.505975015627224e-11</v>
       </c>
       <c r="E204" t="n">
-        <v>3.165531741484212e-11</v>
+        <v>1.188906785374364e-11</v>
       </c>
       <c r="F204" t="n">
-        <v>6.372079918058841e-11</v>
+        <v>2.323897573603553e-11</v>
       </c>
       <c r="G204" t="n">
-        <v>7.340316196728336e-11</v>
+        <v>2.689076452018758e-11</v>
       </c>
       <c r="H204" t="n">
-        <v>0.1786481305126081</v>
+        <v>6.006708003776159</v>
       </c>
       <c r="I204" t="n">
-        <v>0.9962404000698851</v>
+        <v>0.198647875465548</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04466203262815203</v>
+        <v>1.50167700094404</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.366</v>
+        <v>5.3829</v>
       </c>
       <c r="B205" t="n">
-        <v>8.202394857022309e-11</v>
+        <v>3.46982493277214e-10</v>
       </c>
       <c r="C205" t="n">
-        <v>1.104129917233819e-11</v>
+        <v>1.897908866460675e-11</v>
       </c>
       <c r="D205" t="n">
-        <v>3.763386733469565e-12</v>
+        <v>3.165879352107347e-11</v>
       </c>
       <c r="E205" t="n">
-        <v>3.133756610368674e-11</v>
+        <v>1.094288597149513e-11</v>
       </c>
       <c r="F205" t="n">
-        <v>5.970843455761408e-11</v>
+        <v>2.093651524666081e-11</v>
       </c>
       <c r="G205" t="n">
-        <v>7.505454804947869e-11</v>
+        <v>2.482722767824325e-11</v>
       </c>
       <c r="H205" t="n">
-        <v>0.1112916423740055</v>
+        <v>4.920653202290734</v>
       </c>
       <c r="I205" t="n">
-        <v>0.9985080253383048</v>
+        <v>0.2955362952433533</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02782291059350138</v>
+        <v>1.230163300572684</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.368</v>
+        <v>5.3833</v>
       </c>
       <c r="B206" t="n">
-        <v>7.384272292634569e-11</v>
+        <v>3.762325778480986e-10</v>
       </c>
       <c r="C206" t="n">
-        <v>5.481883353152553e-12</v>
+        <v>1.425965675048775e-11</v>
       </c>
       <c r="D206" t="n">
-        <v>1.449291522121141e-11</v>
+        <v>-5.415966312735305e-12</v>
       </c>
       <c r="E206" t="n">
-        <v>2.793196827038881e-11</v>
+        <v>1.135706145204864e-11</v>
       </c>
       <c r="F206" t="n">
-        <v>5.635391626025186e-11</v>
+        <v>2.162812469036657e-11</v>
       </c>
       <c r="G206" t="n">
-        <v>6.770943392603675e-11</v>
+        <v>2.534296384370513e-11</v>
       </c>
       <c r="H206" t="n">
-        <v>0.07183175590598531</v>
+        <v>4.298324707303427</v>
       </c>
       <c r="I206" t="n">
-        <v>0.9993702620686333</v>
+        <v>0.3671349249219001</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01795793897649633</v>
+        <v>1.074581176825857</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.3697</v>
+        <v>5.3839</v>
       </c>
       <c r="B207" t="n">
-        <v>7.796398011013788e-11</v>
+        <v>3.440163601468118e-10</v>
       </c>
       <c r="C207" t="n">
-        <v>1.453872462436651e-11</v>
+        <v>2.055841877045772e-11</v>
       </c>
       <c r="D207" t="n">
-        <v>1.729634289149919e-11</v>
+        <v>-8.649215891122588e-12</v>
       </c>
       <c r="E207" t="n">
-        <v>2.92161757000997e-11</v>
+        <v>1.004320978503111e-11</v>
       </c>
       <c r="F207" t="n">
-        <v>5.744429845478944e-11</v>
+        <v>1.878748899536345e-11</v>
       </c>
       <c r="G207" t="n">
-        <v>7.237497173331862e-11</v>
+        <v>2.245030249349909e-11</v>
       </c>
       <c r="H207" t="n">
-        <v>0.07273598879965659</v>
+        <v>1.270026250632692</v>
       </c>
       <c r="I207" t="n">
-        <v>0.999354501739749</v>
+        <v>0.8664401065950248</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01818399719991415</v>
+        <v>0.3175065626581731</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.3748</v>
+        <v>5.386</v>
       </c>
       <c r="B208" t="n">
-        <v>4.580854311212238e-11</v>
+        <v>3.464052082735771e-10</v>
       </c>
       <c r="C208" t="n">
-        <v>2.46148147111873e-12</v>
+        <v>2.37742977261084e-11</v>
       </c>
       <c r="D208" t="n">
-        <v>7.035374039293193e-12</v>
+        <v>1.488380001122569e-12</v>
       </c>
       <c r="E208" t="n">
-        <v>1.734573695289222e-11</v>
+        <v>9.913569116030647e-12</v>
       </c>
       <c r="F208" t="n">
-        <v>3.454790669324094e-11</v>
+        <v>1.890364467662877e-11</v>
       </c>
       <c r="G208" t="n">
-        <v>4.067019743306385e-11</v>
+        <v>2.195400586849146e-11</v>
       </c>
       <c r="H208" t="n">
-        <v>0.06803788348625012</v>
+        <v>0.9196344345477794</v>
       </c>
       <c r="I208" t="n">
-        <v>0.9994343131370105</v>
+        <v>0.9217271951075933</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01700947087156253</v>
+        <v>0.2299086086369448</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.3801</v>
+        <v>5.3899</v>
       </c>
       <c r="B209" t="n">
-        <v>1.904257381926188e-11</v>
+        <v>3.609032073050192e-10</v>
       </c>
       <c r="C209" t="n">
-        <v>2.147236940891877e-12</v>
+        <v>2.337827930379867e-11</v>
       </c>
       <c r="D209" t="n">
-        <v>1.551047523109792e-12</v>
+        <v>9.066242366429886e-12</v>
       </c>
       <c r="E209" t="n">
-        <v>7.411720496875931e-12</v>
+        <v>9.450725622461688e-12</v>
       </c>
       <c r="F209" t="n">
-        <v>1.667583788210205e-11</v>
+        <v>1.808390146083837e-11</v>
       </c>
       <c r="G209" t="n">
-        <v>1.865361005449659e-11</v>
+        <v>2.155320141852232e-11</v>
       </c>
       <c r="H209" t="n">
-        <v>0.5737941522340415</v>
+        <v>2.546815031990949</v>
       </c>
       <c r="I209" t="n">
-        <v>0.9659307616605982</v>
+        <v>0.6362729114227537</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1434485380585104</v>
+        <v>0.6367037579977374</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.3829</v>
+        <v>5.3931</v>
       </c>
       <c r="B210" t="n">
-        <v>1.399396102335313e-11</v>
+        <v>3.18369980575739e-10</v>
       </c>
       <c r="C210" t="n">
-        <v>3.410052351725848e-12</v>
+        <v>2.119626362918235e-10</v>
       </c>
       <c r="D210" t="n">
-        <v>-6.143404831440164e-12</v>
+        <v>-1.221357784737603e-10</v>
       </c>
       <c r="E210" t="n">
-        <v>5.598512490803784e-12</v>
+        <v>8.695551934203365e-12</v>
       </c>
       <c r="F210" t="n">
-        <v>9.441634562194172e-12</v>
+        <v>1.352225390143112e-11</v>
       </c>
       <c r="G210" t="n">
-        <v>1.313725981212268e-11</v>
+        <v>1.939907043238591e-11</v>
       </c>
       <c r="H210" t="n">
-        <v>0.2437931946067243</v>
+        <v>111.0683785257201</v>
       </c>
       <c r="I210" t="n">
-        <v>0.9931476315657406</v>
+        <v>4.306448070787029e-23</v>
       </c>
       <c r="J210" t="n">
-        <v>0.06094829865168107</v>
+        <v>27.76709463143002</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.3833</v>
+        <v>5.4034</v>
       </c>
       <c r="B211" t="n">
-        <v>2.05386814547785e-11</v>
+        <v>3.464325898478021e-10</v>
       </c>
       <c r="C211" t="n">
-        <v>-6.135064021929154e-13</v>
+        <v>1.814900362522236e-10</v>
       </c>
       <c r="D211" t="n">
-        <v>5.959811712919184e-12</v>
+        <v>-1.063428110837347e-10</v>
       </c>
       <c r="E211" t="n">
-        <v>7.876768561173722e-12</v>
+        <v>9.178083028955339e-12</v>
       </c>
       <c r="F211" t="n">
-        <v>1.693121203405695e-11</v>
+        <v>1.484822464547845e-11</v>
       </c>
       <c r="G211" t="n">
-        <v>1.941426213915387e-11</v>
+        <v>2.048544058201831e-11</v>
       </c>
       <c r="H211" t="n">
-        <v>0.2575264526136316</v>
+        <v>59.44840961419234</v>
       </c>
       <c r="I211" t="n">
-        <v>0.9923884328479106</v>
+        <v>3.788109503770234e-12</v>
       </c>
       <c r="J211" t="n">
-        <v>0.06438161315340789</v>
+        <v>14.86210240354808</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.3839</v>
+        <v>5.4141</v>
       </c>
       <c r="B212" t="n">
-        <v>1.570840053517372e-11</v>
+        <v>3.617975611822572e-10</v>
       </c>
       <c r="C212" t="n">
-        <v>4.226557876392661e-12</v>
+        <v>1.08946590011117e-10</v>
       </c>
       <c r="D212" t="n">
-        <v>4.584089271383031e-12</v>
+        <v>-5.672822518415731e-11</v>
       </c>
       <c r="E212" t="n">
-        <v>5.960354206504041e-12</v>
+        <v>9.682633489602617e-12</v>
       </c>
       <c r="F212" t="n">
-        <v>1.335970173061773e-11</v>
+        <v>1.642642056009418e-11</v>
       </c>
       <c r="G212" t="n">
-        <v>1.667689366630741e-11</v>
+        <v>2.127932255714583e-11</v>
       </c>
       <c r="H212" t="n">
-        <v>0.4425336966988825</v>
+        <v>31.06072600792624</v>
       </c>
       <c r="I212" t="n">
-        <v>0.9788487643760051</v>
+        <v>2.975304616644577e-06</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1106334241747206</v>
+        <v>7.76518150198156</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.386</v>
+        <v>5.4244</v>
       </c>
       <c r="B213" t="n">
-        <v>1.401541220918883e-11</v>
+        <v>3.393244163063036e-10</v>
       </c>
       <c r="C213" t="n">
-        <v>-1.128453512495063e-12</v>
+        <v>2.208791108237358e-11</v>
       </c>
       <c r="D213" t="n">
-        <v>1.996662756906658e-12</v>
+        <v>3.044952668005385e-11</v>
       </c>
       <c r="E213" t="n">
-        <v>5.423859336862233e-12</v>
+        <v>9.915956412846422e-12</v>
       </c>
       <c r="F213" t="n">
-        <v>1.106533599644804e-11</v>
+        <v>1.925402037192558e-11</v>
       </c>
       <c r="G213" t="n">
-        <v>1.300461824124896e-11</v>
+        <v>2.26692770620297e-11</v>
       </c>
       <c r="H213" t="n">
-        <v>0.1899167556604531</v>
+        <v>5.861359208228097</v>
       </c>
       <c r="I213" t="n">
-        <v>0.9957669582869163</v>
+        <v>0.2097440573857762</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04747918891511327</v>
+        <v>1.465339802057024</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.3899</v>
+        <v>5.4354</v>
       </c>
       <c r="B214" t="n">
-        <v>1.290833158198579e-11</v>
+        <v>3.360106546454052e-10</v>
       </c>
       <c r="C214" t="n">
-        <v>1.650617985008515e-12</v>
+        <v>3.39334260566634e-11</v>
       </c>
       <c r="D214" t="n">
-        <v>1.462540798228251e-12</v>
+        <v>-7.07233786678887e-12</v>
       </c>
       <c r="E214" t="n">
-        <v>4.946932524436936e-12</v>
+        <v>9.143435924292793e-12</v>
       </c>
       <c r="F214" t="n">
-        <v>1.067190974051073e-11</v>
+        <v>1.699696643436275e-11</v>
       </c>
       <c r="G214" t="n">
-        <v>1.259098862148342e-11</v>
+        <v>2.061670892322837e-11</v>
       </c>
       <c r="H214" t="n">
-        <v>0.333003018965845</v>
+        <v>4.232476203976972</v>
       </c>
       <c r="I214" t="n">
-        <v>0.9875853031735995</v>
+        <v>0.3754569114380208</v>
       </c>
       <c r="J214" t="n">
-        <v>0.08325075474146125</v>
+        <v>1.058119050994243</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.3931</v>
+        <v>5.4393</v>
       </c>
       <c r="B215" t="n">
-        <v>1.483928437713173e-11</v>
+        <v>3.414402919659178e-10</v>
       </c>
       <c r="C215" t="n">
-        <v>-3.414455389729407e-12</v>
+        <v>2.554593003291297e-11</v>
       </c>
       <c r="D215" t="n">
-        <v>1.303745904988324e-13</v>
+        <v>1.166742566969217e-11</v>
       </c>
       <c r="E215" t="n">
-        <v>5.877485341702666e-12</v>
+        <v>9.726524970615311e-12</v>
       </c>
       <c r="F215" t="n">
-        <v>1.172871667111854e-11</v>
+        <v>1.827494341172443e-11</v>
       </c>
       <c r="G215" t="n">
-        <v>1.343792099764156e-11</v>
+        <v>2.173875306654473e-11</v>
       </c>
       <c r="H215" t="n">
-        <v>0.3136596357481866</v>
+        <v>2.382220137923581</v>
       </c>
       <c r="I215" t="n">
-        <v>0.988915422107537</v>
+        <v>0.6658427331421166</v>
       </c>
       <c r="J215" t="n">
-        <v>0.07841490893704664</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>5.4034</v>
-      </c>
-      <c r="B216" t="n">
-        <v>1.214526559445952e-11</v>
-      </c>
-      <c r="C216" t="n">
-        <v>-2.7914841225363e-12</v>
-      </c>
-      <c r="D216" t="n">
-        <v>1.962631319022394e-12</v>
-      </c>
-      <c r="E216" t="n">
-        <v>4.859711350230376e-12</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1.053592591878954e-11</v>
-      </c>
-      <c r="G216" t="n">
-        <v>1.125187637193145e-11</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0.3752881074182464</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0.9844496787161262</v>
-      </c>
-      <c r="J216" t="n">
-        <v>0.0938220268545616</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>5.4141</v>
-      </c>
-      <c r="B217" t="n">
-        <v>1.620435512856558e-11</v>
-      </c>
-      <c r="C217" t="n">
-        <v>3.553107552864693e-13</v>
-      </c>
-      <c r="D217" t="n">
-        <v>4.875583437929029e-12</v>
-      </c>
-      <c r="E217" t="n">
-        <v>6.319637730962877e-12</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1.348090735130395e-11</v>
-      </c>
-      <c r="G217" t="n">
-        <v>1.525265331903117e-11</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0.3951963152261612</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0.9828683034794441</v>
-      </c>
-      <c r="J217" t="n">
-        <v>0.09879907880654029</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>5.4244</v>
-      </c>
-      <c r="B218" t="n">
-        <v>1.536848550506117e-11</v>
-      </c>
-      <c r="C218" t="n">
-        <v>-5.566723546743985e-13</v>
-      </c>
-      <c r="D218" t="n">
-        <v>3.767030045350579e-12</v>
-      </c>
-      <c r="E218" t="n">
-        <v>5.883887620261365e-12</v>
-      </c>
-      <c r="F218" t="n">
-        <v>1.278344353322868e-11</v>
-      </c>
-      <c r="G218" t="n">
-        <v>1.437938847810877e-11</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0.2233757377874188</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0.9942084302687031</v>
-      </c>
-      <c r="J218" t="n">
-        <v>0.0558439344468547</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>5.4354</v>
-      </c>
-      <c r="B219" t="n">
-        <v>1.650189396146563e-11</v>
-      </c>
-      <c r="C219" t="n">
-        <v>-7.897190415591653e-13</v>
-      </c>
-      <c r="D219" t="n">
-        <v>3.860891864842602e-12</v>
-      </c>
-      <c r="E219" t="n">
-        <v>6.316867865106481e-12</v>
-      </c>
-      <c r="F219" t="n">
-        <v>1.346722751763411e-11</v>
-      </c>
-      <c r="G219" t="n">
-        <v>1.505697489018443e-11</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0.1963380899610126</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0.9954854647226878</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0.04908452249025315</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>5.4393</v>
-      </c>
-      <c r="B220" t="n">
-        <v>1.679826819680863e-11</v>
-      </c>
-      <c r="C220" t="n">
-        <v>-2.843142173419556e-12</v>
-      </c>
-      <c r="D220" t="n">
-        <v>2.553410408137778e-12</v>
-      </c>
-      <c r="E220" t="n">
-        <v>6.585508300302039e-12</v>
-      </c>
-      <c r="F220" t="n">
-        <v>1.310259611327757e-11</v>
-      </c>
-      <c r="G220" t="n">
-        <v>1.573113989744244e-11</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0.2875745935936352</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0.9906020885122833</v>
-      </c>
-      <c r="J220" t="n">
-        <v>0.0718936483984088</v>
+        <v>0.5955550344808952</v>
       </c>
     </row>
   </sheetData>
